--- a/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
+++ b/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITP\LocalAdmin\project-management\05_Zeitaufzeichnung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Desktop\project-management\05_Zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A436EDD-83E8-4AB2-B82B-E16FB75322E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA60CC1D-E318-4F5E-885F-1209D9CF934B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allg." sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t>Aktivität</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>Entwicklungsumgebung eingerichtet</t>
+  </si>
+  <si>
+    <t>17.10.2019</t>
+  </si>
+  <si>
+    <t>Nutzwertanalyse - Datenformate / Lizenzserver</t>
   </si>
 </sst>
 </file>
@@ -631,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -782,88 +788,7 @@
     <xf numFmtId="20" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -873,7 +798,91 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1188,10 +1197,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1218,10 +1227,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="116" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1252,8 +1261,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="113"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1281,8 +1290,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
-      <c r="B4" s="114"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1311,8 +1320,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="115" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="119" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1343,9 +1352,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="111" t="s">
+      <c r="A6" s="129"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="115" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="28">
@@ -1373,9 +1382,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="111"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="37">
         <v>43718</v>
       </c>
@@ -1401,8 +1410,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1431,8 +1440,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="121" t="s">
+      <c r="A9" s="129"/>
+      <c r="B9" s="125" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="42" t="s">
@@ -1463,8 +1472,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="122"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1481,8 +1490,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
-      <c r="B11" s="123"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="47" t="s">
         <v>31</v>
       </c>
@@ -1499,11 +1508,11 @@
       <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
-      <c r="B12" s="118" t="s">
+      <c r="A12" s="129"/>
+      <c r="B12" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="26">
@@ -1531,9 +1540,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="128"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="18">
         <v>43754</v>
       </c>
@@ -1549,8 +1558,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="119"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="41" t="s">
         <v>16</v>
       </c>
@@ -1569,8 +1578,8 @@
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="120"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1589,8 +1598,8 @@
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="125"/>
-      <c r="B16" s="121" t="s">
+      <c r="A16" s="129"/>
+      <c r="B16" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="42" t="s">
@@ -1611,8 +1620,8 @@
       <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="125"/>
-      <c r="B17" s="122"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1631,8 +1640,8 @@
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
-      <c r="B18" s="123"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="47" t="s">
         <v>12</v>
       </c>
@@ -1651,8 +1660,8 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="118" t="s">
+      <c r="A19" s="129"/>
+      <c r="B19" s="122" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -1683,8 +1692,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="125"/>
-      <c r="B20" s="119"/>
+      <c r="A20" s="129"/>
+      <c r="B20" s="123"/>
       <c r="C20" s="55" t="s">
         <v>16</v>
       </c>
@@ -1713,8 +1722,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="125"/>
-      <c r="B21" s="119"/>
+      <c r="A21" s="129"/>
+      <c r="B21" s="123"/>
       <c r="C21" s="52" t="s">
         <v>12</v>
       </c>
@@ -1743,8 +1752,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="125"/>
-      <c r="B22" s="119"/>
+      <c r="A22" s="129"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="55"/>
       <c r="D22" s="41"/>
       <c r="E22" s="56"/>
@@ -1761,8 +1770,8 @@
       <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="126"/>
-      <c r="B23" s="119"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="123"/>
       <c r="C23" s="52"/>
       <c r="D23" s="3"/>
       <c r="E23" s="53"/>
@@ -1779,14 +1788,14 @@
       <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="107"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="111"/>
       <c r="G24" s="62">
         <f>SUM(G2+G3+G4+G5+G6+G7+G8+G9+G19+G20+G21)</f>
         <v>1.0868055555555556</v>
@@ -1807,10 +1816,10 @@
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="109" t="s">
+      <c r="A26" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="110"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="9" t="s">
         <v>0</v>
       </c>
@@ -1922,10 +1931,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="134" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="73" t="s">
@@ -1948,8 +1957,8 @@
       <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="72" t="s">
         <v>41</v>
       </c>
@@ -1970,8 +1979,8 @@
       <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="72" t="s">
         <v>42</v>
       </c>
@@ -1992,8 +2001,8 @@
       <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="84" t="s">
         <v>54</v>
       </c>
@@ -2014,8 +2023,8 @@
       <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="129" t="s">
+      <c r="A6" s="133"/>
+      <c r="B6" s="133" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="72" t="s">
@@ -2038,8 +2047,8 @@
       <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="72"/>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
@@ -2052,8 +2061,8 @@
       <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="72"/>
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
@@ -2066,8 +2075,8 @@
       <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="129"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="72"/>
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
@@ -2080,10 +2089,10 @@
       <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="133" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="72" t="s">
@@ -2104,8 +2113,8 @@
       <c r="I10" s="67"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
-      <c r="B11" s="129"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="72" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2133,8 @@
       <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="72" t="s">
         <v>49</v>
       </c>
@@ -2144,8 +2153,8 @@
       <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="131" t="s">
+      <c r="A13" s="133"/>
+      <c r="B13" s="135" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="72" t="s">
@@ -2166,8 +2175,8 @@
       <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
-      <c r="B14" s="132"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="72" t="s">
         <v>52</v>
       </c>
@@ -2186,8 +2195,8 @@
       <c r="I14" s="67"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="130"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="72" t="s">
         <v>53</v>
       </c>
@@ -2206,7 +2215,7 @@
       <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
+      <c r="A16" s="133"/>
       <c r="B16" s="68"/>
       <c r="C16" s="72"/>
       <c r="D16" s="81"/>
@@ -2220,7 +2229,7 @@
       <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
+      <c r="A17" s="133"/>
       <c r="B17" s="67"/>
       <c r="C17" s="72"/>
       <c r="D17" s="81"/>
@@ -2234,7 +2243,7 @@
       <c r="I17" s="67"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
+      <c r="A18" s="133"/>
       <c r="B18" s="67"/>
       <c r="C18" s="72"/>
       <c r="D18" s="81"/>
@@ -2248,7 +2257,7 @@
       <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
+      <c r="A19" s="133"/>
       <c r="B19" s="67"/>
       <c r="C19" s="72"/>
       <c r="D19" s="81"/>
@@ -2262,7 +2271,7 @@
       <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
+      <c r="A20" s="133"/>
       <c r="B20" s="67"/>
       <c r="C20" s="72"/>
       <c r="D20" s="81"/>
@@ -2276,7 +2285,7 @@
       <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="129"/>
+      <c r="A21" s="133"/>
       <c r="B21" s="67"/>
       <c r="C21" s="72"/>
       <c r="D21" s="81"/>
@@ -2290,7 +2299,7 @@
       <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="129"/>
+      <c r="A22" s="133"/>
       <c r="B22" s="67"/>
       <c r="C22" s="72"/>
       <c r="D22" s="81"/>
@@ -2304,7 +2313,7 @@
       <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="129"/>
+      <c r="A23" s="133"/>
       <c r="B23" s="67"/>
       <c r="C23" s="72"/>
       <c r="D23" s="81"/>
@@ -2331,10 +2340,10 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="107"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="78"/>
       <c r="D29" s="79"/>
       <c r="E29" s="80"/>
@@ -2421,10 +2430,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="135" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2455,8 +2464,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="132"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="87" t="s">
         <v>25</v>
       </c>
@@ -2484,8 +2493,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
-      <c r="B4" s="130"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
@@ -2514,8 +2523,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="115" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="119" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="101" t="s">
@@ -2546,8 +2555,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
-      <c r="B6" s="116"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="88" t="s">
         <v>23</v>
       </c>
@@ -2576,8 +2585,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
-      <c r="B7" s="116"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="88" t="s">
         <v>27</v>
       </c>
@@ -2606,8 +2615,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2636,8 +2645,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="121" t="s">
+      <c r="A9" s="129"/>
+      <c r="B9" s="125" t="s">
         <v>60</v>
       </c>
       <c r="C9" t="s">
@@ -2658,8 +2667,8 @@
       <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="122"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="104"/>
       <c r="D10" s="18"/>
       <c r="E10" s="12"/>
@@ -2670,8 +2679,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
-      <c r="B11" s="123"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="105"/>
       <c r="D11" s="48"/>
       <c r="E11" s="49"/>
@@ -2682,8 +2691,8 @@
       <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
-      <c r="B12" s="118"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
@@ -2694,8 +2703,8 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
       <c r="E13" s="27"/>
@@ -2706,8 +2715,8 @@
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="120"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="16"/>
@@ -2718,8 +2727,8 @@
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="121"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="44"/>
@@ -2730,8 +2739,8 @@
       <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="125"/>
-      <c r="B16" s="122"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="12"/>
@@ -2742,8 +2751,8 @@
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="125"/>
-      <c r="B17" s="123"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
       <c r="E17" s="49"/>
@@ -2754,8 +2763,8 @@
       <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
-      <c r="B18" s="118"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="54"/>
       <c r="D18" s="26"/>
       <c r="E18" s="53"/>
@@ -2766,8 +2775,8 @@
       <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="119"/>
+      <c r="A19" s="129"/>
+      <c r="B19" s="123"/>
       <c r="C19" s="55"/>
       <c r="D19" s="37"/>
       <c r="E19" s="56"/>
@@ -2778,8 +2787,8 @@
       <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="125"/>
-      <c r="B20" s="119"/>
+      <c r="A20" s="129"/>
+      <c r="B20" s="123"/>
       <c r="C20" s="52"/>
       <c r="D20" s="18"/>
       <c r="E20" s="53"/>
@@ -2790,8 +2799,8 @@
       <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="125"/>
-      <c r="B21" s="119"/>
+      <c r="A21" s="129"/>
+      <c r="B21" s="123"/>
       <c r="C21" s="55"/>
       <c r="D21" s="41"/>
       <c r="E21" s="56"/>
@@ -2802,8 +2811,8 @@
       <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="126"/>
-      <c r="B22" s="133"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="137"/>
       <c r="C22" s="52"/>
       <c r="D22" s="3"/>
       <c r="E22" s="53"/>
@@ -2944,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4C5F66-E89D-4EAB-B57A-C68CB0901AD5}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,10 +2971,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2992,247 +3001,282 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="136">
+      <c r="E2" s="109">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F2" s="136">
+      <c r="F2" s="109">
         <v>0.85416666666666663</v>
       </c>
-      <c r="G2" s="136">
+      <c r="G2" s="109">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H2" s="136">
+      <c r="H2" s="109">
         <v>6.25E-2</v>
       </c>
-      <c r="I2" s="136">
+      <c r="I2" s="109">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J2" s="135"/>
+      <c r="J2" s="108"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="134" t="s">
+      <c r="A3" s="136"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="135" t="s">
+      <c r="D3" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="136">
+      <c r="E3" s="109">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F3" s="136">
+      <c r="F3" s="109">
         <v>0.81944444444444453</v>
       </c>
-      <c r="G3" s="136">
+      <c r="G3" s="109">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H3" s="136">
+      <c r="H3" s="109">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="I3" s="136">
+      <c r="I3" s="109">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="J3" s="135"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="134" t="s">
+      <c r="A4" s="136"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="136">
+      <c r="E4" s="109">
         <v>0.67013888888888884</v>
       </c>
-      <c r="F4" s="136">
+      <c r="F4" s="109">
         <v>0.67708333333333337</v>
       </c>
-      <c r="G4" s="137">
+      <c r="G4" s="138">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H4" s="137">
+      <c r="H4" s="138">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="I4" s="137">
+      <c r="I4" s="138">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="J4" s="135"/>
+      <c r="J4" s="108"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="134" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="136">
+      <c r="E5" s="109">
         <v>0.69097222222222221</v>
       </c>
-      <c r="F5" s="136">
+      <c r="F5" s="109">
         <v>0.71875</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="135"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="129" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="109">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="F6" s="109">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G6" s="109">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H6" s="109">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="I6" s="109">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="J6" s="108"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="136"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="136"/>
+      <c r="B8" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C8" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D8" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="136">
+      <c r="E8" s="109">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F6" s="136">
+      <c r="F8" s="109">
         <v>0.63194444444444442</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G8" s="109">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H6" s="136">
+      <c r="H8" s="109">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="I6" s="136">
+      <c r="I8" s="109">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="J6" s="135"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
+      <c r="J8" s="108"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B12" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C12" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D12" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="136">
+      <c r="E12" s="109">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F10" s="136">
+      <c r="F12" s="109">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G10" s="136">
+      <c r="G12" s="109">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H10" s="136">
+      <c r="H12" s="109">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I10" s="136">
+      <c r="I12" s="109">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J10" s="135"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
+      <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="133"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="133"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
+  <mergeCells count="5">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B2:B7"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
+++ b/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Desktop\project-management\05_Zeitaufzeichnung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITP\LocalAdmin\project-management\05_Zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA60CC1D-E318-4F5E-885F-1209D9CF934B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F26444-F870-4548-BC0B-AB5F4DE2165C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allg." sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>Aktivität</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Nutzwertanalyse - Datenformate / Lizenzserver</t>
+  </si>
+  <si>
+    <t>18.10.2019</t>
   </si>
 </sst>
 </file>
@@ -798,6 +801,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -880,9 +886,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,10 +1200,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="115"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1227,10 +1230,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="117" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1261,8 +1264,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="117"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1290,8 +1293,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="118"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1320,8 +1323,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="130"/>
+      <c r="B5" s="120" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1352,9 +1355,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="115" t="s">
+      <c r="A6" s="130"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="116" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="28">
@@ -1382,9 +1385,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="115"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="116"/>
       <c r="D7" s="37">
         <v>43718</v>
       </c>
@@ -1410,8 +1413,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
-      <c r="B8" s="121"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1440,8 +1443,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="125" t="s">
+      <c r="A9" s="130"/>
+      <c r="B9" s="126" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="42" t="s">
@@ -1472,8 +1475,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="129"/>
-      <c r="B10" s="126"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1490,8 +1493,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
-      <c r="B11" s="127"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="47" t="s">
         <v>31</v>
       </c>
@@ -1508,11 +1511,11 @@
       <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
-      <c r="B12" s="122" t="s">
+      <c r="A12" s="130"/>
+      <c r="B12" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="132" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="26">
@@ -1540,9 +1543,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="132"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="133"/>
       <c r="D13" s="18">
         <v>43754</v>
       </c>
@@ -1558,8 +1561,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
-      <c r="B14" s="123"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="41" t="s">
         <v>16</v>
       </c>
@@ -1578,8 +1581,8 @@
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="124"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1598,8 +1601,8 @@
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
-      <c r="B16" s="125" t="s">
+      <c r="A16" s="130"/>
+      <c r="B16" s="126" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="42" t="s">
@@ -1620,8 +1623,8 @@
       <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
-      <c r="B17" s="126"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1640,8 +1643,8 @@
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="127"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="47" t="s">
         <v>12</v>
       </c>
@@ -1660,8 +1663,8 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
-      <c r="B19" s="122" t="s">
+      <c r="A19" s="130"/>
+      <c r="B19" s="123" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -1692,8 +1695,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
-      <c r="B20" s="123"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="55" t="s">
         <v>16</v>
       </c>
@@ -1722,8 +1725,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="129"/>
-      <c r="B21" s="123"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="52" t="s">
         <v>12</v>
       </c>
@@ -1752,8 +1755,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="129"/>
-      <c r="B22" s="123"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="55"/>
       <c r="D22" s="41"/>
       <c r="E22" s="56"/>
@@ -1770,8 +1773,8 @@
       <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="130"/>
-      <c r="B23" s="123"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="52"/>
       <c r="D23" s="3"/>
       <c r="E23" s="53"/>
@@ -1788,14 +1791,14 @@
       <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="111"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="62">
         <f>SUM(G2+G3+G4+G5+G6+G7+G8+G9+G19+G20+G21)</f>
         <v>1.0868055555555556</v>
@@ -1816,10 +1819,10 @@
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="114"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="9" t="s">
         <v>0</v>
       </c>
@@ -1931,10 +1934,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="135" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="73" t="s">
@@ -1957,8 +1960,8 @@
       <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="72" t="s">
         <v>41</v>
       </c>
@@ -1979,8 +1982,8 @@
       <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="72" t="s">
         <v>42</v>
       </c>
@@ -2001,8 +2004,8 @@
       <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
-      <c r="B5" s="133"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="84" t="s">
         <v>54</v>
       </c>
@@ -2023,8 +2026,8 @@
       <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="133"/>
-      <c r="B6" s="133" t="s">
+      <c r="A6" s="134"/>
+      <c r="B6" s="134" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="72" t="s">
@@ -2047,8 +2050,8 @@
       <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="133"/>
-      <c r="B7" s="133"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="72"/>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
@@ -2061,8 +2064,8 @@
       <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="133"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="72"/>
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
@@ -2075,8 +2078,8 @@
       <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="133"/>
-      <c r="B9" s="133"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="72"/>
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
@@ -2089,10 +2092,10 @@
       <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="134" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="72" t="s">
@@ -2113,8 +2116,8 @@
       <c r="I10" s="67"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
-      <c r="B11" s="133"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="72" t="s">
         <v>48</v>
       </c>
@@ -2133,8 +2136,8 @@
       <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="133"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="134"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="72" t="s">
         <v>49</v>
       </c>
@@ -2153,8 +2156,8 @@
       <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="135" t="s">
+      <c r="A13" s="134"/>
+      <c r="B13" s="136" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="72" t="s">
@@ -2175,8 +2178,8 @@
       <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
-      <c r="B14" s="136"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="72" t="s">
         <v>52</v>
       </c>
@@ -2195,8 +2198,8 @@
       <c r="I14" s="67"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="72" t="s">
         <v>53</v>
       </c>
@@ -2215,7 +2218,7 @@
       <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="68"/>
       <c r="C16" s="72"/>
       <c r="D16" s="81"/>
@@ -2229,7 +2232,7 @@
       <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="133"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="67"/>
       <c r="C17" s="72"/>
       <c r="D17" s="81"/>
@@ -2243,7 +2246,7 @@
       <c r="I17" s="67"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="133"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="67"/>
       <c r="C18" s="72"/>
       <c r="D18" s="81"/>
@@ -2257,7 +2260,7 @@
       <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="133"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="67"/>
       <c r="C19" s="72"/>
       <c r="D19" s="81"/>
@@ -2271,7 +2274,7 @@
       <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="133"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="67"/>
       <c r="C20" s="72"/>
       <c r="D20" s="81"/>
@@ -2285,7 +2288,7 @@
       <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="133"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="67"/>
       <c r="C21" s="72"/>
       <c r="D21" s="81"/>
@@ -2299,7 +2302,7 @@
       <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="67"/>
       <c r="C22" s="72"/>
       <c r="D22" s="81"/>
@@ -2313,7 +2316,7 @@
       <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="67"/>
       <c r="C23" s="72"/>
       <c r="D23" s="81"/>
@@ -2340,10 +2343,10 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="111"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="78"/>
       <c r="D29" s="79"/>
       <c r="E29" s="80"/>
@@ -2430,10 +2433,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="136" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2464,8 +2467,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="136"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="137"/>
       <c r="C3" s="87" t="s">
         <v>25</v>
       </c>
@@ -2493,8 +2496,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="134"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
@@ -2523,8 +2526,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="130"/>
+      <c r="B5" s="120" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="101" t="s">
@@ -2555,8 +2558,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="120"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="88" t="s">
         <v>23</v>
       </c>
@@ -2585,8 +2588,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="120"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="88" t="s">
         <v>27</v>
       </c>
@@ -2615,8 +2618,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
-      <c r="B8" s="121"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2645,8 +2648,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="125" t="s">
+      <c r="A9" s="130"/>
+      <c r="B9" s="126" t="s">
         <v>60</v>
       </c>
       <c r="C9" t="s">
@@ -2667,8 +2670,8 @@
       <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="129"/>
-      <c r="B10" s="126"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="104"/>
       <c r="D10" s="18"/>
       <c r="E10" s="12"/>
@@ -2679,8 +2682,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
-      <c r="B11" s="127"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="105"/>
       <c r="D11" s="48"/>
       <c r="E11" s="49"/>
@@ -2691,8 +2694,8 @@
       <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
-      <c r="B12" s="122"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
@@ -2703,8 +2706,8 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="123"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
       <c r="E13" s="27"/>
@@ -2715,8 +2718,8 @@
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
-      <c r="B14" s="124"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="16"/>
@@ -2727,8 +2730,8 @@
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="44"/>
@@ -2739,8 +2742,8 @@
       <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
-      <c r="B16" s="126"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="12"/>
@@ -2751,8 +2754,8 @@
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
-      <c r="B17" s="127"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
       <c r="E17" s="49"/>
@@ -2763,8 +2766,8 @@
       <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="122"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="123"/>
       <c r="C18" s="54"/>
       <c r="D18" s="26"/>
       <c r="E18" s="53"/>
@@ -2775,8 +2778,8 @@
       <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
-      <c r="B19" s="123"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="55"/>
       <c r="D19" s="37"/>
       <c r="E19" s="56"/>
@@ -2787,8 +2790,8 @@
       <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
-      <c r="B20" s="123"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="52"/>
       <c r="D20" s="18"/>
       <c r="E20" s="53"/>
@@ -2799,8 +2802,8 @@
       <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="129"/>
-      <c r="B21" s="123"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="55"/>
       <c r="D21" s="41"/>
       <c r="E21" s="56"/>
@@ -2811,8 +2814,8 @@
       <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="130"/>
-      <c r="B22" s="137"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="138"/>
       <c r="C22" s="52"/>
       <c r="D22" s="3"/>
       <c r="E22" s="53"/>
@@ -2956,7 +2959,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,10 +2974,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="115"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3001,10 +3004,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="134" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="107" t="s">
@@ -3031,8 +3034,8 @@
       <c r="J2" s="108"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="136"/>
-      <c r="B3" s="133"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="107" t="s">
         <v>63</v>
       </c>
@@ -3057,8 +3060,8 @@
       <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="133"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="107" t="s">
         <v>64</v>
       </c>
@@ -3071,20 +3074,20 @@
       <c r="F4" s="109">
         <v>0.67708333333333337</v>
       </c>
-      <c r="G4" s="138">
+      <c r="G4" s="110">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H4" s="138">
+      <c r="H4" s="110">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="I4" s="138">
+      <c r="I4" s="110">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="J4" s="108"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="133"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="107" t="s">
         <v>64</v>
       </c>
@@ -3103,8 +3106,8 @@
       <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="133"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="107" t="s">
         <v>69</v>
       </c>
@@ -3129,20 +3132,28 @@
       <c r="J6" s="108"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="109">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F7" s="109">
+        <v>0.4777777777777778</v>
+      </c>
       <c r="G7" s="108"/>
       <c r="H7" s="108"/>
       <c r="I7" s="108"/>
       <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="135" t="s">
+      <c r="A8" s="137"/>
+      <c r="B8" s="136" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="107" t="s">
@@ -3169,8 +3180,8 @@
       <c r="J8" s="108"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="136"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
       <c r="E9" s="108"/>
@@ -3181,8 +3192,8 @@
       <c r="J9" s="108"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="137"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108"/>
       <c r="E10" s="108"/>
@@ -3193,8 +3204,8 @@
       <c r="J10" s="108"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="134"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
       <c r="E11" s="108"/>
@@ -3205,7 +3216,7 @@
       <c r="J11" s="108"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="134" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="108" t="s">
@@ -3235,7 +3246,7 @@
       <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -3247,7 +3258,7 @@
       <c r="J13" s="108"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -3259,7 +3270,7 @@
       <c r="J14" s="108"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>

--- a/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
+++ b/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITP\LocalAdmin\project-management\05_Zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F26444-F870-4548-BC0B-AB5F4DE2165C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1E514E-E6FB-4598-B56E-F725E6DBA2CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
   <si>
     <t>Aktivität</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>18.10.2019</t>
+  </si>
+  <si>
+    <t>Nutzwertanalyse - Datenformate</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -791,9 +794,6 @@
     <xf numFmtId="20" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,6 +804,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -887,6 +890,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2956,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4C5F66-E89D-4EAB-B57A-C68CB0901AD5}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,290 +3011,322 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="134" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="109">
+      <c r="E2" s="108">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F2" s="109">
+      <c r="F2" s="108">
         <v>0.85416666666666663</v>
       </c>
-      <c r="G2" s="109">
+      <c r="G2" s="108">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H2" s="109">
+      <c r="H2" s="108">
         <v>6.25E-2</v>
       </c>
-      <c r="I2" s="109">
+      <c r="I2" s="108">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J2" s="108"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="137"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="134"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="108">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F3" s="109">
+      <c r="F3" s="108">
         <v>0.81944444444444453</v>
       </c>
-      <c r="G3" s="109">
+      <c r="G3" s="108">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H3" s="109">
+      <c r="H3" s="108">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="I3" s="109">
+      <c r="I3" s="108">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="J3" s="108"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="137"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="134"/>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="109">
+      <c r="E4" s="108">
         <v>0.67013888888888884</v>
       </c>
-      <c r="F4" s="109">
+      <c r="F4" s="108">
         <v>0.67708333333333337</v>
       </c>
-      <c r="G4" s="110">
+      <c r="G4" s="109">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H4" s="110">
+      <c r="H4" s="109">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="I4" s="110">
+      <c r="I4" s="109">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="J4" s="108"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="137"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="134"/>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="109">
+      <c r="E5" s="108">
         <v>0.69097222222222221</v>
       </c>
-      <c r="F5" s="109">
+      <c r="F5" s="108">
         <v>0.71875</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="108"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="107"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="137"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="134"/>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="109">
+      <c r="E6" s="108">
         <v>0.67361111111111116</v>
       </c>
-      <c r="F6" s="109">
+      <c r="F6" s="108">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="108">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H6" s="109">
+      <c r="H6" s="108">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="I6" s="109">
+      <c r="I6" s="108">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="J6" s="108"/>
+      <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="137"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="134"/>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="109">
+      <c r="E7" s="108">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F7" s="109">
+      <c r="F7" s="108">
         <v>0.4777777777777778</v>
       </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="137"/>
-      <c r="B8" s="136" t="s">
+      <c r="A8" s="134"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="139" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="140" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="108">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F8" s="108">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="134"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="134"/>
+      <c r="B10" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D10" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="109">
+      <c r="E10" s="108">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F8" s="109">
+      <c r="F10" s="108">
         <v>0.63194444444444442</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G10" s="108">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H10" s="108">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="I8" s="109">
+      <c r="I10" s="108">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="J8" s="108"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="137"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
+      <c r="J10" s="107"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="134" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="109">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F12" s="109">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G12" s="109">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H12" s="109">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I12" s="109">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J12" s="108"/>
+      <c r="A12" s="134"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="134"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="134"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="134"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="134" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="108">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F16" s="108">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G16" s="108">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H16" s="108">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I16" s="108">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J16" s="107"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="134"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="134"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="134"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B2:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
+++ b/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITP\LocalAdmin\project-management\05_Zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1E514E-E6FB-4598-B56E-F725E6DBA2CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE10D085-7306-488A-B546-1D0AF8501CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
   <si>
     <t>Aktivität</t>
   </si>
@@ -807,93 +807,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,10 +1207,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1237,10 +1237,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1271,8 +1271,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="118"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1300,8 +1300,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="119"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1330,8 +1330,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="120" t="s">
+      <c r="A5" s="132"/>
+      <c r="B5" s="122" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1362,9 +1362,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="116" t="s">
+      <c r="A6" s="132"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="118" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="28">
@@ -1392,9 +1392,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="116"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="37">
         <v>43718</v>
       </c>
@@ -1420,8 +1420,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="122"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1450,8 +1450,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="126" t="s">
+      <c r="A9" s="132"/>
+      <c r="B9" s="128" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="42" t="s">
@@ -1482,8 +1482,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="127"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1500,8 +1500,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="128"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="47" t="s">
         <v>31</v>
       </c>
@@ -1518,11 +1518,11 @@
       <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
-      <c r="B12" s="123" t="s">
+      <c r="A12" s="132"/>
+      <c r="B12" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="134" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="26">
@@ -1550,9 +1550,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="133"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="18">
         <v>43754</v>
       </c>
@@ -1568,8 +1568,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="124"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="41" t="s">
         <v>16</v>
       </c>
@@ -1588,8 +1588,8 @@
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1608,8 +1608,8 @@
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
-      <c r="B16" s="126" t="s">
+      <c r="A16" s="132"/>
+      <c r="B16" s="128" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="42" t="s">
@@ -1630,8 +1630,8 @@
       <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="127"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1650,8 +1650,8 @@
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="47" t="s">
         <v>12</v>
       </c>
@@ -1670,8 +1670,8 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="123" t="s">
+      <c r="A19" s="132"/>
+      <c r="B19" s="125" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -1702,8 +1702,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="124"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="55" t="s">
         <v>16</v>
       </c>
@@ -1732,8 +1732,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="124"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="52" t="s">
         <v>12</v>
       </c>
@@ -1762,8 +1762,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="124"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="55"/>
       <c r="D22" s="41"/>
       <c r="E22" s="56"/>
@@ -1780,8 +1780,8 @@
       <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="131"/>
-      <c r="B23" s="124"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="52"/>
       <c r="D23" s="3"/>
       <c r="E23" s="53"/>
@@ -1798,14 +1798,14 @@
       <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="111" t="s">
+      <c r="A24" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="112"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="114"/>
       <c r="G24" s="62">
         <f>SUM(G2+G3+G4+G5+G6+G7+G8+G9+G19+G20+G21)</f>
         <v>1.0868055555555556</v>
@@ -1826,10 +1826,10 @@
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="115"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="9" t="s">
         <v>0</v>
       </c>
@@ -1941,10 +1941,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="137" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="73" t="s">
@@ -1967,8 +1967,8 @@
       <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
       <c r="C3" s="72" t="s">
         <v>41</v>
       </c>
@@ -1989,8 +1989,8 @@
       <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="72" t="s">
         <v>42</v>
       </c>
@@ -2011,8 +2011,8 @@
       <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="84" t="s">
         <v>54</v>
       </c>
@@ -2033,8 +2033,8 @@
       <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="134" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="136" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="72" t="s">
@@ -2057,8 +2057,8 @@
       <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="72"/>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
@@ -2071,8 +2071,8 @@
       <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="134"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="72"/>
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
@@ -2085,8 +2085,8 @@
       <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="72"/>
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
@@ -2099,10 +2099,10 @@
       <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="136" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="72" t="s">
@@ -2123,8 +2123,8 @@
       <c r="I10" s="67"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="134"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="72" t="s">
         <v>48</v>
       </c>
@@ -2143,8 +2143,8 @@
       <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="134"/>
-      <c r="B12" s="134"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="72" t="s">
         <v>49</v>
       </c>
@@ -2163,8 +2163,8 @@
       <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="136" t="s">
+      <c r="A13" s="136"/>
+      <c r="B13" s="138" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="72" t="s">
@@ -2185,8 +2185,8 @@
       <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="134"/>
-      <c r="B14" s="137"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="72" t="s">
         <v>52</v>
       </c>
@@ -2205,8 +2205,8 @@
       <c r="I14" s="67"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="134"/>
-      <c r="B15" s="135"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="72" t="s">
         <v>53</v>
       </c>
@@ -2225,7 +2225,7 @@
       <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="134"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="68"/>
       <c r="C16" s="72"/>
       <c r="D16" s="81"/>
@@ -2239,7 +2239,7 @@
       <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="67"/>
       <c r="C17" s="72"/>
       <c r="D17" s="81"/>
@@ -2253,7 +2253,7 @@
       <c r="I17" s="67"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="67"/>
       <c r="C18" s="72"/>
       <c r="D18" s="81"/>
@@ -2267,7 +2267,7 @@
       <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="134"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="67"/>
       <c r="C19" s="72"/>
       <c r="D19" s="81"/>
@@ -2281,7 +2281,7 @@
       <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="67"/>
       <c r="C20" s="72"/>
       <c r="D20" s="81"/>
@@ -2295,7 +2295,7 @@
       <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="67"/>
       <c r="C21" s="72"/>
       <c r="D21" s="81"/>
@@ -2309,7 +2309,7 @@
       <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="134"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="67"/>
       <c r="C22" s="72"/>
       <c r="D22" s="81"/>
@@ -2323,7 +2323,7 @@
       <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
+      <c r="A23" s="136"/>
       <c r="B23" s="67"/>
       <c r="C23" s="72"/>
       <c r="D23" s="81"/>
@@ -2350,10 +2350,10 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="112"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="78"/>
       <c r="D29" s="79"/>
       <c r="E29" s="80"/>
@@ -2440,10 +2440,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="138" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2474,8 +2474,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="137"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="87" t="s">
         <v>25</v>
       </c>
@@ -2503,8 +2503,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="135"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
@@ -2533,8 +2533,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="120" t="s">
+      <c r="A5" s="132"/>
+      <c r="B5" s="122" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="101" t="s">
@@ -2565,8 +2565,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
-      <c r="B6" s="121"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="88" t="s">
         <v>23</v>
       </c>
@@ -2595,8 +2595,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
-      <c r="B7" s="121"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="123"/>
       <c r="C7" s="88" t="s">
         <v>27</v>
       </c>
@@ -2625,8 +2625,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="122"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2655,8 +2655,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="126" t="s">
+      <c r="A9" s="132"/>
+      <c r="B9" s="128" t="s">
         <v>60</v>
       </c>
       <c r="C9" t="s">
@@ -2677,8 +2677,8 @@
       <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="127"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="104"/>
       <c r="D10" s="18"/>
       <c r="E10" s="12"/>
@@ -2689,8 +2689,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="128"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="105"/>
       <c r="D11" s="48"/>
       <c r="E11" s="49"/>
@@ -2701,8 +2701,8 @@
       <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
-      <c r="B12" s="123"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
@@ -2713,8 +2713,8 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
-      <c r="B13" s="124"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
       <c r="E13" s="27"/>
@@ -2725,8 +2725,8 @@
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="125"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="16"/>
@@ -2737,8 +2737,8 @@
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="126"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="44"/>
@@ -2749,8 +2749,8 @@
       <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
-      <c r="B16" s="127"/>
+      <c r="A16" s="132"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="12"/>
@@ -2761,8 +2761,8 @@
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="128"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
       <c r="E17" s="49"/>
@@ -2773,8 +2773,8 @@
       <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="123"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="54"/>
       <c r="D18" s="26"/>
       <c r="E18" s="53"/>
@@ -2785,8 +2785,8 @@
       <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="124"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="55"/>
       <c r="D19" s="37"/>
       <c r="E19" s="56"/>
@@ -2797,8 +2797,8 @@
       <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="124"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="52"/>
       <c r="D20" s="18"/>
       <c r="E20" s="53"/>
@@ -2809,8 +2809,8 @@
       <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="124"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="55"/>
       <c r="D21" s="41"/>
       <c r="E21" s="56"/>
@@ -2821,8 +2821,8 @@
       <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="131"/>
-      <c r="B22" s="138"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="140"/>
       <c r="C22" s="52"/>
       <c r="D22" s="3"/>
       <c r="E22" s="53"/>
@@ -2966,7 +2966,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,10 +2981,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3011,10 +3011,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="136" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="106" t="s">
@@ -3041,8 +3041,8 @@
       <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="106" t="s">
         <v>63</v>
       </c>
@@ -3067,8 +3067,8 @@
       <c r="J3" s="107"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="106" t="s">
         <v>64</v>
       </c>
@@ -3093,8 +3093,8 @@
       <c r="J4" s="107"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="106" t="s">
         <v>64</v>
       </c>
@@ -3113,8 +3113,8 @@
       <c r="J5" s="107"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="134"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="106" t="s">
         <v>69</v>
       </c>
@@ -3139,8 +3139,8 @@
       <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="106" t="s">
         <v>69</v>
       </c>
@@ -3159,12 +3159,12 @@
       <c r="J7" s="107"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="139" t="s">
+      <c r="A8" s="136"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="112" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="108">
@@ -3179,20 +3179,28 @@
       <c r="J8" s="107"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="108">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F9" s="108">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G9" s="107"/>
       <c r="H9" s="107"/>
       <c r="I9" s="107"/>
       <c r="J9" s="107"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
-      <c r="B10" s="134" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="136" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="106" t="s">
@@ -3219,8 +3227,8 @@
       <c r="J10" s="107"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="134"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="106"/>
       <c r="D11" s="107"/>
       <c r="E11" s="107"/>
@@ -3231,8 +3239,8 @@
       <c r="J11" s="107"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="134"/>
-      <c r="B12" s="134"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="106"/>
       <c r="D12" s="107"/>
       <c r="E12" s="107"/>
@@ -3243,8 +3251,8 @@
       <c r="J12" s="107"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="134"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="106"/>
       <c r="D13" s="107"/>
       <c r="E13" s="107"/>
@@ -3255,7 +3263,7 @@
       <c r="J13" s="107"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="136" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="107" t="s">
@@ -3285,7 +3293,7 @@
       <c r="J16" s="107"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="106"/>
       <c r="C17" s="106"/>
       <c r="D17" s="107"/>
@@ -3297,7 +3305,7 @@
       <c r="J17" s="107"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="106"/>
       <c r="C18" s="106"/>
       <c r="D18" s="107"/>
@@ -3309,7 +3317,7 @@
       <c r="J18" s="107"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="134"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="106"/>
       <c r="C19" s="106"/>
       <c r="D19" s="107"/>

--- a/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
+++ b/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITP\LocalAdmin\project-management\05_Zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE10D085-7306-488A-B546-1D0AF8501CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AB231C-8BA3-4B51-9996-3464EDBA33FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>Aktivität</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Nutzwertanalyse - Datenformate</t>
+  </si>
+  <si>
+    <t>Nutzwertanalyse - Lizenzserver</t>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -811,6 +814,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,6 +900,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,10 +1217,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="118"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1237,10 +1247,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="120" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1271,8 +1281,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="120"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1300,8 +1310,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="121"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="122"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1330,8 +1340,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
-      <c r="B5" s="122" t="s">
+      <c r="A5" s="133"/>
+      <c r="B5" s="123" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1362,9 +1372,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="118" t="s">
+      <c r="A6" s="133"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="119" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="28">
@@ -1392,9 +1402,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="132"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="118"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="37">
         <v>43718</v>
       </c>
@@ -1420,8 +1430,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="132"/>
-      <c r="B8" s="124"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1450,8 +1460,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
-      <c r="B9" s="128" t="s">
+      <c r="A9" s="133"/>
+      <c r="B9" s="129" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="42" t="s">
@@ -1482,8 +1492,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
-      <c r="B10" s="129"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1500,8 +1510,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
-      <c r="B11" s="130"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="47" t="s">
         <v>31</v>
       </c>
@@ -1518,11 +1528,11 @@
       <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
-      <c r="B12" s="125" t="s">
+      <c r="A12" s="133"/>
+      <c r="B12" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="135" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="26">
@@ -1550,9 +1560,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="135"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="18">
         <v>43754</v>
       </c>
@@ -1568,8 +1578,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
-      <c r="B14" s="126"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="41" t="s">
         <v>16</v>
       </c>
@@ -1588,8 +1598,8 @@
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
-      <c r="B15" s="127"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1608,8 +1618,8 @@
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="128" t="s">
+      <c r="A16" s="133"/>
+      <c r="B16" s="129" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="42" t="s">
@@ -1630,8 +1640,8 @@
       <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="129"/>
+      <c r="A17" s="133"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1650,8 +1660,8 @@
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="130"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="47" t="s">
         <v>12</v>
       </c>
@@ -1670,8 +1680,8 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
-      <c r="B19" s="125" t="s">
+      <c r="A19" s="133"/>
+      <c r="B19" s="126" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -1702,8 +1712,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
-      <c r="B20" s="126"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="55" t="s">
         <v>16</v>
       </c>
@@ -1732,8 +1742,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="126"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="52" t="s">
         <v>12</v>
       </c>
@@ -1762,8 +1772,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
-      <c r="B22" s="126"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="55"/>
       <c r="D22" s="41"/>
       <c r="E22" s="56"/>
@@ -1780,8 +1790,8 @@
       <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="133"/>
-      <c r="B23" s="126"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="52"/>
       <c r="D23" s="3"/>
       <c r="E23" s="53"/>
@@ -1798,14 +1808,14 @@
       <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="115"/>
       <c r="G24" s="62">
         <f>SUM(G2+G3+G4+G5+G6+G7+G8+G9+G19+G20+G21)</f>
         <v>1.0868055555555556</v>
@@ -1826,10 +1836,10 @@
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="117"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="9" t="s">
         <v>0</v>
       </c>
@@ -1941,10 +1951,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="73" t="s">
@@ -1967,8 +1977,8 @@
       <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
       <c r="C3" s="72" t="s">
         <v>41</v>
       </c>
@@ -1989,8 +1999,8 @@
       <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="72" t="s">
         <v>42</v>
       </c>
@@ -2011,8 +2021,8 @@
       <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="84" t="s">
         <v>54</v>
       </c>
@@ -2033,8 +2043,8 @@
       <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136" t="s">
+      <c r="A6" s="137"/>
+      <c r="B6" s="137" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="72" t="s">
@@ -2057,8 +2067,8 @@
       <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="136"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="72"/>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
@@ -2071,8 +2081,8 @@
       <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="136"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="72"/>
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
@@ -2085,8 +2095,8 @@
       <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="136"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="72"/>
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
@@ -2099,10 +2109,10 @@
       <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="137" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="72" t="s">
@@ -2123,8 +2133,8 @@
       <c r="I10" s="67"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
-      <c r="B11" s="136"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="72" t="s">
         <v>48</v>
       </c>
@@ -2143,8 +2153,8 @@
       <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
-      <c r="B12" s="136"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="72" t="s">
         <v>49</v>
       </c>
@@ -2163,8 +2173,8 @@
       <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="138" t="s">
+      <c r="A13" s="137"/>
+      <c r="B13" s="139" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="72" t="s">
@@ -2185,8 +2195,8 @@
       <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="139"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="72" t="s">
         <v>52</v>
       </c>
@@ -2205,8 +2215,8 @@
       <c r="I14" s="67"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="72" t="s">
         <v>53</v>
       </c>
@@ -2225,7 +2235,7 @@
       <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
+      <c r="A16" s="137"/>
       <c r="B16" s="68"/>
       <c r="C16" s="72"/>
       <c r="D16" s="81"/>
@@ -2239,7 +2249,7 @@
       <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="67"/>
       <c r="C17" s="72"/>
       <c r="D17" s="81"/>
@@ -2253,7 +2263,7 @@
       <c r="I17" s="67"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="67"/>
       <c r="C18" s="72"/>
       <c r="D18" s="81"/>
@@ -2267,7 +2277,7 @@
       <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
+      <c r="A19" s="137"/>
       <c r="B19" s="67"/>
       <c r="C19" s="72"/>
       <c r="D19" s="81"/>
@@ -2281,7 +2291,7 @@
       <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="136"/>
+      <c r="A20" s="137"/>
       <c r="B20" s="67"/>
       <c r="C20" s="72"/>
       <c r="D20" s="81"/>
@@ -2295,7 +2305,7 @@
       <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="136"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="67"/>
       <c r="C21" s="72"/>
       <c r="D21" s="81"/>
@@ -2309,7 +2319,7 @@
       <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="136"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="67"/>
       <c r="C22" s="72"/>
       <c r="D22" s="81"/>
@@ -2323,7 +2333,7 @@
       <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="136"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="67"/>
       <c r="C23" s="72"/>
       <c r="D23" s="81"/>
@@ -2350,10 +2360,10 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="114"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="78"/>
       <c r="D29" s="79"/>
       <c r="E29" s="80"/>
@@ -2440,10 +2450,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="139" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2474,8 +2484,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="139"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="140"/>
       <c r="C3" s="87" t="s">
         <v>25</v>
       </c>
@@ -2503,8 +2513,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="137"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="138"/>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
@@ -2533,8 +2543,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
-      <c r="B5" s="122" t="s">
+      <c r="A5" s="133"/>
+      <c r="B5" s="123" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="101" t="s">
@@ -2565,8 +2575,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
-      <c r="B6" s="123"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="88" t="s">
         <v>23</v>
       </c>
@@ -2595,8 +2605,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="132"/>
-      <c r="B7" s="123"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="88" t="s">
         <v>27</v>
       </c>
@@ -2625,8 +2635,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="132"/>
-      <c r="B8" s="124"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2655,8 +2665,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
-      <c r="B9" s="128" t="s">
+      <c r="A9" s="133"/>
+      <c r="B9" s="129" t="s">
         <v>60</v>
       </c>
       <c r="C9" t="s">
@@ -2677,8 +2687,8 @@
       <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
-      <c r="B10" s="129"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="104"/>
       <c r="D10" s="18"/>
       <c r="E10" s="12"/>
@@ -2689,8 +2699,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
-      <c r="B11" s="130"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="105"/>
       <c r="D11" s="48"/>
       <c r="E11" s="49"/>
@@ -2701,8 +2711,8 @@
       <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
-      <c r="B12" s="125"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
@@ -2713,8 +2723,8 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
-      <c r="B13" s="126"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
       <c r="E13" s="27"/>
@@ -2725,8 +2735,8 @@
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
-      <c r="B14" s="127"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="16"/>
@@ -2737,8 +2747,8 @@
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
-      <c r="B15" s="128"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="44"/>
@@ -2749,8 +2759,8 @@
       <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="129"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="130"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="12"/>
@@ -2761,8 +2771,8 @@
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="130"/>
+      <c r="A17" s="133"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
       <c r="E17" s="49"/>
@@ -2773,8 +2783,8 @@
       <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="125"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="54"/>
       <c r="D18" s="26"/>
       <c r="E18" s="53"/>
@@ -2785,8 +2795,8 @@
       <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
-      <c r="B19" s="126"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="55"/>
       <c r="D19" s="37"/>
       <c r="E19" s="56"/>
@@ -2797,8 +2807,8 @@
       <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
-      <c r="B20" s="126"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="52"/>
       <c r="D20" s="18"/>
       <c r="E20" s="53"/>
@@ -2809,8 +2819,8 @@
       <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="126"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="55"/>
       <c r="D21" s="41"/>
       <c r="E21" s="56"/>
@@ -2821,8 +2831,8 @@
       <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="133"/>
-      <c r="B22" s="140"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="52"/>
       <c r="D22" s="3"/>
       <c r="E22" s="53"/>
@@ -2963,10 +2973,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4C5F66-E89D-4EAB-B57A-C68CB0901AD5}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,10 +2991,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="118"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3011,10 +3021,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="120" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="106" t="s">
@@ -3041,8 +3051,8 @@
       <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="106" t="s">
         <v>63</v>
       </c>
@@ -3067,8 +3077,8 @@
       <c r="J3" s="107"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="106" t="s">
         <v>64</v>
       </c>
@@ -3093,8 +3103,8 @@
       <c r="J4" s="107"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="106" t="s">
         <v>64</v>
       </c>
@@ -3113,8 +3123,8 @@
       <c r="J5" s="107"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="106" t="s">
         <v>69</v>
       </c>
@@ -3139,10 +3149,10 @@
       <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="136"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="106" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7" s="107" t="s">
         <v>70</v>
@@ -3159,8 +3169,8 @@
       <c r="J7" s="107"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="136"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="111" t="s">
         <v>71</v>
       </c>
@@ -3179,8 +3189,8 @@
       <c r="J8" s="107"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="136"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="106" t="s">
         <v>71</v>
       </c>
@@ -3199,48 +3209,56 @@
       <c r="J9" s="107"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136" t="s">
+      <c r="A10" s="133"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="142" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="109">
+        <v>0.625</v>
+      </c>
+      <c r="F10" s="109">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="133"/>
+      <c r="B11" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C11" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D11" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E11" s="108">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F10" s="108">
+      <c r="F11" s="108">
         <v>0.63194444444444442</v>
       </c>
-      <c r="G10" s="108">
+      <c r="G11" s="108">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H10" s="108">
+      <c r="H11" s="108">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="I10" s="108">
+      <c r="I11" s="108">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="J10" s="107"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
       <c r="J11" s="107"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
-      <c r="B12" s="136"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="106"/>
       <c r="D12" s="107"/>
       <c r="E12" s="107"/>
@@ -3251,8 +3269,8 @@
       <c r="J12" s="107"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="136"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="106"/>
       <c r="D13" s="107"/>
       <c r="E13" s="107"/>
@@ -3262,38 +3280,62 @@
       <c r="I13" s="107"/>
       <c r="J13" s="107"/>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="133"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="108">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F15" s="108">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G15" s="108">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H15" s="108">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I15" s="108">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J15" s="107"/>
+    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="108">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F16" s="108">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G16" s="108">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H16" s="108">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I16" s="108">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="A16" s="137"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
       <c r="J16" s="107"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="106"/>
       <c r="C17" s="106"/>
       <c r="D17" s="107"/>
@@ -3305,7 +3347,7 @@
       <c r="J17" s="107"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="106"/>
       <c r="C18" s="106"/>
       <c r="D18" s="107"/>
@@ -3316,25 +3358,13 @@
       <c r="I18" s="107"/>
       <c r="J18" s="107"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
+++ b/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Desktop\project-management\05_Zeitaufzeichnung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nils\Desktop\Schule\ITP\Local Admin\05_Zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA60CC1D-E318-4F5E-885F-1209D9CF934B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116FB9A-D051-4708-94FF-A2757AC437B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="13770" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allg." sheetId="1" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
   <si>
     <t>Aktivität</t>
   </si>
@@ -247,6 +245,24 @@
   </si>
   <si>
     <t>Nutzwertanalyse - Datenformate / Lizenzserver</t>
+  </si>
+  <si>
+    <t>Meilenstein</t>
+  </si>
+  <si>
+    <t>Nutzwertanalyse</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Marktanalyse</t>
+  </si>
+  <si>
+    <t>Nachforschung</t>
   </si>
 </sst>
 </file>
@@ -637,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -682,7 +698,6 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -716,9 +731,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,6 +822,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -880,9 +907,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,10 +1221,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1227,10 +1251,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1261,8 +1285,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="117"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1290,8 +1314,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="118"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1320,8 +1344,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="132"/>
+      <c r="B5" s="122" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1352,9 +1376,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="115" t="s">
+      <c r="A6" s="132"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="118" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="28">
@@ -1382,9 +1406,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="115"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="37">
         <v>43718</v>
       </c>
@@ -1410,8 +1434,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
-      <c r="B8" s="121"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1440,40 +1464,40 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="125" t="s">
+      <c r="A9" s="132"/>
+      <c r="B9" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="42">
         <v>43745</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <v>0.625</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="43">
         <v>0.77083333333333337</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="43">
         <f>F9-E9</f>
         <v>0.14583333333333337</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="43">
         <f>IF(H9&lt;=G9,G9-H9,H9-G9)</f>
         <v>6.2500000000000042E-2</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="45">
         <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="129"/>
-      <c r="B10" s="126"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1490,29 +1514,29 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="47" t="s">
+      <c r="A11" s="132"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="49">
-        <v>0</v>
-      </c>
-      <c r="I11" s="49">
-        <v>0</v>
-      </c>
-      <c r="J11" s="51"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="48">
+        <v>0</v>
+      </c>
+      <c r="I11" s="48">
+        <v>0</v>
+      </c>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
-      <c r="B12" s="122" t="s">
+      <c r="A12" s="132"/>
+      <c r="B12" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="134" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="26">
@@ -1540,9 +1564,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="132"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="18">
         <v>43754</v>
       </c>
@@ -1558,12 +1582,12 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="41" t="s">
+      <c r="A14" s="132"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="29"/>
@@ -1578,8 +1602,8 @@
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="124"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1598,30 +1622,30 @@
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
-      <c r="B16" s="125" t="s">
+      <c r="A16" s="132"/>
+      <c r="B16" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="44">
+      <c r="D16" s="41"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="46"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
-      <c r="B17" s="126"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1640,15 +1664,15 @@
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="47" t="s">
+      <c r="A18" s="132"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1657,154 +1681,154 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="51"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
-      <c r="B19" s="122" t="s">
+      <c r="A19" s="132"/>
+      <c r="B19" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="26">
         <v>43715</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="52">
         <v>0.55555555555555558</v>
       </c>
       <c r="F19" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="52">
         <v>0.125</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="1"/>
         <v>0.15277777777777779</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="56">
         <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="J19" s="58">
+      <c r="J19" s="57">
         <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="55" t="s">
+      <c r="A20" s="132"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="37">
         <v>43747</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="55">
         <v>0.55555555555555558</v>
       </c>
       <c r="F20" s="27">
         <v>0.68055555555555547</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="55">
         <v>0.16666666666666666</v>
       </c>
       <c r="H20" s="27">
         <f t="shared" si="1"/>
         <v>0.12499999999999989</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="55">
         <f t="shared" si="0"/>
         <v>4.1666666666666768E-2</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="58">
         <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="129"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="52" t="s">
+      <c r="A21" s="132"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="51" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="18">
         <v>43752</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="52">
         <v>0.72916666666666663</v>
       </c>
       <c r="F21" s="12">
         <v>0.75694444444444453</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="52">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="H21" s="12">
         <f t="shared" si="1"/>
         <v>2.7777777777777901E-2</v>
       </c>
-      <c r="I21" s="53">
+      <c r="I21" s="52">
         <f>IF(H21&lt;=G21,G21-H21,H21-G21)</f>
         <v>1.3888888888889013E-2</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="59">
         <v>0.7</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="129"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="56"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="56"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="27">
         <f>F22-E22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="55">
         <f>IF(H22&lt;=G22,G22-H22,H22-G22)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="59"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="130"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="53"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="53"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="12">
         <f>F23-E23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="52">
         <f>IF(H23&lt;=G23,G23-H23,H23-G23)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="60"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="62">
+      <c r="B24" s="114"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="61">
         <f>SUM(G2+G3+G4+G5+G6+G7+G8+G9+G19+G20+G21)</f>
         <v>1.0868055555555556</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H24" s="60">
         <f>SUM(H2+H3+H4+H5+H6+H7+H8+H19+H9+H20+H21)</f>
         <v>1.4409722222222225</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="39">
         <f>SUM(H24-G24)</f>
         <v>0.35416666666666696</v>
       </c>
@@ -1816,10 +1840,10 @@
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="114"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="9" t="s">
         <v>0</v>
       </c>
@@ -1902,429 +1926,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="74" t="s">
+      <c r="C1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="72" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="81">
+      <c r="D2" s="79">
         <v>43723.722222222219</v>
       </c>
-      <c r="E2" s="81">
+      <c r="E2" s="79">
         <v>43723.791666666664</v>
       </c>
-      <c r="F2" s="82">
+      <c r="F2" s="80">
         <v>6.25E-2</v>
       </c>
-      <c r="G2" s="77">
+      <c r="G2" s="75">
         <f>E2-D2</f>
         <v>6.9444444445252884E-2</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="72" t="s">
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="81">
+      <c r="D3" s="79">
         <v>43724.4375</v>
       </c>
-      <c r="E3" s="81">
+      <c r="E3" s="79">
         <v>43724.506944444445</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="80">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="75">
         <f>E3-D3</f>
         <v>6.9444444445252884E-2</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="72" t="s">
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="79">
         <v>43734.756944444445</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="79">
         <v>43734.805555555555</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="80">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="75">
         <f>E4-D4</f>
         <v>4.8611111109494232E-2</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="84" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="79">
         <v>43753.777777777781</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="79">
         <v>43753.847222222219</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="80">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="75">
         <f>E5-D5</f>
         <v>6.9444444437976927E-2</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="133"/>
-      <c r="B6" s="133" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="79">
         <v>43725.555555555555</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="79">
         <v>43725.631944444445</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="80">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="75">
         <f t="shared" ref="G6:G23" si="0">E6-D6</f>
         <v>7.6388888890505768E-2</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="133"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="77">
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="133"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="77">
+      <c r="A8" s="136"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="133"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="77">
+      <c r="A9" s="136"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="79">
         <v>43727.722222222219</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="79">
         <v>43727.819444444445</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="77">
+      <c r="F10" s="80"/>
+      <c r="G10" s="75">
         <f t="shared" si="0"/>
         <v>9.7222222226264421E-2</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="72" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="79">
         <v>43728.486111111109</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="79">
         <v>43728.513888888891</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="77">
+      <c r="F11" s="80"/>
+      <c r="G11" s="75">
         <f t="shared" si="0"/>
         <v>2.7777777781011537E-2</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="133"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="72" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="79">
         <v>43728.767361111109</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="79">
         <v>43728.819444444445</v>
       </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="77">
+      <c r="F12" s="80"/>
+      <c r="G12" s="75">
         <f t="shared" si="0"/>
         <v>5.2083333335758653E-2</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="135" t="s">
+      <c r="A13" s="136"/>
+      <c r="B13" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="79">
         <v>43730.618055555555</v>
       </c>
-      <c r="E13" s="81">
+      <c r="E13" s="79">
         <v>43730.729166666664</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="77">
+      <c r="F13" s="80"/>
+      <c r="G13" s="75">
         <f t="shared" si="0"/>
         <v>0.11111111110949423</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="72" t="s">
+      <c r="A14" s="136"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="79">
         <v>43733.618055555555</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="79">
         <v>43733.618055555555</v>
       </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="77">
+      <c r="F14" s="80"/>
+      <c r="G14" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="72" t="s">
+      <c r="A15" s="136"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="79">
         <v>43740.6875</v>
       </c>
-      <c r="E15" s="81">
+      <c r="E15" s="79">
         <v>43740.722222222219</v>
       </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="77">
+      <c r="F15" s="80"/>
+      <c r="G15" s="75">
         <f t="shared" si="0"/>
         <v>3.4722222218988463E-2</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="77">
+      <c r="A16" s="136"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="133"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="77">
+      <c r="A17" s="136"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="133"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="77">
+      <c r="A18" s="136"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="133"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="77">
+      <c r="A19" s="136"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="133"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="77">
+      <c r="A20" s="136"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="133"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="77">
+      <c r="A21" s="136"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="77">
+      <c r="A22" s="136"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="77">
+      <c r="A23" s="136"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -2333,29 +2357,29 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="83"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="69">
+      <c r="B29" s="114"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="67">
         <f>SUM(F2+F3+F4+F6+F7+F8+F9+F10+F19+F20+F21)</f>
         <v>0.22916666666666663</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="68">
         <f>SUM(G2:G23)</f>
         <v>0.65625</v>
       </c>
-      <c r="H29" s="40"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2384,10 +2408,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42714C1D-C593-464A-80BF-C213BA577893}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,13 +2419,14 @@
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="86" t="s">
+      <c r="A1" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="84" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -2430,10 +2455,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="138" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2442,10 +2467,10 @@
       <c r="D2" s="17">
         <v>43726</v>
       </c>
-      <c r="E2" s="96">
+      <c r="E2" s="94">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="94">
         <v>0.8125</v>
       </c>
       <c r="G2" s="22">
@@ -2464,18 +2489,18 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="87" t="s">
+      <c r="A3" s="132"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="85" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="28">
         <v>43727</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="95">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F3" s="97">
+      <c r="F3" s="95">
         <v>0.55555555555555558</v>
       </c>
       <c r="G3" s="21">
@@ -2493,18 +2518,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="134"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="19">
         <v>43730</v>
       </c>
-      <c r="E4" s="100">
+      <c r="E4" s="98">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F4" s="100">
+      <c r="F4" s="98">
         <v>0.56944444444444442</v>
       </c>
       <c r="G4" s="23">
@@ -2523,20 +2548,20 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="132"/>
+      <c r="B5" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="102">
+      <c r="D5" s="100">
         <v>43725</v>
       </c>
-      <c r="E5" s="103">
+      <c r="E5" s="101">
         <v>0.73611111111111116</v>
       </c>
-      <c r="F5" s="103">
+      <c r="F5" s="101">
         <v>0.82638888888888884</v>
       </c>
       <c r="G5" s="21">
@@ -2555,18 +2580,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="88" t="s">
+      <c r="A6" s="132"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="95">
+      <c r="D6" s="93">
         <v>43725</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="96">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F6" s="99">
+      <c r="F6" s="97">
         <v>1.0833333333333333</v>
       </c>
       <c r="G6" s="20">
@@ -2585,18 +2610,18 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="88" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="95">
+      <c r="D7" s="93">
         <v>43731</v>
       </c>
-      <c r="E7" s="98">
+      <c r="E7" s="96">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="96">
         <v>0.82638888888888884</v>
       </c>
       <c r="G7" s="29">
@@ -2615,18 +2640,18 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
-      <c r="B8" s="121"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="28">
         <v>43367</v>
       </c>
-      <c r="E8" s="97">
+      <c r="E8" s="95">
         <v>9.375E-2</v>
       </c>
-      <c r="F8" s="100">
+      <c r="F8" s="98">
         <v>0.17291666666666669</v>
       </c>
       <c r="G8" s="21">
@@ -2645,8 +2670,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="125" t="s">
+      <c r="A9" s="132"/>
+      <c r="B9" s="128" t="s">
         <v>60</v>
       </c>
       <c r="C9" t="s">
@@ -2655,191 +2680,191 @@
       <c r="D9" s="17">
         <v>43732</v>
       </c>
-      <c r="E9" s="96">
+      <c r="E9" s="94">
         <v>0.625</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>1.0625</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="46"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="45"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="129"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="104"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="102"/>
       <c r="D10" s="18"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="90"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="21"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="51"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
-      <c r="B12" s="122"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="92"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="24"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="93"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="29"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
-      <c r="B14" s="124"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="94"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="25"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="46"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
-      <c r="B16" s="126"/>
+      <c r="A16" s="132"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="90"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="21"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="50"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="51"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="26"/>
-      <c r="E18" s="53"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="53"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="56"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="56"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="27"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="59"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="52"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="53"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="53"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="60"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="129"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="56"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="27"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="59"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="58"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="130"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="52"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="53"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="53"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="60"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="62">
+      <c r="B23" s="63"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="61">
         <f>SUM(G2+G3+G4+G5+G6+G7+G8+G9+G18+G19+G20)</f>
         <v>0.69791666666666674</v>
       </c>
-      <c r="H23" s="61" t="e">
+      <c r="H23" s="60" t="e">
         <f>SUM(H2+H3+H4+H5+H6+H7+H8+H18+H9+H19+H20)</f>
         <v>#REF!</v>
       </c>
-      <c r="I23" s="40" t="e">
+      <c r="I23" s="39" t="e">
         <f>SUM(H23-H23G23)</f>
         <v>#REF!</v>
       </c>
@@ -2851,10 +2876,12 @@
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="86"/>
+      <c r="A25" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>59</v>
+      </c>
       <c r="C25" s="9" t="s">
         <v>0</v>
       </c>
@@ -2881,64 +2908,339 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="38"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E30" s="38"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E31" s="38"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E32" s="38"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="38" t="e">
+      <c r="A26" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="17">
+        <v>43755</v>
+      </c>
+      <c r="E26" s="94">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F26" s="94">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="G26" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H26" s="11" t="e">
         <f>#REF!-#REF!</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="38" t="e">
-        <f>#REF!-#REF!</f>
+      <c r="I26" s="11" t="e">
+        <f t="shared" ref="I26:I32" si="1">IF(H26&lt;=G26,G26-H26,H26-G26)</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="38" t="e">
-        <f>#REF!-#REF!</f>
+      <c r="J26" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="132"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="28">
+        <v>43755</v>
+      </c>
+      <c r="E27" s="95">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="F27" s="95">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G27" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H27" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="31">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="132"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="32"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="132"/>
+      <c r="B29" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="100">
+        <v>44121</v>
+      </c>
+      <c r="E29" s="101">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F29" s="101">
+        <v>0.75</v>
+      </c>
+      <c r="G29" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="132"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="34"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="132"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="132"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="31"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="132"/>
+      <c r="B33" s="128"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="45"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="132"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="31"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="132"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="50"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="132"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="132"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="132"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="132"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="45"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="132"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="31"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="132"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="50"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="132"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="57"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="132"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="58"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="132"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="59"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="132"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="58"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="133"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="59"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="109"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="61">
+        <f>SUM(G26+G27+G28+G29+G30+G31+G32+G33+G42+G43+G44)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H47" s="60" t="e">
+        <f>SUM(H26+H27+H28+H29+H30+H31+H32+H42+H33+H43+H44)</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="38" t="e">
-        <f>#REF!-#REF!</f>
+      <c r="I47" s="39" t="e">
+        <f>SUM(H47-H23G23)</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="38" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="38" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="J47" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="A26:A46"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B46"/>
     <mergeCell ref="A2:A22"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B8"/>
@@ -2955,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4C5F66-E89D-4EAB-B57A-C68CB0901AD5}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,10 +3273,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3001,274 +3303,274 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="109">
+      <c r="E2" s="107">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F2" s="109">
+      <c r="F2" s="107">
         <v>0.85416666666666663</v>
       </c>
-      <c r="G2" s="109">
+      <c r="G2" s="107">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H2" s="109">
+      <c r="H2" s="107">
         <v>6.25E-2</v>
       </c>
-      <c r="I2" s="109">
+      <c r="I2" s="107">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J2" s="108"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="136"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="107" t="s">
+      <c r="A3" s="139"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="107">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F3" s="109">
+      <c r="F3" s="107">
         <v>0.81944444444444453</v>
       </c>
-      <c r="G3" s="109">
+      <c r="G3" s="107">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H3" s="109">
+      <c r="H3" s="107">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="I3" s="109">
+      <c r="I3" s="107">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="J3" s="108"/>
+      <c r="J3" s="106"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="107" t="s">
+      <c r="A4" s="139"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="109">
+      <c r="E4" s="107">
         <v>0.67013888888888884</v>
       </c>
-      <c r="F4" s="109">
+      <c r="F4" s="107">
         <v>0.67708333333333337</v>
       </c>
-      <c r="G4" s="138">
+      <c r="G4" s="112">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H4" s="138">
+      <c r="H4" s="112">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="I4" s="138">
+      <c r="I4" s="112">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="J4" s="108"/>
+      <c r="J4" s="106"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="107" t="s">
+      <c r="A5" s="139"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="109">
+      <c r="E5" s="107">
         <v>0.69097222222222221</v>
       </c>
-      <c r="F5" s="109">
+      <c r="F5" s="107">
         <v>0.71875</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="108"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="106"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="107" t="s">
+      <c r="A6" s="139"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="109">
+      <c r="E6" s="107">
         <v>0.67361111111111116</v>
       </c>
-      <c r="F6" s="109">
+      <c r="F6" s="107">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="107">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H6" s="109">
+      <c r="H6" s="107">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="I6" s="109">
+      <c r="I6" s="107">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="J6" s="108"/>
+      <c r="J6" s="106"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="135" t="s">
+      <c r="A8" s="139"/>
+      <c r="B8" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="109">
+      <c r="E8" s="107">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F8" s="109">
+      <c r="F8" s="107">
         <v>0.63194444444444442</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="107">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="107">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="I8" s="109">
+      <c r="I8" s="107">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="J8" s="108"/>
+      <c r="J8" s="106"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="134"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="109">
+      <c r="E12" s="107">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F12" s="109">
+      <c r="F12" s="107">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G12" s="107">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="107">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I12" s="109">
+      <c r="I12" s="107">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J12" s="108"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
+++ b/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nils\Desktop\Schule\ITP\Local Admin\05_Zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116FB9A-D051-4708-94FF-A2757AC437B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF28961-D2AF-4CB8-8AC6-8F4F696E398E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="13770" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="13770" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allg." sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
   <si>
     <t>Aktivität</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Zeitaufzeichnung</t>
   </si>
   <si>
-    <t>Grobentwicklung</t>
-  </si>
-  <si>
     <t>Rest API Design</t>
   </si>
   <si>
@@ -263,6 +260,15 @@
   </si>
   <si>
     <t>Nachforschung</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Datenbank</t>
+  </si>
+  <si>
+    <t>Datenstruktur in worte fassen</t>
   </si>
 </sst>
 </file>
@@ -2408,10 +2414,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42714C1D-C593-464A-80BF-C213BA577893}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,14 +2427,17 @@
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -2455,11 +2465,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="131"/>
+      <c r="B2" s="138" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="138" t="s">
-        <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>24</v>
@@ -2476,13 +2484,13 @@
       <c r="G2" s="22">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H2" s="11" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I2" s="11" t="e">
-        <f t="shared" ref="I2:I8" si="0">IF(H2&lt;=G2,G2-H2,H2-G2)</f>
-        <v>#REF!</v>
+      <c r="H2" s="11">
+        <f>F2-E2</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" ref="I2:I12" si="0">IF(H2&lt;=G2,G2-H2,H2-G2)</f>
+        <v>4.163336342344337E-17</v>
       </c>
       <c r="J2" s="30">
         <v>0.6</v>
@@ -2506,12 +2514,13 @@
       <c r="G3" s="21">
         <v>3.125E-2</v>
       </c>
-      <c r="H3" s="12">
-        <v>4.1666666666666664E-2</v>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H12" si="1">F3-E3</f>
+        <v>4.861111111111116E-2</v>
       </c>
       <c r="I3" s="12">
         <f t="shared" si="0"/>
-        <v>1.0416666666666664E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="J3" s="31">
         <v>0.9</v>
@@ -2535,13 +2544,13 @@
       <c r="G4" s="23">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H4" s="13" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I4" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="H4" s="11">
+        <f t="shared" si="1"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" si="0"/>
+        <v>6.9444444444443851E-3</v>
       </c>
       <c r="J4" s="32">
         <v>1</v>
@@ -2550,7 +2559,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="132"/>
       <c r="B5" s="122" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="99" t="s">
         <v>22</v>
@@ -2567,13 +2576,13 @@
       <c r="G5" s="21">
         <v>0.125</v>
       </c>
-      <c r="H5" s="12" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I5" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="H5" s="11">
+        <f t="shared" si="1"/>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222321E-2</v>
       </c>
       <c r="J5" s="31">
         <v>0.6</v>
@@ -2597,13 +2606,13 @@
       <c r="G6" s="20">
         <v>0.20833333333333334</v>
       </c>
-      <c r="H6" s="15" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I6" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="H6" s="11">
+        <f t="shared" si="1"/>
+        <v>0.12499999999999989</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333454E-2</v>
       </c>
       <c r="J6" s="34">
         <v>0.75</v>
@@ -2627,13 +2636,13 @@
       <c r="G7" s="29">
         <v>0.125</v>
       </c>
-      <c r="H7" s="27" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.27083333333333326</v>
+      </c>
+      <c r="I7" s="27">
+        <f>IF(H7&lt;=G7,G7-H7,H7-G7)</f>
+        <v>0.14583333333333326</v>
       </c>
       <c r="J7" s="35">
         <v>0.85</v>
@@ -2646,7 +2655,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="28">
-        <v>43367</v>
+        <v>43732</v>
       </c>
       <c r="E8" s="95">
         <v>9.375E-2</v>
@@ -2657,13 +2666,13 @@
       <c r="G8" s="21">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H8" s="12" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I8" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>7.9166666666666691E-2</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="0"/>
+        <v>4.166666666666638E-3</v>
       </c>
       <c r="J8" s="31">
         <v>1</v>
@@ -2672,7 +2681,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="132"/>
       <c r="B9" s="128" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -2687,8 +2696,14 @@
         <v>1.0625</v>
       </c>
       <c r="G9" s="44"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.4375</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
       <c r="J9" s="45"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2699,8 +2714,14 @@
       <c r="E10" s="12"/>
       <c r="F10" s="88"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2711,20 +2732,44 @@
       <c r="E11" s="48"/>
       <c r="F11" s="89"/>
       <c r="G11" s="49"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="132"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="B12" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="26">
+        <v>43756</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="F12" s="90">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="G12" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="1"/>
+        <v>5.7638888888888906E-2</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="0"/>
+        <v>2.5694444444444423E-2</v>
+      </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2775,7 +2820,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="132"/>
       <c r="B17" s="130"/>
       <c r="C17" s="46"/>
@@ -2787,7 +2832,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="50"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="132"/>
       <c r="B18" s="125"/>
       <c r="C18" s="53"/>
@@ -2799,7 +2844,7 @@
       <c r="I18" s="56"/>
       <c r="J18" s="57"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="132"/>
       <c r="B19" s="126"/>
       <c r="C19" s="54"/>
@@ -2811,7 +2856,7 @@
       <c r="I19" s="55"/>
       <c r="J19" s="58"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="132"/>
       <c r="B20" s="126"/>
       <c r="C20" s="51"/>
@@ -2823,7 +2868,7 @@
       <c r="I20" s="52"/>
       <c r="J20" s="59"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="132"/>
       <c r="B21" s="126"/>
       <c r="C21" s="54"/>
@@ -2835,7 +2880,7 @@
       <c r="I21" s="55"/>
       <c r="J21" s="58"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="133"/>
       <c r="B22" s="140"/>
       <c r="C22" s="51"/>
@@ -2847,7 +2892,7 @@
       <c r="I22" s="52"/>
       <c r="J22" s="59"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="62" t="s">
         <v>20</v>
       </c>
@@ -2860,27 +2905,27 @@
         <f>SUM(G2+G3+G4+G5+G6+G7+G8+G9+G18+G19+G20)</f>
         <v>0.69791666666666674</v>
       </c>
-      <c r="H23" s="60" t="e">
+      <c r="H23" s="60">
         <f>SUM(H2+H3+H4+H5+H6+H7+H8+H18+H9+H19+H20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I23" s="39" t="e">
-        <f>SUM(H23-H23G23)</f>
-        <v>#REF!</v>
+        <v>1.1833333333333331</v>
+      </c>
+      <c r="I23" s="39">
+        <f>SUM(I2:I22)</f>
+        <v>0.75555555555555576</v>
       </c>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="111" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>0</v>
@@ -2907,15 +2952,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="138" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D26" s="17">
         <v>43755</v>
@@ -2929,23 +2974,23 @@
       <c r="G26" s="22">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H26" s="11" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I26" s="11" t="e">
-        <f t="shared" ref="I26:I32" si="1">IF(H26&lt;=G26,G26-H26,H26-G26)</f>
-        <v>#REF!</v>
+      <c r="H26" s="11">
+        <f>F26-E26</f>
+        <v>2.3611111111111027E-2</v>
+      </c>
+      <c r="I26" s="11">
+        <f>IF(H26&lt;=G26,G26-H26,H26-G26)</f>
+        <v>1.8055555555555637E-2</v>
       </c>
       <c r="J26" s="30">
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="132"/>
       <c r="B27" s="139"/>
       <c r="C27" s="85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="28">
         <v>43755</v>
@@ -2959,18 +3004,19 @@
       <c r="G27" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H27" s="12">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I27" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="H27" s="11">
+        <f t="shared" ref="H27:H29" si="2">F27-E27</f>
+        <v>7.5000000000000067E-2</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" ref="I27:I29" si="3">IF(H27&lt;=G27,G27-H27,H27-G27)</f>
+        <v>3.3333333333333402E-2</v>
       </c>
       <c r="J27" s="31">
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="132"/>
       <c r="B28" s="137"/>
       <c r="C28" s="2"/>
@@ -2978,17 +3024,28 @@
       <c r="E28" s="98"/>
       <c r="F28" s="98"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="32"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="32">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="132"/>
       <c r="B29" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="99" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" s="99" t="s">
-        <v>75</v>
       </c>
       <c r="D29" s="100">
         <v>44121</v>
@@ -3002,11 +3059,17 @@
       <c r="G29" s="21">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="H29" s="11">
+        <f t="shared" si="2"/>
+        <v>0.11111111111111105</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777721E-2</v>
+      </c>
       <c r="J29" s="31"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="132"/>
       <c r="B30" s="123"/>
       <c r="C30" s="86"/>
@@ -3018,7 +3081,7 @@
       <c r="I30" s="15"/>
       <c r="J30" s="34"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="132"/>
       <c r="B31" s="123"/>
       <c r="C31" s="86"/>
@@ -3030,7 +3093,7 @@
       <c r="I31" s="27"/>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="132"/>
       <c r="B32" s="124"/>
       <c r="C32" s="2"/>
@@ -3222,18 +3285,25 @@
         <f>SUM(G26+G27+G28+G29+G30+G31+G32+G33+G42+G43+G44)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H47" s="60" t="e">
+      <c r="H47" s="60">
         <f>SUM(H26+H27+H28+H29+H30+H31+H32+H42+H33+H43+H44)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I47" s="39" t="e">
-        <f>SUM(H47-H23G23)</f>
-        <v>#REF!</v>
+        <v>0.20972222222222214</v>
+      </c>
+      <c r="I47" s="39">
+        <f>SUM(I26:I46)</f>
+        <v>7.916666666666676E-2</v>
       </c>
       <c r="J47" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B22"/>
     <mergeCell ref="A26:A46"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B32"/>
@@ -3241,13 +3311,6 @@
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3274,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="9" t="s">
@@ -3304,10 +3367,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="138" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="105" t="s">
         <v>33</v>
@@ -3336,7 +3399,7 @@
       <c r="A3" s="139"/>
       <c r="B3" s="136"/>
       <c r="C3" s="105" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="106" t="s">
         <v>32</v>
@@ -3362,7 +3425,7 @@
       <c r="A4" s="139"/>
       <c r="B4" s="136"/>
       <c r="C4" s="105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="106" t="s">
         <v>35</v>
@@ -3388,7 +3451,7 @@
       <c r="A5" s="139"/>
       <c r="B5" s="136"/>
       <c r="C5" s="105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="106" t="s">
         <v>35</v>
@@ -3408,10 +3471,10 @@
       <c r="A6" s="139"/>
       <c r="B6" s="136"/>
       <c r="C6" s="105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="107">
         <v>0.67361111111111116</v>
@@ -3445,7 +3508,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="139"/>
       <c r="B8" s="138" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="105" t="s">
         <v>29</v>
@@ -3511,10 +3574,10 @@
         <v>36</v>
       </c>
       <c r="B12" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="105" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>67</v>
       </c>
       <c r="D12" s="106" t="s">
         <v>32</v>

--- a/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
+++ b/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nils\Desktop\Schule\ITP\Local Admin\05_Zeitaufzeichnung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITP\LocalAdmin\project-management\05_Zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF28961-D2AF-4CB8-8AC6-8F4F696E398E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321A499E-656F-448E-9887-5681BE29471C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="13770" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allg." sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
   <si>
     <t>Aktivität</t>
   </si>
@@ -269,6 +271,15 @@
   </si>
   <si>
     <t>Datenstruktur in worte fassen</t>
+  </si>
+  <si>
+    <t>18.10.2019</t>
+  </si>
+  <si>
+    <t>Nutzwertanalyse - Lizenzserver</t>
+  </si>
+  <si>
+    <t>Nutzwertanalyse - Datenformate</t>
   </si>
 </sst>
 </file>
@@ -659,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -913,6 +924,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2416,7 +2434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42714C1D-C593-464A-80BF-C213BA577893}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
@@ -3297,6 +3315,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A26:A46"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B46"/>
     <mergeCell ref="A2:A22"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B8"/>
@@ -3304,13 +3329,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A26:A46"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3318,10 +3336,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4C5F66-E89D-4EAB-B57A-C68CB0901AD5}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,10 +3384,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="119" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="105" t="s">
@@ -3396,8 +3414,8 @@
       <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="136"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="105" t="s">
         <v>62</v>
       </c>
@@ -3422,8 +3440,8 @@
       <c r="J3" s="106"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="139"/>
-      <c r="B4" s="136"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="105" t="s">
         <v>63</v>
       </c>
@@ -3448,8 +3466,8 @@
       <c r="J4" s="106"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
-      <c r="B5" s="136"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="105" t="s">
         <v>63</v>
       </c>
@@ -3468,8 +3486,8 @@
       <c r="J5" s="106"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="139"/>
-      <c r="B6" s="136"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="105" t="s">
         <v>68</v>
       </c>
@@ -3494,114 +3512,120 @@
       <c r="J6" s="106"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="139"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="107">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F7" s="107">
+        <v>0.47569444444444442</v>
+      </c>
       <c r="G7" s="106"/>
       <c r="H7" s="106"/>
       <c r="I7" s="106"/>
       <c r="J7" s="106"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
-      <c r="B8" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="106" t="s">
-        <v>34</v>
+      <c r="A8" s="132"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="141" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="142" t="s">
+        <v>78</v>
       </c>
       <c r="E8" s="107">
-        <v>0.55555555555555558</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="107">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="G8" s="107">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H8" s="107">
-        <v>7.6388888888888895E-2</v>
-      </c>
-      <c r="I8" s="107">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="J8" s="106"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="141" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="142" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="107">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F9" s="107">
+        <v>0.60069444444444442</v>
+      </c>
       <c r="G9" s="106"/>
       <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="142"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="106"/>
       <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="137"/>
-      <c r="B11" s="137"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="106" t="s">
-        <v>65</v>
+      <c r="A12" s="132"/>
+      <c r="B12" s="138" t="s">
+        <v>64</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D12" s="106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="107">
-        <v>0.70833333333333337</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F12" s="107">
-        <v>0.79166666666666663</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="G12" s="107">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="H12" s="107">
-        <v>8.3333333333333329E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="I12" s="107">
-        <v>4.1666666666666664E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="J12" s="106"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="105"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="105"/>
       <c r="D13" s="106"/>
       <c r="E13" s="106"/>
@@ -3612,8 +3636,8 @@
       <c r="J13" s="106"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="105"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="105"/>
       <c r="D14" s="106"/>
       <c r="E14" s="106"/>
@@ -3624,8 +3648,8 @@
       <c r="J14" s="106"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="105"/>
       <c r="D15" s="106"/>
       <c r="E15" s="106"/>
@@ -3635,13 +3659,79 @@
       <c r="I15" s="106"/>
       <c r="J15" s="106"/>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="107">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F16" s="107">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G16" s="107">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H16" s="107">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I16" s="107">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J16" s="106"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="139"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="139"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="137"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A2:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
+++ b/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITP\LocalAdmin\project-management\05_Zeitaufzeichnung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TGM\19-20\ITP\Projekt\project-management\05_Zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321A499E-656F-448E-9887-5681BE29471C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C56B2C9-63AF-4FDD-9991-62606AA6E178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allg." sheetId="1" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
   <si>
     <t>Aktivität</t>
   </si>
@@ -280,16 +278,26 @@
   </si>
   <si>
     <t>Nutzwertanalyse - Datenformate</t>
+  </si>
+  <si>
+    <t>Anderes</t>
+  </si>
+  <si>
+    <t>Projektumgebung aufsetzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projektumgebung aufsetzen bei Kalian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="166" formatCode="dd:hh:mm"/>
+    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -670,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -751,9 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -842,97 +847,104 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1245,10 +1257,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="119"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1275,10 +1287,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="121" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1309,8 +1321,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="120"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1338,8 +1350,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="121"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="123"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1368,8 +1380,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
-      <c r="B5" s="122" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="124" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1400,9 +1412,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="118" t="s">
+      <c r="A6" s="134"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="120" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="28">
@@ -1430,9 +1442,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="132"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="118"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="37">
         <v>43718</v>
       </c>
@@ -1458,8 +1470,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="132"/>
-      <c r="B8" s="124"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1488,8 +1500,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
-      <c r="B9" s="128" t="s">
+      <c r="A9" s="134"/>
+      <c r="B9" s="130" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="41" t="s">
@@ -1520,8 +1532,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
-      <c r="B10" s="129"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1538,8 +1550,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
-      <c r="B11" s="130"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="46" t="s">
         <v>31</v>
       </c>
@@ -1556,11 +1568,11 @@
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
-      <c r="B12" s="125" t="s">
+      <c r="A12" s="134"/>
+      <c r="B12" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="136" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="26">
@@ -1588,9 +1600,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="135"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="137"/>
       <c r="D13" s="18">
         <v>43754</v>
       </c>
@@ -1606,8 +1618,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
-      <c r="B14" s="126"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="40" t="s">
         <v>16</v>
       </c>
@@ -1626,8 +1638,8 @@
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
-      <c r="B15" s="127"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1646,8 +1658,8 @@
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="128" t="s">
+      <c r="A16" s="134"/>
+      <c r="B16" s="130" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="41" t="s">
@@ -1668,8 +1680,8 @@
       <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="129"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1688,8 +1700,8 @@
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="130"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="132"/>
       <c r="C18" s="46" t="s">
         <v>12</v>
       </c>
@@ -1708,8 +1720,8 @@
       <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
-      <c r="B19" s="125" t="s">
+      <c r="A19" s="134"/>
+      <c r="B19" s="127" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -1740,8 +1752,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
-      <c r="B20" s="126"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="54" t="s">
         <v>16</v>
       </c>
@@ -1770,8 +1782,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="126"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="51" t="s">
         <v>12</v>
       </c>
@@ -1800,8 +1812,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
-      <c r="B22" s="126"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="54"/>
       <c r="D22" s="40"/>
       <c r="E22" s="55"/>
@@ -1818,8 +1830,8 @@
       <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="133"/>
-      <c r="B23" s="126"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="51"/>
       <c r="D23" s="3"/>
       <c r="E23" s="52"/>
@@ -1836,14 +1848,14 @@
       <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="114"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="116"/>
       <c r="G24" s="61">
         <f>SUM(G2+G3+G4+G5+G6+G7+G8+G9+G19+G20+G21)</f>
         <v>1.0868055555555556</v>
@@ -1864,10 +1876,10 @@
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="117"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="9" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1946,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,98 +1962,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="71" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="78">
         <v>43723.722222222219</v>
       </c>
-      <c r="E2" s="79">
+      <c r="E2" s="78">
         <v>43723.791666666664</v>
       </c>
-      <c r="F2" s="80">
+      <c r="F2" s="79">
         <v>6.25E-2</v>
       </c>
-      <c r="G2" s="75">
+      <c r="G2" s="74">
         <f>E2-D2</f>
         <v>6.9444444445252884E-2</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="70" t="s">
+      <c r="A3" s="139"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="78">
         <v>43724.4375</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="78">
         <v>43724.506944444445</v>
       </c>
-      <c r="F3" s="80">
+      <c r="F3" s="79">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G3" s="75">
+      <c r="G3" s="74">
         <f>E3-D3</f>
         <v>6.9444444445252884E-2</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="70" t="s">
+      <c r="A4" s="138"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="78">
         <v>43734.756944444445</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="78">
         <v>43734.805555555555</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="79">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="74">
         <f>E4-D4</f>
         <v>4.8611111109494232E-2</v>
       </c>
@@ -2049,21 +2061,21 @@
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="82" t="s">
+      <c r="A5" s="138"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="78">
         <v>43753.777777777781</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="78">
         <v>43753.847222222219</v>
       </c>
-      <c r="F5" s="80">
+      <c r="F5" s="79">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="74">
         <f>E5-D5</f>
         <v>6.9444444437976927E-2</v>
       </c>
@@ -2071,23 +2083,23 @@
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136" t="s">
+      <c r="A6" s="138"/>
+      <c r="B6" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="78">
         <v>43725.555555555555</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="78">
         <v>43725.631944444445</v>
       </c>
-      <c r="F6" s="80">
+      <c r="F6" s="79">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="74">
         <f t="shared" ref="G6:G23" si="0">E6-D6</f>
         <v>7.6388888890505768E-2</v>
       </c>
@@ -2095,13 +2107,13 @@
       <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="75">
+      <c r="A7" s="138"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2109,13 +2121,13 @@
       <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="75">
+      <c r="A8" s="138"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2123,13 +2135,13 @@
       <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="75">
+      <c r="A9" s="138"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2137,23 +2149,23 @@
       <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="78">
         <v>43727.722222222219</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E10" s="78">
         <v>43727.819444444445</v>
       </c>
-      <c r="F10" s="80"/>
-      <c r="G10" s="75">
+      <c r="F10" s="79"/>
+      <c r="G10" s="74">
         <f t="shared" si="0"/>
         <v>9.7222222226264421E-2</v>
       </c>
@@ -2161,19 +2173,19 @@
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="70" t="s">
+      <c r="A11" s="138"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="78">
         <v>43728.486111111109</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="78">
         <v>43728.513888888891</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="75">
+      <c r="F11" s="79"/>
+      <c r="G11" s="74">
         <f t="shared" si="0"/>
         <v>2.7777777781011537E-2</v>
       </c>
@@ -2181,19 +2193,19 @@
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
-      <c r="B12" s="136"/>
-      <c r="C12" s="70" t="s">
+      <c r="A12" s="138"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="78">
         <v>43728.767361111109</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="78">
         <v>43728.819444444445</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="75">
+      <c r="F12" s="79"/>
+      <c r="G12" s="74">
         <f t="shared" si="0"/>
         <v>5.2083333335758653E-2</v>
       </c>
@@ -2201,21 +2213,21 @@
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="138" t="s">
+      <c r="A13" s="138"/>
+      <c r="B13" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="78">
         <v>43730.618055555555</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="78">
         <v>43730.729166666664</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="75">
+      <c r="F13" s="79"/>
+      <c r="G13" s="74">
         <f t="shared" si="0"/>
         <v>0.11111111110949423</v>
       </c>
@@ -2223,19 +2235,19 @@
       <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="70" t="s">
+      <c r="A14" s="138"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="78">
         <v>43733.618055555555</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E14" s="78">
         <v>43733.618055555555</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="75">
+      <c r="F14" s="79"/>
+      <c r="G14" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2243,19 +2255,19 @@
       <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="70" t="s">
+      <c r="A15" s="138"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="78">
         <v>43740.6875</v>
       </c>
-      <c r="E15" s="79">
+      <c r="E15" s="78">
         <v>43740.722222222219</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="75">
+      <c r="F15" s="79"/>
+      <c r="G15" s="74">
         <f t="shared" si="0"/>
         <v>3.4722222218988463E-2</v>
       </c>
@@ -2263,27 +2275,35 @@
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="75">
+      <c r="A16" s="138"/>
+      <c r="B16" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="78">
+        <v>43757.506944444445</v>
+      </c>
+      <c r="E16" s="78">
+        <v>43757.673611111109</v>
+      </c>
+      <c r="F16" s="79"/>
+      <c r="G16" s="74">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666424135</v>
       </c>
       <c r="H16" s="65"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="65"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="75">
+      <c r="C17" s="69"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2291,13 +2311,13 @@
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="65"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="75">
+      <c r="C18" s="69"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2305,13 +2325,13 @@
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="65"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="75">
+      <c r="C19" s="69"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2319,13 +2339,13 @@
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="136"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="65"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="75">
+      <c r="C20" s="69"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2333,13 +2353,13 @@
       <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="136"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="65"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="75">
+      <c r="C21" s="69"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2347,13 +2367,13 @@
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="136"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="65"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="75">
+      <c r="C22" s="69"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2361,13 +2381,13 @@
       <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="136"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="65"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="75">
+      <c r="C23" s="69"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2381,27 +2401,27 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="81"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="67">
+      <c r="B29" s="116"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="66">
         <f>SUM(F2+F3+F4+F6+F7+F8+F9+F10+F19+F20+F21)</f>
         <v>0.22916666666666663</v>
       </c>
-      <c r="G29" s="68">
+      <c r="G29" s="67">
         <f>SUM(G2:G23)</f>
-        <v>0.65625</v>
+        <v>0.82291666666424135</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="10"/>
@@ -2432,11 +2452,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42714C1D-C593-464A-80BF-C213BA577893}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,10 +2471,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -2483,8 +2503,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="131"/>
-      <c r="B2" s="138" t="s">
+      <c r="A2" s="133"/>
+      <c r="B2" s="140" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2493,10 +2513,10 @@
       <c r="D2" s="17">
         <v>43726</v>
       </c>
-      <c r="E2" s="94">
+      <c r="E2" s="93">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F2" s="94">
+      <c r="F2" s="93">
         <v>0.8125</v>
       </c>
       <c r="G2" s="22">
@@ -2507,7 +2527,7 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="I2" s="11">
-        <f t="shared" ref="I2:I12" si="0">IF(H2&lt;=G2,G2-H2,H2-G2)</f>
+        <f t="shared" ref="I2:I13" si="0">IF(H2&lt;=G2,G2-H2,H2-G2)</f>
         <v>4.163336342344337E-17</v>
       </c>
       <c r="J2" s="30">
@@ -2515,25 +2535,25 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="85" t="s">
+      <c r="A3" s="134"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="84" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="28">
         <v>43727</v>
       </c>
-      <c r="E3" s="95">
+      <c r="E3" s="94">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F3" s="95">
+      <c r="F3" s="94">
         <v>0.55555555555555558</v>
       </c>
       <c r="G3" s="21">
         <v>3.125E-2</v>
       </c>
       <c r="H3" s="11">
-        <f t="shared" ref="H3:H12" si="1">F3-E3</f>
+        <f t="shared" ref="H3:H13" si="1">F3-E3</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I3" s="12">
@@ -2545,18 +2565,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="137"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="19">
         <v>43730</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="97">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F4" s="98">
+      <c r="F4" s="97">
         <v>0.56944444444444442</v>
       </c>
       <c r="G4" s="23">
@@ -2575,20 +2595,20 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
-      <c r="B5" s="122" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="100">
+      <c r="D5" s="99">
         <v>43725</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="100">
         <v>0.73611111111111116</v>
       </c>
-      <c r="F5" s="101">
+      <c r="F5" s="100">
         <v>0.82638888888888884</v>
       </c>
       <c r="G5" s="21">
@@ -2607,18 +2627,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="86" t="s">
+      <c r="A6" s="134"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="92">
         <v>43725</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E6" s="95">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F6" s="97">
+      <c r="F6" s="96">
         <v>1.0833333333333333</v>
       </c>
       <c r="G6" s="20">
@@ -2637,18 +2657,18 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="132"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="86" t="s">
+      <c r="A7" s="134"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="93">
+      <c r="D7" s="92">
         <v>43731</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="95">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F7" s="96">
+      <c r="F7" s="95">
         <v>0.82638888888888884</v>
       </c>
       <c r="G7" s="29">
@@ -2667,29 +2687,29 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="132"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="134"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="84" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="28">
         <v>43732</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="94">
         <v>9.375E-2</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="94">
         <v>0.17291666666666669</v>
       </c>
       <c r="G8" s="21">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="1"/>
+        <f>F8-E8</f>
         <v>7.9166666666666691E-2</v>
       </c>
       <c r="I8" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(H8&lt;=G8,G8-H8,H8-G8)</f>
         <v>4.166666666666638E-3</v>
       </c>
       <c r="J8" s="31">
@@ -2697,59 +2717,71 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
-      <c r="B9" s="128" t="s">
+      <c r="A9" s="134"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="144">
+        <v>43757</v>
+      </c>
+      <c r="E9" s="145">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F9" s="145">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="G9" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H9" s="146">
+        <f>F9-E9</f>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="I9" s="12">
+        <f>IF(H9&lt;=G9,G9-H9,H9-G9)</f>
+        <v>6.9444444444444461E-2</v>
+      </c>
+      <c r="J9" s="147">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="134"/>
+      <c r="B10" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D10" s="28">
         <v>43732</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E10" s="94">
         <v>0.625</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F10" s="38">
         <v>1.0625</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="11">
+      <c r="G10" s="29"/>
+      <c r="H10" s="15">
         <f t="shared" si="1"/>
         <v>0.4375</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I10" s="12">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-      <c r="J9" s="45"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="49"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2758,577 +2790,595 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="50"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
-      <c r="B12" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="26">
-        <v>43756</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0.61249999999999993</v>
-      </c>
-      <c r="F12" s="90">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="G12" s="24">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="A12" s="134"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>5.7638888888888906E-2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="134"/>
+      <c r="B13" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="26">
+        <v>43756</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="F13" s="89">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="G13" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="1"/>
+        <v>5.7638888888888906E-2</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="0"/>
         <v>2.5694444444444423E-2</v>
       </c>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="36"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="45"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="31"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="58"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="59"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="58"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="133"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="59"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="59"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="134"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="135"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="59"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="61">
-        <f>SUM(G2+G3+G4+G5+G6+G7+G8+G9+G18+G19+G20)</f>
+      <c r="B24" s="63"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="61">
+        <f>SUM(G2+G3+G4+G5+G6+G7+G8+G10+G19+G20+G21)</f>
         <v>0.69791666666666674</v>
       </c>
-      <c r="H23" s="60">
-        <f>SUM(H2+H3+H4+H5+H6+H7+H8+H18+H9+H19+H20)</f>
+      <c r="H24" s="60">
+        <f>SUM(H2+H3+H4+H5+H6+H7+H8+H19+H10+H20+H21)</f>
         <v>1.1833333333333331</v>
       </c>
-      <c r="I23" s="39">
-        <f>SUM(I2:I22)</f>
-        <v>0.75555555555555576</v>
-      </c>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="7"/>
+      <c r="I24" s="39">
+        <f>SUM(I2:I23)</f>
+        <v>0.82500000000000018</v>
+      </c>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="111" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B26" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="131" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="138" t="s">
+      <c r="B27" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D27" s="17">
         <v>43755</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E27" s="93">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F27" s="93">
         <v>0.8569444444444444</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G27" s="22">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H26" s="11">
-        <f>F26-E26</f>
+      <c r="H27" s="11">
+        <f>F27-E27</f>
         <v>2.3611111111111027E-2</v>
       </c>
-      <c r="I26" s="11">
-        <f>IF(H26&lt;=G26,G26-H26,H26-G26)</f>
+      <c r="I27" s="11">
+        <f>IF(H27&lt;=G27,G27-H27,H27-G27)</f>
         <v>1.8055555555555637E-2</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J27" s="30">
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="85" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="134"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D28" s="28">
         <v>43755</v>
       </c>
-      <c r="E27" s="95">
+      <c r="E28" s="94">
         <v>0.7583333333333333</v>
       </c>
-      <c r="F27" s="95">
+      <c r="F28" s="94">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G28" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H27" s="11">
-        <f t="shared" ref="H27:H29" si="2">F27-E27</f>
+      <c r="H28" s="11">
+        <f t="shared" ref="H28:H30" si="2">F28-E28</f>
         <v>7.5000000000000067E-2</v>
       </c>
-      <c r="I27" s="11">
-        <f t="shared" ref="I27:I29" si="3">IF(H27&lt;=G27,G27-H27,H27-G27)</f>
+      <c r="I28" s="11">
+        <f t="shared" ref="I28:I30" si="3">IF(H28&lt;=G28,G28-H28,H28-G28)</f>
         <v>3.3333333333333402E-2</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J28" s="31">
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="132"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="32">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="132"/>
-      <c r="B29" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="100">
-        <v>44121</v>
-      </c>
-      <c r="E29" s="101">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="F29" s="101">
-        <v>0.75</v>
-      </c>
-      <c r="G29" s="21">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="A29" s="134"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="11">
         <f t="shared" si="2"/>
-        <v>0.11111111111111105</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="32">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="134"/>
+      <c r="B30" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="99">
+        <v>44121</v>
+      </c>
+      <c r="E30" s="100">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F30" s="100">
+        <v>0.75</v>
+      </c>
+      <c r="G30" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="2"/>
+        <v>0.11111111111111105</v>
+      </c>
+      <c r="I30" s="11">
+        <f t="shared" si="3"/>
         <v>2.7777777777777721E-2</v>
       </c>
-      <c r="J29" s="31"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="132"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="34"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="132"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="96"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="95"/>
       <c r="F31" s="96"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="35"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="132"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="28"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="95"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="31"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="35"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
-      <c r="B33" s="128"/>
-      <c r="D33" s="17"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="94"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="45"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="31"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="132"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="31"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="130"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="45"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="132"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="50"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="31"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
-      <c r="B36" s="125"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="33"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="132"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="35"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="132"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="36"/>
+      <c r="A38" s="134"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="35"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="132"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="45"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="36"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="132"/>
-      <c r="B40" s="129"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="31"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="45"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="132"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="132"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="57"/>
+      <c r="A42" s="134"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="50"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="132"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="58"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="57"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="132"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="59"/>
+      <c r="A44" s="134"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="132"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="58"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="133"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="59"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="59"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="134"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="58"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="135"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="59"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="61">
-        <f>SUM(G26+G27+G28+G29+G30+G31+G32+G33+G42+G43+G44)</f>
+      <c r="B48" s="108"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="61">
+        <f>SUM(G27+G28+G29+G30+G31+G32+G33+G34+G43+G44+G45)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H47" s="60">
-        <f>SUM(H26+H27+H28+H29+H30+H31+H32+H42+H33+H43+H44)</f>
+      <c r="H48" s="60">
+        <f>SUM(H27+H28+H29+H30+H31+H32+H33+H43+H34+H44+H45)</f>
         <v>0.20972222222222214</v>
       </c>
-      <c r="I47" s="39">
-        <f>SUM(I26:I46)</f>
+      <c r="I48" s="39">
+        <f>SUM(I27:I47)</f>
         <v>7.916666666666676E-2</v>
       </c>
-      <c r="J47" s="10"/>
+      <c r="J48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A26:A46"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A27:A47"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3338,7 +3388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4C5F66-E89D-4EAB-B57A-C68CB0901AD5}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -3354,10 +3404,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="119"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3384,346 +3434,346 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="107">
+      <c r="E2" s="106">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F2" s="107">
+      <c r="F2" s="106">
         <v>0.85416666666666663</v>
       </c>
-      <c r="G2" s="107">
+      <c r="G2" s="106">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H2" s="107">
+      <c r="H2" s="106">
         <v>6.25E-2</v>
       </c>
-      <c r="I2" s="107">
+      <c r="I2" s="106">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J2" s="106"/>
+      <c r="J2" s="105"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="105" t="s">
+      <c r="A3" s="134"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="106">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="106">
         <v>0.81944444444444453</v>
       </c>
-      <c r="G3" s="107">
+      <c r="G3" s="106">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H3" s="107">
+      <c r="H3" s="106">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="I3" s="107">
+      <c r="I3" s="106">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="J3" s="106"/>
+      <c r="J3" s="105"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="105" t="s">
+      <c r="A4" s="134"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="106">
         <v>0.67013888888888884</v>
       </c>
-      <c r="F4" s="107">
+      <c r="F4" s="106">
         <v>0.67708333333333337</v>
       </c>
-      <c r="G4" s="112">
+      <c r="G4" s="111">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H4" s="112">
+      <c r="H4" s="111">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="I4" s="112">
+      <c r="I4" s="111">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="J4" s="106"/>
+      <c r="J4" s="105"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="105" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="106">
         <v>0.69097222222222221</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="106">
         <v>0.71875</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="106"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="105"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="105" t="s">
+      <c r="A6" s="134"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="106">
         <v>0.67361111111111116</v>
       </c>
-      <c r="F6" s="107">
+      <c r="F6" s="106">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="106">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H6" s="107">
+      <c r="H6" s="106">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="I6" s="107">
+      <c r="I6" s="106">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="J6" s="106"/>
+      <c r="J6" s="105"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="132"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="105" t="s">
+      <c r="A7" s="134"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="106">
         <v>0.4513888888888889</v>
       </c>
-      <c r="F7" s="107">
+      <c r="F7" s="106">
         <v>0.47569444444444442</v>
       </c>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="132"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="141" t="s">
+      <c r="A8" s="134"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="107">
+      <c r="E8" s="106">
         <v>0.5</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="106">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="141" t="s">
+      <c r="A9" s="134"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="107">
+      <c r="E9" s="106">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="106">
         <v>0.60069444444444442</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
-      <c r="B12" s="138" t="s">
+      <c r="A12" s="134"/>
+      <c r="B12" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="106" t="s">
+      <c r="D12" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="106">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="106">
         <v>0.63194444444444442</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="106">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H12" s="107">
+      <c r="H12" s="106">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="I12" s="107">
+      <c r="I12" s="106">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="J12" s="106"/>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="143"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="106" t="s">
+      <c r="D16" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="107">
+      <c r="E16" s="106">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="106">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="106">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H16" s="107">
+      <c r="H16" s="106">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I16" s="107">
+      <c r="I16" s="106">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J16" s="106"/>
+      <c r="J16" s="105"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="137"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
+      <c r="A19" s="139"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
+++ b/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TGM\19-20\ITP\Projekt\project-management\05_Zeitaufzeichnung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nils\Desktop\Schule\ITP\Local Admin\05_Zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C56B2C9-63AF-4FDD-9991-62606AA6E178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5CFB62-C535-4B85-A789-E665268E2302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>Aktivität</t>
   </si>
@@ -287,17 +287,25 @@
   </si>
   <si>
     <t xml:space="preserve"> Projektumgebung aufsetzen bei Kalian</t>
+  </si>
+  <si>
+    <t>Texte Verfassen</t>
+  </si>
+  <si>
+    <t>Verbesserung Grammatik</t>
+  </si>
+  <si>
+    <t>Verbesserung Inhalt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="166" formatCode="dd:hh:mm"/>
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -678,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,6 +862,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -941,10 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1257,10 +1266,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="123"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1287,10 +1296,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="125" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1321,8 +1330,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
-      <c r="B3" s="122"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1350,8 +1359,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="134"/>
-      <c r="B4" s="123"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1380,8 +1389,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="124" t="s">
+      <c r="A5" s="138"/>
+      <c r="B5" s="128" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1412,9 +1421,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="120" t="s">
+      <c r="A6" s="138"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="124" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="28">
@@ -1442,9 +1451,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="134"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="120"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="124"/>
       <c r="D7" s="37">
         <v>43718</v>
       </c>
@@ -1470,8 +1479,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="126"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1500,8 +1509,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="130" t="s">
+      <c r="A9" s="138"/>
+      <c r="B9" s="134" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="41" t="s">
@@ -1532,8 +1541,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
-      <c r="B10" s="131"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="135"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1550,8 +1559,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="134"/>
-      <c r="B11" s="132"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="46" t="s">
         <v>31</v>
       </c>
@@ -1568,11 +1577,11 @@
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="134"/>
-      <c r="B12" s="127" t="s">
+      <c r="A12" s="138"/>
+      <c r="B12" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="140" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="26">
@@ -1600,9 +1609,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="137"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="141"/>
       <c r="D13" s="18">
         <v>43754</v>
       </c>
@@ -1618,8 +1627,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="134"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="40" t="s">
         <v>16</v>
       </c>
@@ -1638,8 +1647,8 @@
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="134"/>
-      <c r="B15" s="129"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1658,8 +1667,8 @@
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="134"/>
-      <c r="B16" s="130" t="s">
+      <c r="A16" s="138"/>
+      <c r="B16" s="134" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="41" t="s">
@@ -1680,8 +1689,8 @@
       <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
-      <c r="B17" s="131"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="135"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1700,8 +1709,8 @@
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="132"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="46" t="s">
         <v>12</v>
       </c>
@@ -1720,8 +1729,8 @@
       <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="134"/>
-      <c r="B19" s="127" t="s">
+      <c r="A19" s="138"/>
+      <c r="B19" s="131" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -1752,8 +1761,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="128"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="54" t="s">
         <v>16</v>
       </c>
@@ -1782,8 +1791,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="51" t="s">
         <v>12</v>
       </c>
@@ -1812,8 +1821,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="134"/>
-      <c r="B22" s="128"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="54"/>
       <c r="D22" s="40"/>
       <c r="E22" s="55"/>
@@ -1830,8 +1839,8 @@
       <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="135"/>
-      <c r="B23" s="128"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="51"/>
       <c r="D23" s="3"/>
       <c r="E23" s="52"/>
@@ -1848,14 +1857,14 @@
       <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="116"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="120"/>
       <c r="G24" s="61">
         <f>SUM(G2+G3+G4+G5+G6+G7+G8+G9+G19+G20+G21)</f>
         <v>1.0868055555555556</v>
@@ -1876,10 +1885,10 @@
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="119"/>
+      <c r="B26" s="123"/>
       <c r="C26" s="9" t="s">
         <v>0</v>
       </c>
@@ -1991,10 +2000,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="143" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="70" t="s">
@@ -2017,8 +2026,8 @@
       <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
       <c r="C3" s="69" t="s">
         <v>41</v>
       </c>
@@ -2039,8 +2048,8 @@
       <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="138"/>
-      <c r="B4" s="138"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="69" t="s">
         <v>42</v>
       </c>
@@ -2061,8 +2070,8 @@
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="138"/>
-      <c r="B5" s="138"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="81" t="s">
         <v>54</v>
       </c>
@@ -2083,8 +2092,8 @@
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="138"/>
-      <c r="B6" s="138" t="s">
+      <c r="A6" s="142"/>
+      <c r="B6" s="142" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="69" t="s">
@@ -2107,8 +2116,8 @@
       <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="138"/>
-      <c r="B7" s="138"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="142"/>
       <c r="C7" s="69"/>
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
@@ -2121,8 +2130,8 @@
       <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="138"/>
-      <c r="B8" s="138"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="142"/>
       <c r="C8" s="69"/>
       <c r="D8" s="78"/>
       <c r="E8" s="78"/>
@@ -2135,8 +2144,8 @@
       <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="138"/>
-      <c r="B9" s="138"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="142"/>
       <c r="C9" s="69"/>
       <c r="D9" s="78"/>
       <c r="E9" s="78"/>
@@ -2149,10 +2158,10 @@
       <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="142" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="69" t="s">
@@ -2173,8 +2182,8 @@
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
-      <c r="B11" s="138"/>
+      <c r="A11" s="142"/>
+      <c r="B11" s="142"/>
       <c r="C11" s="69" t="s">
         <v>48</v>
       </c>
@@ -2193,8 +2202,8 @@
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
-      <c r="B12" s="138"/>
+      <c r="A12" s="142"/>
+      <c r="B12" s="142"/>
       <c r="C12" s="69" t="s">
         <v>49</v>
       </c>
@@ -2213,8 +2222,8 @@
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="140" t="s">
+      <c r="A13" s="142"/>
+      <c r="B13" s="144" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="69" t="s">
@@ -2235,8 +2244,8 @@
       <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
-      <c r="B14" s="141"/>
+      <c r="A14" s="142"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="69" t="s">
         <v>52</v>
       </c>
@@ -2255,8 +2264,8 @@
       <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="138"/>
-      <c r="B15" s="139"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="69" t="s">
         <v>53</v>
       </c>
@@ -2275,7 +2284,7 @@
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="138"/>
+      <c r="A16" s="142"/>
       <c r="B16" s="112" t="s">
         <v>81</v>
       </c>
@@ -2297,7 +2306,7 @@
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="138"/>
+      <c r="A17" s="142"/>
       <c r="B17" s="65"/>
       <c r="C17" s="69"/>
       <c r="D17" s="78"/>
@@ -2311,7 +2320,7 @@
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
+      <c r="A18" s="142"/>
       <c r="B18" s="65"/>
       <c r="C18" s="69"/>
       <c r="D18" s="78"/>
@@ -2325,7 +2334,7 @@
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
+      <c r="A19" s="142"/>
       <c r="B19" s="65"/>
       <c r="C19" s="69"/>
       <c r="D19" s="78"/>
@@ -2339,7 +2348,7 @@
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
+      <c r="A20" s="142"/>
       <c r="B20" s="65"/>
       <c r="C20" s="69"/>
       <c r="D20" s="78"/>
@@ -2353,7 +2362,7 @@
       <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="138"/>
+      <c r="A21" s="142"/>
       <c r="B21" s="65"/>
       <c r="C21" s="69"/>
       <c r="D21" s="78"/>
@@ -2367,7 +2376,7 @@
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="138"/>
+      <c r="A22" s="142"/>
       <c r="B22" s="65"/>
       <c r="C22" s="69"/>
       <c r="D22" s="78"/>
@@ -2381,7 +2390,7 @@
       <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="138"/>
+      <c r="A23" s="142"/>
       <c r="B23" s="65"/>
       <c r="C23" s="69"/>
       <c r="D23" s="78"/>
@@ -2408,10 +2417,10 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="116"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="75"/>
       <c r="D29" s="76"/>
       <c r="E29" s="77"/>
@@ -2452,11 +2461,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42714C1D-C593-464A-80BF-C213BA577893}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,8 +2512,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="133"/>
-      <c r="B2" s="140" t="s">
+      <c r="A2" s="137"/>
+      <c r="B2" s="144" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2535,8 +2544,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
-      <c r="B3" s="141"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="145"/>
       <c r="C3" s="84" t="s">
         <v>25</v>
       </c>
@@ -2565,8 +2574,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="134"/>
-      <c r="B4" s="139"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="143"/>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
@@ -2595,8 +2604,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="124" t="s">
+      <c r="A5" s="138"/>
+      <c r="B5" s="128" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="98" t="s">
@@ -2627,8 +2636,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="125"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="85" t="s">
         <v>23</v>
       </c>
@@ -2657,8 +2666,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="134"/>
-      <c r="B7" s="125"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="85" t="s">
         <v>27</v>
       </c>
@@ -2687,8 +2696,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="125"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="84" t="s">
         <v>26</v>
       </c>
@@ -2717,24 +2726,24 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="126"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="144">
+      <c r="D9" s="115">
         <v>43757</v>
       </c>
-      <c r="E9" s="145">
+      <c r="E9" s="116">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F9" s="145">
+      <c r="F9" s="116">
         <v>0.67361111111111116</v>
       </c>
       <c r="G9" s="21">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H9" s="146">
+      <c r="H9" s="117">
         <f>F9-E9</f>
         <v>0.15277777777777779</v>
       </c>
@@ -2742,13 +2751,13 @@
         <f>IF(H9&lt;=G9,G9-H9,H9-G9)</f>
         <v>6.9444444444444461E-2</v>
       </c>
-      <c r="J9" s="147">
+      <c r="J9" s="118">
         <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
-      <c r="B10" s="130" t="s">
+      <c r="A10" s="138"/>
+      <c r="B10" s="134" t="s">
         <v>59</v>
       </c>
       <c r="C10" t="s">
@@ -2775,8 +2784,8 @@
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="134"/>
-      <c r="B11" s="131"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="101"/>
       <c r="D11" s="18"/>
       <c r="E11" s="12"/>
@@ -2793,8 +2802,8 @@
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="134"/>
-      <c r="B12" s="132"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="102"/>
       <c r="D12" s="47"/>
       <c r="E12" s="48"/>
@@ -2811,8 +2820,8 @@
       <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="127" t="s">
+      <c r="A13" s="138"/>
+      <c r="B13" s="131" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2841,8 +2850,8 @@
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="134"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="27"/>
@@ -2853,8 +2862,8 @@
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="134"/>
-      <c r="B15" s="129"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="16"/>
@@ -2865,8 +2874,8 @@
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="134"/>
-      <c r="B16" s="130"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="43"/>
@@ -2877,8 +2886,8 @@
       <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
-      <c r="B17" s="131"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="135"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="12"/>
@@ -2889,8 +2898,8 @@
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="132"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
       <c r="E18" s="48"/>
@@ -2901,8 +2910,8 @@
       <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="134"/>
-      <c r="B19" s="127"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="131"/>
       <c r="C19" s="53"/>
       <c r="D19" s="26"/>
       <c r="E19" s="52"/>
@@ -2913,8 +2922,8 @@
       <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="128"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="54"/>
       <c r="D20" s="37"/>
       <c r="E20" s="55"/>
@@ -2925,8 +2934,8 @@
       <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="51"/>
       <c r="D21" s="18"/>
       <c r="E21" s="52"/>
@@ -2937,8 +2946,8 @@
       <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="134"/>
-      <c r="B22" s="128"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="54"/>
       <c r="D22" s="40"/>
       <c r="E22" s="55"/>
@@ -2949,8 +2958,8 @@
       <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="135"/>
-      <c r="B23" s="142"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="51"/>
       <c r="D23" s="3"/>
       <c r="E23" s="52"/>
@@ -3021,10 +3030,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="133" t="s">
+      <c r="A27" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="144" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -3055,8 +3064,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="134"/>
-      <c r="B28" s="141"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="145"/>
       <c r="C28" s="84" t="s">
         <v>72</v>
       </c>
@@ -3073,11 +3082,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" ref="H28:H30" si="2">F28-E28</f>
+        <f t="shared" ref="H28:H33" si="2">F28-E28</f>
         <v>7.5000000000000067E-2</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" ref="I28:I30" si="3">IF(H28&lt;=G28,G28-H28,H28-G28)</f>
+        <f t="shared" ref="I28:I33" si="3">IF(H28&lt;=G28,G28-H28,H28-G28)</f>
         <v>3.3333333333333402E-2</v>
       </c>
       <c r="J28" s="31">
@@ -3085,8 +3094,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="134"/>
-      <c r="B29" s="139"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="2"/>
       <c r="D29" s="19"/>
       <c r="E29" s="97"/>
@@ -3108,8 +3117,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="134"/>
-      <c r="B30" s="124" t="s">
+      <c r="A30" s="138"/>
+      <c r="B30" s="131" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="98" t="s">
@@ -3135,168 +3144,227 @@
         <f t="shared" si="3"/>
         <v>2.7777777777777721E-2</v>
       </c>
-      <c r="J30" s="31"/>
+      <c r="J30" s="31">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="134"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="34"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="92">
+        <v>43761</v>
+      </c>
+      <c r="E31" s="95">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F31" s="96">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G31" s="20">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I31" s="11">
+        <f t="shared" si="3"/>
+        <v>2.0833333333333329E-2</v>
+      </c>
+      <c r="J31" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="134"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="35"/>
+      <c r="A32" s="138"/>
+      <c r="B32" s="134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="148" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="17">
+        <v>43761</v>
+      </c>
+      <c r="E32" s="93">
+        <v>0.6875</v>
+      </c>
+      <c r="F32" s="38">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G32" s="44">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H32" s="43">
+        <f t="shared" si="2"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I32" s="43">
+        <f t="shared" si="3"/>
+        <v>2.0833333333333294E-2</v>
+      </c>
+      <c r="J32" s="45">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="134"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="31"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="18">
+        <v>43752</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F33" s="87">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="G33" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H33" s="43">
+        <f t="shared" si="2"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="I33" s="43">
+        <f t="shared" si="3"/>
+        <v>1.3888888888888916E-2</v>
+      </c>
+      <c r="J33" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="134"/>
-      <c r="B34" s="130"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="45"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="134"/>
+      <c r="A35" s="138"/>
       <c r="B35" s="131"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="31"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="134"/>
+      <c r="A36" s="138"/>
       <c r="B36" s="132"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="50"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="134"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="33"/>
+      <c r="A37" s="138"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="36"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="134"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="35"/>
+      <c r="A38" s="138"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="45"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="134"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="25"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="21"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="36"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="134"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="45"/>
+      <c r="A40" s="138"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="50"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="134"/>
+      <c r="A41" s="138"/>
       <c r="B41" s="131"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="31"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="57"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="134"/>
+      <c r="A42" s="138"/>
       <c r="B42" s="132"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="49"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="55"/>
       <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="58"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="134"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="26"/>
+      <c r="A43" s="138"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="52"/>
-      <c r="F43" s="14"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="52"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="57"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="59"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="134"/>
-      <c r="B44" s="128"/>
+      <c r="A44" s="138"/>
+      <c r="B44" s="132"/>
       <c r="C44" s="54"/>
-      <c r="D44" s="37"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="55"/>
       <c r="F44" s="27"/>
       <c r="G44" s="55"/>
@@ -3304,11 +3372,11 @@
       <c r="I44" s="55"/>
       <c r="J44" s="58"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="134"/>
-      <c r="B45" s="128"/>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="139"/>
+      <c r="B45" s="146"/>
       <c r="C45" s="51"/>
-      <c r="D45" s="18"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="52"/>
       <c r="F45" s="12"/>
       <c r="G45" s="52"/>
@@ -3316,55 +3384,38 @@
       <c r="I45" s="52"/>
       <c r="J45" s="59"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="134"/>
-      <c r="B46" s="128"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="58"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="135"/>
-      <c r="B47" s="142"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="59"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="107" t="s">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="108"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="61">
-        <f>SUM(G27+G28+G29+G30+G31+G32+G33+G34+G43+G44+G45)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H48" s="60">
-        <f>SUM(H27+H28+H29+H30+H31+H32+H33+H43+H34+H44+H45)</f>
-        <v>0.20972222222222214</v>
-      </c>
-      <c r="I48" s="39">
-        <f>SUM(I27:I47)</f>
-        <v>7.916666666666676E-2</v>
-      </c>
-      <c r="J48" s="10"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="61" t="e">
+        <f>SUM(G27+G28+G29+G30+G31+#REF!+#REF!+G32+G41+G42+G43)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H46" s="60" t="e">
+        <f>SUM(H27+H28+H29+H30+H31+#REF!+#REF!+H41+H32+H42+H43)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I46" s="39">
+        <f>SUM(I27:I45)</f>
+        <v>0.1347222222222223</v>
+      </c>
+      <c r="J46" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A27:A45"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B9"/>
@@ -3372,13 +3423,6 @@
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B23"/>
-    <mergeCell ref="A27:A47"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3404,10 +3448,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="123"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3434,10 +3478,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="125" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="104" t="s">
@@ -3464,8 +3508,8 @@
       <c r="J2" s="105"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
-      <c r="B3" s="122"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="104" t="s">
         <v>62</v>
       </c>
@@ -3490,8 +3534,8 @@
       <c r="J3" s="105"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="134"/>
-      <c r="B4" s="122"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="104" t="s">
         <v>63</v>
       </c>
@@ -3516,8 +3560,8 @@
       <c r="J4" s="105"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="122"/>
+      <c r="A5" s="138"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="104" t="s">
         <v>63</v>
       </c>
@@ -3536,8 +3580,8 @@
       <c r="J5" s="105"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="122"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="104" t="s">
         <v>68</v>
       </c>
@@ -3562,8 +3606,8 @@
       <c r="J6" s="105"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="134"/>
-      <c r="B7" s="122"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="104" t="s">
         <v>79</v>
       </c>
@@ -3582,8 +3626,8 @@
       <c r="J7" s="105"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="122"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="113" t="s">
         <v>80</v>
       </c>
@@ -3602,8 +3646,8 @@
       <c r="J8" s="104"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="122"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="113" t="s">
         <v>80</v>
       </c>
@@ -3622,8 +3666,8 @@
       <c r="J9" s="104"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
-      <c r="B10" s="122"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="113"/>
       <c r="D10" s="114"/>
       <c r="E10" s="105"/>
@@ -3634,8 +3678,8 @@
       <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="134"/>
-      <c r="B11" s="123"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="104"/>
       <c r="D11" s="104"/>
       <c r="E11" s="104"/>
@@ -3646,8 +3690,8 @@
       <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="134"/>
-      <c r="B12" s="140" t="s">
+      <c r="A12" s="138"/>
+      <c r="B12" s="144" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="104" t="s">
@@ -3674,8 +3718,8 @@
       <c r="J12" s="105"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="141"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="104"/>
       <c r="D13" s="105"/>
       <c r="E13" s="105"/>
@@ -3686,8 +3730,8 @@
       <c r="J13" s="105"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="134"/>
-      <c r="B14" s="141"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="104"/>
       <c r="D14" s="105"/>
       <c r="E14" s="105"/>
@@ -3698,8 +3742,8 @@
       <c r="J14" s="105"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="143"/>
-      <c r="B15" s="139"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="104"/>
       <c r="D15" s="105"/>
       <c r="E15" s="105"/>
@@ -3710,7 +3754,7 @@
       <c r="J15" s="105"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="140" t="s">
+      <c r="A16" s="144" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="105" t="s">
@@ -3740,7 +3784,7 @@
       <c r="J16" s="105"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="141"/>
+      <c r="A17" s="145"/>
       <c r="B17" s="104"/>
       <c r="C17" s="104"/>
       <c r="D17" s="105"/>
@@ -3752,7 +3796,7 @@
       <c r="J17" s="105"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="141"/>
+      <c r="A18" s="145"/>
       <c r="B18" s="104"/>
       <c r="C18" s="104"/>
       <c r="D18" s="105"/>
@@ -3764,7 +3808,7 @@
       <c r="J18" s="105"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
+      <c r="A19" s="143"/>
       <c r="B19" s="104"/>
       <c r="C19" s="104"/>
       <c r="D19" s="105"/>

--- a/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
+++ b/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tgmwien-my.sharepoint.com/personal/tschrottwieser_student_tgm_ac_at/Documents/Schule/Sem7/ITP/Local Admin/05_Zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="700" documentId="8_{408C25CB-732D-4323-BCEA-F567F8226029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{58AFA38A-D390-4096-BE66-7A9247A9AC16}"/>
+  <xr:revisionPtr revIDLastSave="1677" documentId="8_{408C25CB-732D-4323-BCEA-F567F8226029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3CB1773B-C9B8-4FEB-9FA8-3CA60D28F855}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allg." sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="153">
   <si>
     <t>Aktivität</t>
   </si>
@@ -129,9 +129,6 @@
     <t>25.09.2019</t>
   </si>
   <si>
-    <t>Projektantrag Fehlersuche/-ausbesserung</t>
-  </si>
-  <si>
     <t>17.09.2019</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>Rest-API</t>
-  </si>
-  <si>
-    <t>Besprechung</t>
   </si>
   <si>
     <t xml:space="preserve">Dokumente </t>
@@ -193,12 +187,6 @@
   </si>
   <si>
     <t>Dokumente</t>
-  </si>
-  <si>
-    <t>Projektpräsentation Fehlersuche/-ausbesserung</t>
-  </si>
-  <si>
-    <t>Projekthandbuch überarbeitet</t>
   </si>
   <si>
     <t>Entwicklungsumgebung eingerichtet</t>
@@ -327,13 +315,7 @@
     <t>Werte/Formeln</t>
   </si>
   <si>
-    <t>Übersetzen vorhandenen Dokumentation</t>
-  </si>
-  <si>
     <t>Values &amp; DailyFormular implementiert</t>
-  </si>
-  <si>
-    <t>Korregieren und erweitern der Dokumentation</t>
   </si>
   <si>
     <t>Fehler ausbessern</t>
@@ -380,6 +362,141 @@
   <si>
     <t>Planung</t>
   </si>
+  <si>
+    <t>Pflichtenheft kontrollieren</t>
+  </si>
+  <si>
+    <t>Implementierung der ersten Restaurant Methoden</t>
+  </si>
+  <si>
+    <t>Fehler bei der Implementierung und dem Design ausbessern</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Fehler Behebungen beim Design</t>
+  </si>
+  <si>
+    <t>Unterstützung des Projektes durch andere Aufgaben</t>
+  </si>
+  <si>
+    <t>Besprechung mit dem Team</t>
+  </si>
+  <si>
+    <t>Implementieriung der Fehlenden Restaurant Methoden</t>
+  </si>
+  <si>
+    <t>Implementierung der Formula Methoden</t>
+  </si>
+  <si>
+    <t>Bugfixxing und Weiteres</t>
+  </si>
+  <si>
+    <t>Implementierung der Columns</t>
+  </si>
+  <si>
+    <t>Momentaner Stand + Aufteilung</t>
+  </si>
+  <si>
+    <t>Machbarkeit</t>
+  </si>
+  <si>
+    <t>Fehlersuche/-ausbesserung</t>
+  </si>
+  <si>
+    <t>überarbeitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung und Updaten </t>
+  </si>
+  <si>
+    <t>Implementierung der Nutzer</t>
+  </si>
+  <si>
+    <t>Implementierung der Nutzer und bugs fixen</t>
+  </si>
+  <si>
+    <t>26.10.2019</t>
+  </si>
+  <si>
+    <t>27.10.2019</t>
+  </si>
+  <si>
+    <t>08.11.2019</t>
+  </si>
+  <si>
+    <t>10.11.2019</t>
+  </si>
+  <si>
+    <t>11.11.2019</t>
+  </si>
+  <si>
+    <t>13.11.2019</t>
+  </si>
+  <si>
+    <t>16.11.2019</t>
+  </si>
+  <si>
+    <t>18.11.2019</t>
+  </si>
+  <si>
+    <t>19.11.2019</t>
+  </si>
+  <si>
+    <t>20.11.2019</t>
+  </si>
+  <si>
+    <t>21.11.2019</t>
+  </si>
+  <si>
+    <t>25.11.2019</t>
+  </si>
+  <si>
+    <t>Dokumentation - Tabellenabfragen</t>
+  </si>
+  <si>
+    <t>Implementierung - Autogen/Permissions/Filter</t>
+  </si>
+  <si>
+    <t>Implementierung - FilterAPI</t>
+  </si>
+  <si>
+    <t>Implementierung - Fehler behoben</t>
+  </si>
+  <si>
+    <t>Implementierung - TablesAPI</t>
+  </si>
+  <si>
+    <t>Implementierung - Filter/PermissionAPI</t>
+  </si>
+  <si>
+    <t>Implementierung - UsergroupAPI</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Übersetzen vorhandener Dokumentation</t>
+  </si>
+  <si>
+    <t>Testcases für Nutzermethoden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcases für Restaurant + Column </t>
+  </si>
+  <si>
+    <t>Testcases für DailyFormula fertig stellen</t>
+  </si>
+  <si>
+    <t>Testcases für Payroll</t>
+  </si>
+  <si>
+    <t>Testcases für Table</t>
+  </si>
+  <si>
+    <t>Testcases für DailyColumn + DailyFormula</t>
+  </si>
 </sst>
 </file>
 
@@ -389,7 +506,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,8 +548,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,12 +593,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -495,12 +611,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -723,34 +839,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -851,10 +939,32 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -864,31 +974,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -898,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="401">
+  <cellXfs count="404">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,7 +996,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -925,9 +1012,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -935,17 +1019,8 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,13 +1039,6 @@
     <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -978,9 +1046,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,33 +1059,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1032,9 +1070,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1125,9 +1160,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1147,16 +1179,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1167,37 +1189,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1225,90 +1217,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,73 +1237,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1396,343 +1247,43 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1747,55 +1298,687 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="14" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="14" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2073,16 +2256,16 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.0798611111111116</c:v>
+                  <c:v>6.7673611111111107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3361111111111108</c:v>
+                  <c:v>1.8013888888888885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2326388888888884</c:v>
+                  <c:v>4.489583333337376</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31597222222222221</c:v>
+                  <c:v>1.8784722222222219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2301,16 +2484,16 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.753472222222221</c:v>
+                  <c:v>1.9999999999999976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28402777777777732</c:v>
+                  <c:v>0.2909722222222218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11458333333333304</c:v>
+                  <c:v>0.6006944444484873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4305555555555525E-2</c:v>
+                  <c:v>1.3680555555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2529,16 +2712,16 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.0798611111111116</c:v>
+                  <c:v>6.7673611111111107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3361111111111108</c:v>
+                  <c:v>1.8013888888888885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2326388888888884</c:v>
+                  <c:v>4.489583333337376</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31597222222222221</c:v>
+                  <c:v>1.8784722222222219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4081,7 +4264,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4173,7 +4356,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4317,7 +4500,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4365,7 +4548,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4509,7 +4692,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4705,7 +4888,7 @@
       <dgm:prSet/>
       <dgm:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4757,7 +4940,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -7156,7 +7339,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -7526,7 +7709,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -7600,7 +7783,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -7748,7 +7931,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -7823,7 +8006,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -7897,7 +8080,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -7971,7 +8154,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -10861,7 +11044,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Diagramm 11">
+        <xdr:cNvPr id="5" name="Diagramm 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FFFC9ED-4335-439A-B2F3-00E30828CADC}"/>
@@ -11151,7 +11334,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11168,116 +11351,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="382" t="s">
+      <c r="A1" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="250">
+        <f>'Tobias S.'!A42</f>
+        <v>4.7673611111111134</v>
+      </c>
+      <c r="C2" s="250">
+        <f>'Tobias S.'!C42</f>
+        <v>1.9999999999999976</v>
+      </c>
+      <c r="D2" s="250">
+        <f>'Tobias S.'!B42</f>
+        <v>6.7673611111111107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="142" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="251">
+        <f>Nils!A30</f>
+        <v>1.5104166666666667</v>
+      </c>
+      <c r="C3" s="251">
+        <f>Nils!C30</f>
+        <v>0.2909722222222218</v>
+      </c>
+      <c r="D3" s="251">
+        <f>Nils!B30</f>
+        <v>1.8013888888888885</v>
+      </c>
+      <c r="F3" s="143"/>
+      <c r="G3" s="144" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="141" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="250">
+        <f>'Kalian D.'!A46</f>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="C4" s="250">
+        <f>'Kalian D.'!C46</f>
+        <v>0.6006944444484873</v>
+      </c>
+      <c r="D4" s="250">
+        <f>'Kalian D.'!B46</f>
+        <v>4.489583333337376</v>
+      </c>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="382" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="382" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="382" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="B5" s="252">
+        <f>'Tobias W.'!A49</f>
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="C5" s="252">
+        <f>'Tobias W.'!C49</f>
+        <v>1.3680555555555554</v>
+      </c>
+      <c r="D5" s="252">
+        <f>'Tobias W.'!B49</f>
+        <v>1.8784722222222219</v>
+      </c>
+      <c r="F5" s="148"/>
+      <c r="G5" s="149" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" s="384">
-        <f>'Tobias S.'!B41</f>
-        <v>4.3263888888888902</v>
-      </c>
-      <c r="C2" s="384">
-        <f>'Tobias S.'!D41</f>
-        <v>1.753472222222221</v>
-      </c>
-      <c r="D2" s="384">
-        <f>'Tobias S.'!C41</f>
-        <v>6.0798611111111116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="385" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="386">
-        <f>Nils!A17</f>
-        <v>1.0520833333333335</v>
-      </c>
-      <c r="C3" s="386">
-        <f>Nils!C17</f>
-        <v>0.28402777777777732</v>
-      </c>
-      <c r="D3" s="386">
-        <f>Nils!B17</f>
-        <v>1.3361111111111108</v>
-      </c>
-      <c r="F3" s="387"/>
-      <c r="G3" s="388" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="383" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="384">
-        <f>'Kalian D.'!B33</f>
-        <v>1.125</v>
-      </c>
-      <c r="C4" s="384">
-        <f>'Kalian D.'!D33</f>
-        <v>0.11458333333333304</v>
-      </c>
-      <c r="D4" s="384">
-        <f>'Kalian D.'!C33</f>
-        <v>1.2326388888888884</v>
-      </c>
-      <c r="F4" s="389"/>
-      <c r="G4" s="390" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="391" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="392">
-        <f>'Tobias W.'!A34</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C5" s="392">
-        <f>'Tobias W.'!C34</f>
-        <v>2.4305555555555525E-2</v>
-      </c>
-      <c r="D5" s="392">
-        <f>'Tobias W.'!B34</f>
-        <v>0.31597222222222221</v>
-      </c>
-      <c r="F5" s="393"/>
-      <c r="G5" s="394" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="395" t="s">
+      <c r="A7" s="332" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="396"/>
-      <c r="C7" s="396"/>
-      <c r="D7" s="397">
+      <c r="B7" s="333"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="336">
         <f>SUM(D2:D5)</f>
-        <v>8.9645833333333336</v>
+        <v>14.936805555559598</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="398"/>
-      <c r="B8" s="399"/>
-      <c r="C8" s="399"/>
-      <c r="D8" s="400"/>
+      <c r="A8" s="334"/>
+      <c r="B8" s="335"/>
+      <c r="C8" s="335"/>
+      <c r="D8" s="337"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11292,1100 +11475,1191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576FEAC2-94F0-43B7-AE55-3B16F30C7B1C}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="54" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="54" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="54" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="54" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="54" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="54" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="54" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="54"/>
-    <col min="10" max="10" width="22.5703125" style="54" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="54"/>
-    <col min="12" max="12" width="19.85546875" style="54" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" style="54" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="54"/>
+    <col min="1" max="1" width="36.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="24" style="35" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="35" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="35"/>
+    <col min="10" max="10" width="22.5703125" style="35" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="35"/>
+    <col min="12" max="12" width="19.85546875" style="35" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" style="35" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="124" t="s">
+      <c r="A1" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="124" t="s">
+      <c r="H1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="124" t="s">
+      <c r="I1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="90" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="301" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="304" t="s">
+      <c r="A2" s="338" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="341" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="37">
         <v>43714</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="38">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="38">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G2" s="58">
+      <c r="G2" s="39">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="38">
         <f>F2-E2</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="38">
         <f>IF(H2&lt;=G2,G2-H2,H2-G2)</f>
         <v>8.3333333333333412E-2</v>
       </c>
-      <c r="J2" s="59">
+      <c r="J2" s="40">
         <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="302"/>
-      <c r="B3" s="305"/>
-      <c r="C3" s="60" t="s">
+      <c r="A3" s="339"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="42">
         <v>43714</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="43">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="43">
         <v>0</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="44">
         <v>3.125E-2</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="43">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="43">
         <f t="shared" ref="I3:I25" si="0">IF(H3&lt;=G3,G3-H3,H3-G3)</f>
         <v>1.0416666666666664E-2</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="45">
         <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="302"/>
-      <c r="B4" s="306"/>
-      <c r="C4" s="65" t="s">
+      <c r="A4" s="339"/>
+      <c r="B4" s="343"/>
+      <c r="C4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="47">
         <v>43715</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="48">
         <v>0</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="48">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="49">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="50">
         <f>F4-E4</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="50">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="J4" s="70">
+      <c r="J4" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="302"/>
-      <c r="B5" s="307" t="s">
+      <c r="A5" s="339"/>
+      <c r="B5" s="344" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="53">
         <v>43716</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="54">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="54">
         <v>0.97916666666666663</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="55">
         <v>0.125</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H5" s="54">
         <f t="shared" ref="H5:H26" si="1">F5-E5</f>
         <v>0.25</v>
       </c>
-      <c r="I5" s="73">
+      <c r="I5" s="54">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="J5" s="75">
+      <c r="J5" s="56">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="302"/>
-      <c r="B6" s="308"/>
-      <c r="C6" s="303" t="s">
+      <c r="A6" s="339"/>
+      <c r="B6" s="345"/>
+      <c r="C6" s="340" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="57">
         <v>43717</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="50">
         <v>0.74305555555555547</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="50">
         <v>0.98958333333333337</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="58">
         <v>0.20833333333333334</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="50">
         <f t="shared" si="1"/>
         <v>0.2465277777777779</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="50">
         <f t="shared" si="0"/>
         <v>3.8194444444444559E-2</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="59">
         <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="302"/>
-      <c r="B7" s="308"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="79">
+      <c r="A7" s="339"/>
+      <c r="B7" s="345"/>
+      <c r="C7" s="340"/>
+      <c r="D7" s="60">
         <v>43718</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="61">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="61">
         <v>0.875</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="62">
         <v>0.125</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="61">
         <f t="shared" si="1"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="I7" s="80">
+      <c r="I7" s="61">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J7" s="82">
+      <c r="J7" s="63">
         <v>0.85</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="302"/>
-      <c r="B8" s="309"/>
-      <c r="C8" s="60" t="s">
+      <c r="A8" s="339"/>
+      <c r="B8" s="346"/>
+      <c r="C8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="42">
         <v>43722</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="43">
         <v>0.625</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="43">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="44">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="43">
         <f>F8-E8</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="43">
         <f t="shared" si="0"/>
         <v>4.163336342344337E-17</v>
       </c>
-      <c r="J8" s="64">
+      <c r="J8" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="302"/>
-      <c r="B9" s="310" t="s">
+      <c r="A9" s="339"/>
+      <c r="B9" s="349" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="65">
         <v>43745</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="66">
         <v>0.625</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="66">
         <v>0.77083333333333337</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="67">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="66">
         <f>F9-E9</f>
         <v>0.14583333333333337</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="66">
         <f>IF(H9&lt;=G9,G9-H9,H9-G9)</f>
         <v>6.2500000000000042E-2</v>
       </c>
-      <c r="J9" s="87">
+      <c r="J9" s="68">
         <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="302"/>
-      <c r="B10" s="311"/>
-      <c r="C10" s="60" t="s">
+      <c r="A10" s="339"/>
+      <c r="B10" s="347"/>
+      <c r="C10" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="62">
+      <c r="D10" s="42">
+        <v>43783</v>
+      </c>
+      <c r="E10" s="43">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F10" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="44">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H10" s="43">
+        <f t="shared" ref="H10:H11" si="2">F10-E10</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I10" s="43">
         <v>0</v>
       </c>
-      <c r="I10" s="62">
+      <c r="J10" s="45">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="339"/>
+      <c r="B11" s="348"/>
+      <c r="C11" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="70">
+        <v>43817</v>
+      </c>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="71">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="302"/>
-      <c r="B11" s="312"/>
-      <c r="C11" s="201" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="90">
+      <c r="I11" s="71">
         <v>0</v>
       </c>
-      <c r="I11" s="90">
-        <v>0</v>
-      </c>
-      <c r="J11" s="92"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="302"/>
-      <c r="B12" s="315" t="s">
+      <c r="A12" s="339"/>
+      <c r="B12" s="352" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="313" t="s">
+      <c r="C12" s="350" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="204">
+      <c r="D12" s="111">
         <v>43753</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="54">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="76">
         <v>0.77083333333333337</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="54">
         <v>0.125</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="54">
         <f t="shared" si="1"/>
         <v>0.21527777777777779</v>
       </c>
-      <c r="I12" s="73">
+      <c r="I12" s="54">
         <f>IF(H12&lt;=G12,G12-H12,H12-G12)</f>
         <v>9.027777777777779E-2</v>
       </c>
-      <c r="J12" s="97">
+      <c r="J12" s="77">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="302"/>
-      <c r="B13" s="316"/>
-      <c r="C13" s="314"/>
-      <c r="D13" s="203">
+      <c r="A13" s="339"/>
+      <c r="B13" s="353"/>
+      <c r="C13" s="351"/>
+      <c r="D13" s="110">
         <v>43754</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="43">
         <v>0.89583333333333337</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="75">
         <v>0.125</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="43">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="43">
         <v>0.22916666666666666</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="43">
         <f>IF(H13&lt;=G13,G13-H13,H13-G13)</f>
         <v>6.25E-2</v>
       </c>
-      <c r="J13" s="100">
+      <c r="J13" s="80">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="302"/>
-      <c r="B14" s="316"/>
-      <c r="C14" s="255" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="202">
+      <c r="A14" s="339"/>
+      <c r="B14" s="353"/>
+      <c r="C14" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="109">
         <v>43759</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="61">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="78">
         <v>0.8125</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G14" s="61">
         <v>0.14583333333333334</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="61">
         <f t="shared" si="1"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I14" s="61">
         <f t="shared" si="0"/>
         <v>6.2500000000000028E-2</v>
       </c>
-      <c r="J14" s="99">
+      <c r="J14" s="79">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="302"/>
-      <c r="B15" s="316"/>
-      <c r="C15" s="314" t="s">
+      <c r="A15" s="339"/>
+      <c r="B15" s="353"/>
+      <c r="C15" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="203">
+      <c r="D15" s="110">
         <v>43761</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="43">
         <v>0.375</v>
       </c>
-      <c r="F15" s="95">
+      <c r="F15" s="75">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="43">
         <v>0.375</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="43">
         <f t="shared" si="1"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="43">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="J15" s="100">
+      <c r="J15" s="80">
         <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="302"/>
-      <c r="B16" s="316"/>
-      <c r="C16" s="314"/>
-      <c r="D16" s="61">
+      <c r="A16" s="339"/>
+      <c r="B16" s="353"/>
+      <c r="C16" s="351"/>
+      <c r="D16" s="42">
         <v>43762</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="43">
         <v>0</v>
       </c>
-      <c r="F16" s="95">
+      <c r="F16" s="75">
         <v>0.19444444444444445</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="43">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H16" s="367">
+      <c r="H16" s="130">
         <f>F16-E16</f>
         <v>0.19444444444444445</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="43">
         <f t="shared" si="0"/>
         <v>0.11111111111111112</v>
       </c>
-      <c r="J16" s="100">
+      <c r="J16" s="80">
         <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="302"/>
-      <c r="B17" s="316"/>
-      <c r="C17" s="314"/>
-      <c r="D17" s="61">
+      <c r="A17" s="339"/>
+      <c r="B17" s="353"/>
+      <c r="C17" s="351"/>
+      <c r="D17" s="42">
         <v>43763</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="43">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F17" s="75">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="43">
         <v>0.125</v>
       </c>
-      <c r="H17" s="367">
+      <c r="H17" s="130">
         <f>F17-E17</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="43">
         <f>IF(H17&lt;=G17,G17-H17,H17-G17)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="J17" s="100">
+      <c r="J17" s="80">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="302"/>
-      <c r="B18" s="316"/>
-      <c r="C18" s="368" t="s">
+      <c r="A18" s="339"/>
+      <c r="B18" s="353"/>
+      <c r="C18" s="355" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="60">
         <v>43766</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="61">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F18" s="98">
+      <c r="F18" s="78">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G18" s="80">
+      <c r="G18" s="61">
         <v>0.375</v>
       </c>
-      <c r="H18" s="369">
+      <c r="H18" s="131">
         <v>0.65277777777777779</v>
       </c>
-      <c r="I18" s="80">
-        <f t="shared" ref="I18:I20" si="2">IF(H18&lt;=G18,G18-H18,H18-G18)</f>
+      <c r="I18" s="61">
+        <f t="shared" ref="I18:I20" si="3">IF(H18&lt;=G18,G18-H18,H18-G18)</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="J18" s="99">
+      <c r="J18" s="79">
         <v>0.93</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="302"/>
-      <c r="B19" s="316"/>
-      <c r="C19" s="368"/>
-      <c r="D19" s="79">
+      <c r="A19" s="339"/>
+      <c r="B19" s="353"/>
+      <c r="C19" s="355"/>
+      <c r="D19" s="60">
         <v>43767</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="61">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F19" s="98">
+      <c r="F19" s="78">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G19" s="80">
+      <c r="G19" s="61">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H19" s="369">
+      <c r="H19" s="131">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I19" s="80">
-        <f t="shared" si="2"/>
+      <c r="I19" s="61">
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="J19" s="99">
+      <c r="J19" s="79">
         <v>0.96</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="302"/>
-      <c r="B20" s="317"/>
-      <c r="C20" s="370"/>
-      <c r="D20" s="89">
+      <c r="A20" s="339"/>
+      <c r="B20" s="354"/>
+      <c r="C20" s="356"/>
+      <c r="D20" s="70">
         <v>43768</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="71">
         <v>0.65277777777777779</v>
       </c>
-      <c r="F20" s="371">
+      <c r="F20" s="132">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20" s="71">
         <v>0.5</v>
       </c>
-      <c r="H20" s="372">
+      <c r="H20" s="133">
         <v>0.55555555555555558</v>
       </c>
-      <c r="I20" s="90">
-        <f t="shared" si="2"/>
+      <c r="I20" s="71">
+        <f t="shared" si="3"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="J20" s="373">
+      <c r="J20" s="134">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="302"/>
-      <c r="B21" s="311" t="s">
+      <c r="A21" s="339"/>
+      <c r="B21" s="347" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="60">
         <v>43772</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="61">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="61">
         <v>0.25</v>
       </c>
-      <c r="G21" s="81">
+      <c r="G21" s="62">
         <v>0.39583333333333331</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="61">
         <v>0.5</v>
       </c>
-      <c r="I21" s="80">
+      <c r="I21" s="61">
         <f t="shared" si="0"/>
         <v>0.10416666666666669</v>
       </c>
-      <c r="J21" s="82">
+      <c r="J21" s="63">
         <v>0.33</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="302"/>
-      <c r="B22" s="311"/>
-      <c r="C22" s="60" t="s">
+      <c r="A22" s="339"/>
+      <c r="B22" s="347"/>
+      <c r="C22" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="42">
         <v>43773</v>
       </c>
-      <c r="E22" s="62">
+      <c r="E22" s="43">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F22" s="62">
+      <c r="F22" s="43">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="44">
         <v>0.39583333333333331</v>
       </c>
-      <c r="H22" s="62">
+      <c r="H22" s="43">
         <v>0.61111111111111105</v>
       </c>
-      <c r="I22" s="62">
+      <c r="I22" s="43">
         <f t="shared" si="0"/>
         <v>0.21527777777777773</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="45">
         <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="302"/>
-      <c r="B23" s="312"/>
-      <c r="C23" s="88" t="s">
+      <c r="A23" s="339"/>
+      <c r="B23" s="348"/>
+      <c r="C23" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="89">
+      <c r="D23" s="70">
         <v>43774</v>
       </c>
-      <c r="E23" s="90">
+      <c r="E23" s="71">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F23" s="90">
+      <c r="F23" s="71">
         <v>0.73611111111111116</v>
       </c>
-      <c r="G23" s="91">
+      <c r="G23" s="72">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H23" s="80">
+      <c r="H23" s="61">
         <f t="shared" si="1"/>
         <v>0.15277777777777779</v>
       </c>
-      <c r="I23" s="80">
+      <c r="I23" s="61">
         <f t="shared" si="0"/>
         <v>1.3888888888888867E-2</v>
       </c>
-      <c r="J23" s="92">
+      <c r="J23" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="322" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="324" t="s">
+      <c r="A24" s="362" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="362" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="109">
+      <c r="D24" s="85">
         <v>43715</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="54">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F24" s="76">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G24" s="73">
+      <c r="G24" s="54">
         <v>0.125</v>
       </c>
-      <c r="H24" s="96">
+      <c r="H24" s="76">
         <f t="shared" si="1"/>
         <v>0.15277777777777779</v>
       </c>
-      <c r="I24" s="73">
+      <c r="I24" s="54">
         <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="J24" s="97">
+      <c r="J24" s="77">
         <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="323"/>
-      <c r="B25" s="325"/>
-      <c r="C25" s="93" t="s">
+      <c r="A25" s="363"/>
+      <c r="B25" s="363"/>
+      <c r="C25" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="110">
+      <c r="D25" s="86">
         <v>43747</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="61">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F25" s="98">
+      <c r="F25" s="78">
         <v>0.68055555555555547</v>
       </c>
-      <c r="G25" s="80">
+      <c r="G25" s="61">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="78">
         <f t="shared" si="1"/>
         <v>0.12499999999999989</v>
       </c>
-      <c r="I25" s="80">
+      <c r="I25" s="61">
         <f t="shared" si="0"/>
         <v>4.1666666666666768E-2</v>
       </c>
-      <c r="J25" s="99">
+      <c r="J25" s="79">
         <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="323"/>
-      <c r="B26" s="325"/>
-      <c r="C26" s="60" t="s">
+      <c r="A26" s="363"/>
+      <c r="B26" s="363"/>
+      <c r="C26" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="111">
+      <c r="D26" s="87">
         <v>43752</v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="43">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F26" s="95">
+      <c r="F26" s="75">
         <v>0.75694444444444453</v>
       </c>
-      <c r="G26" s="62">
+      <c r="G26" s="43">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="H26" s="95">
+      <c r="H26" s="75">
         <f t="shared" si="1"/>
         <v>2.7777777777777901E-2</v>
       </c>
-      <c r="I26" s="62">
+      <c r="I26" s="43">
         <f>IF(H26&lt;=G26,G26-H26,H26-G26)</f>
         <v>1.3888888888889013E-2</v>
       </c>
-      <c r="J26" s="100">
+      <c r="J26" s="80">
         <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="323"/>
-      <c r="B27" s="325"/>
-      <c r="C27" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="98">
+      <c r="A27" s="363"/>
+      <c r="B27" s="363"/>
+      <c r="C27" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="86">
+        <v>43782</v>
+      </c>
+      <c r="E27" s="61">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F27" s="78">
+        <v>0.9375</v>
+      </c>
+      <c r="G27" s="61">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="H27" s="78">
         <f>F27-E27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="80">
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="I27" s="61">
         <f>IF(H27&lt;=G27,G27-H27,H27-G27)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="99"/>
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="J27" s="79">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="323"/>
-      <c r="B28" s="310" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="71" t="s">
+      <c r="A28" s="363"/>
+      <c r="B28" s="349" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="109">
+      <c r="D28" s="85">
         <v>43714</v>
       </c>
-      <c r="E28" s="73">
+      <c r="E28" s="54">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F28" s="96">
+      <c r="F28" s="76">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G28" s="73">
+      <c r="G28" s="54">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H28" s="96">
+      <c r="H28" s="76">
         <f>F28-E28</f>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="I28" s="73">
+      <c r="I28" s="54">
         <f>IF(H28&lt;=G28,G28-H28,H28-G28)</f>
         <v>1.3888888888888815E-2</v>
       </c>
-      <c r="J28" s="97">
+      <c r="J28" s="77">
         <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="323"/>
-      <c r="B29" s="311"/>
-      <c r="C29" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="110">
+      <c r="A29" s="363"/>
+      <c r="B29" s="347"/>
+      <c r="C29" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="86">
         <v>43754</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="61">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F29" s="98">
+      <c r="F29" s="78">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G29" s="80">
+      <c r="G29" s="61">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H29" s="98">
+      <c r="H29" s="78">
         <f>F29-E29</f>
         <v>0.125</v>
       </c>
-      <c r="I29" s="80">
+      <c r="I29" s="61">
         <f>IF(H29&lt;=G29,G29-H29,H29-G29)</f>
         <v>0.11805555555555555</v>
       </c>
-      <c r="J29" s="99">
+      <c r="J29" s="79">
         <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="323"/>
-      <c r="B30" s="311"/>
-      <c r="C30" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="168">
+      <c r="A30" s="364"/>
+      <c r="B30" s="347"/>
+      <c r="C30" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="102">
         <v>43759</v>
       </c>
-      <c r="E30" s="164">
+      <c r="E30" s="101">
         <v>0.8125</v>
       </c>
-      <c r="F30" s="169">
+      <c r="F30" s="103">
         <v>0.81944444444444453</v>
       </c>
-      <c r="G30" s="171">
+      <c r="G30" s="105">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H30" s="170">
+      <c r="H30" s="104">
         <f>F30-E30</f>
         <v>6.9444444444445308E-3</v>
       </c>
-      <c r="I30" s="62">
+      <c r="I30" s="43">
         <f>IF(H30&lt;=G30,G30-H30,H30-G30)</f>
         <v>8.6736173798840355E-17</v>
       </c>
-      <c r="J30" s="60"/>
+      <c r="J30" s="80">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="319" t="s">
+      <c r="A31" s="358" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="320"/>
-      <c r="C31" s="319"/>
-      <c r="D31" s="321"/>
-      <c r="E31" s="321"/>
-      <c r="F31" s="320"/>
+      <c r="B31" s="359"/>
+      <c r="C31" s="360"/>
+      <c r="D31" s="361"/>
+      <c r="E31" s="361"/>
+      <c r="F31" s="359"/>
       <c r="G31" s="2">
         <f>SUM(G2:G30)</f>
-        <v>4.2951388888888902</v>
+        <v>4.4409722222222241</v>
       </c>
       <c r="H31" s="3">
         <f>SUM(H2:H30)</f>
-        <v>6.0381944444444446</v>
+        <v>6.2881944444444438</v>
       </c>
       <c r="I31" s="3">
         <f>SUM(H31-G31)</f>
-        <v>1.7430555555555545</v>
-      </c>
-      <c r="J31" s="1"/>
+        <v>1.8472222222222197</v>
+      </c>
+      <c r="J31" s="248"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="103"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="J32" s="246"/>
     </row>
     <row r="33" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="124" t="s">
+      <c r="A33" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="124" t="s">
+      <c r="D33" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="124" t="s">
+      <c r="E33" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="124" t="s">
+      <c r="F33" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="124" t="s">
+      <c r="G33" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="124" t="s">
+      <c r="H33" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="124" t="s">
+      <c r="I33" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="124" t="s">
+      <c r="J33" s="247" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="324" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="324" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="374">
+      <c r="A34" s="349" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="362" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="135">
         <v>43774</v>
       </c>
-      <c r="E34" s="375">
+      <c r="E34" s="136">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F34" s="375">
+      <c r="F34" s="136">
         <v>0.75</v>
       </c>
-      <c r="G34" s="376">
+      <c r="G34" s="137">
         <v>3.125E-2</v>
       </c>
-      <c r="H34" s="375">
+      <c r="H34" s="153">
         <f>F34-E34</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="I34" s="377">
+      <c r="I34" s="138">
         <f>IF(H34&lt;=G34,G34-H34,H34-G34)</f>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="J34" s="99">
+      <c r="J34" s="79">
         <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="325"/>
-      <c r="B35" s="325"/>
-      <c r="C35" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="380"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="381">
+      <c r="A35" s="347"/>
+      <c r="B35" s="363"/>
+      <c r="C35" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="102">
+        <v>43777</v>
+      </c>
+      <c r="E35" s="103">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F35" s="103">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G35" s="152">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H35" s="154">
+        <v>0.125</v>
+      </c>
+      <c r="I35" s="139">
         <f>IF(H35&lt;=G35,G35-H35,H35-G35)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="100"/>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="J35" s="80">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="325"/>
-      <c r="B36" s="325"/>
-      <c r="C36" s="93" t="s">
+      <c r="A36" s="347"/>
+      <c r="B36" s="363"/>
+      <c r="C36" s="355" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="378"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="377">
+      <c r="D36" s="155">
+        <v>43781</v>
+      </c>
+      <c r="E36" s="156">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F36" s="156">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G36" s="137">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H36" s="157">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="I36" s="138">
         <f>IF(H36&lt;=G36,G36-H36,H36-G36)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="99"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="379"/>
-      <c r="B37" s="379"/>
-      <c r="C37" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="380"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="381">
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="J36" s="79">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="347"/>
+      <c r="B37" s="363"/>
+      <c r="C37" s="355"/>
+      <c r="D37" s="155">
+        <v>43782</v>
+      </c>
+      <c r="E37" s="156">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F37" s="156">
+        <v>0.625</v>
+      </c>
+      <c r="G37" s="137">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H37" s="157">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I37" s="138">
         <f>IF(H37&lt;=G37,G37-H37,H37-G37)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="100"/>
+        <v>1.0416666666666664E-2</v>
+      </c>
+      <c r="J37" s="79">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="319" t="s">
+      <c r="A38" s="357"/>
+      <c r="B38" s="364"/>
+      <c r="C38" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="102">
+        <v>43783</v>
+      </c>
+      <c r="E38" s="103">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F38" s="103">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G38" s="152">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="H38" s="154">
+        <v>0.125</v>
+      </c>
+      <c r="I38" s="139">
+        <f>IF(H38&lt;=G38,G38-H38,H38-G38)</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="J38" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="358" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="320"/>
-      <c r="C38" s="319"/>
-      <c r="D38" s="321"/>
-      <c r="E38" s="321"/>
-      <c r="F38" s="320"/>
-      <c r="G38" s="2">
-        <f>SUM(G34:G37)</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H38" s="3">
-        <f>SUM(H34:H37)</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="I38" s="3">
-        <f>SUM(H38-G38)</f>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="114" t="s">
+      <c r="B39" s="359"/>
+      <c r="C39" s="360"/>
+      <c r="D39" s="361"/>
+      <c r="E39" s="361"/>
+      <c r="F39" s="359"/>
+      <c r="G39" s="2">
+        <f>SUM(G34:G38)</f>
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="H39" s="3">
+        <f>SUM(H34:H38)</f>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I39" s="3">
+        <f>SUM(H39-G39)</f>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="116">
-        <f>G31+G38</f>
-        <v>4.3263888888888902</v>
-      </c>
-      <c r="C41" s="117">
-        <f>H31+H38</f>
-        <v>6.0798611111111116</v>
-      </c>
-      <c r="D41" s="118">
-        <f>I31+I38</f>
-        <v>1.753472222222221</v>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="220">
+        <f>G31+G39</f>
+        <v>4.7673611111111134</v>
+      </c>
+      <c r="B42" s="221">
+        <f>H31+H39</f>
+        <v>6.7673611111111107</v>
+      </c>
+      <c r="C42" s="222">
+        <f>ABS(G31-H31+G39-H39)</f>
+        <v>1.9999999999999976</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B34:B37"/>
+  <mergeCells count="20">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="B34:B38"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C36:C37"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B2:B4"/>
@@ -12404,17 +12678,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE3FFA5-9891-4047-A9F0-49BD30A1A375}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="13" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="4" customWidth="1"/>
@@ -12426,835 +12700,1281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="140" t="s">
+      <c r="A1" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="140" t="s">
+      <c r="E1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="140" t="s">
+      <c r="F1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="140" t="s">
+      <c r="G1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="140" t="s">
+      <c r="I1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="92" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="301" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="326" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="141" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="142">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="376" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="368" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="279" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="286">
         <v>43727</v>
       </c>
-      <c r="E2" s="143">
+      <c r="E2" s="287">
         <v>0.72222222222222221</v>
       </c>
-      <c r="F2" s="143">
+      <c r="F2" s="287">
         <v>0.81944444444444453</v>
       </c>
-      <c r="G2" s="143">
+      <c r="G2" s="287">
         <v>6.25E-2</v>
       </c>
-      <c r="H2" s="143">
-        <f t="shared" ref="H2:H7" si="0">$F2-$E2</f>
+      <c r="H2" s="287">
+        <f>$F2-$E2</f>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="I2" s="143">
+      <c r="I2" s="287">
         <f>IF(H2&lt;=G2,G2-H2,H2-G2)</f>
         <v>3.4722222222222321E-2</v>
       </c>
-      <c r="J2" s="144">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="302"/>
-      <c r="B3" s="326"/>
-      <c r="C3" s="122" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="145">
+      <c r="J2" s="288" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="377"/>
+      <c r="B3" s="368"/>
+      <c r="C3" s="280" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="289">
         <v>43728.486111111109</v>
       </c>
-      <c r="E3" s="146">
+      <c r="E3" s="32">
         <v>0.4861111111111111</v>
       </c>
-      <c r="F3" s="146">
+      <c r="F3" s="32">
         <v>0.51388888888888895</v>
       </c>
-      <c r="G3" s="146">
+      <c r="G3" s="32">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H3" s="146">
-        <f t="shared" si="0"/>
+      <c r="H3" s="32">
+        <f t="shared" ref="H3:H7" si="0">$F3-$E3</f>
         <v>2.7777777777777846E-2</v>
       </c>
-      <c r="I3" s="146">
-        <f t="shared" ref="I3:I16" si="1">IF(H3&lt;=G3,G3-H3,H3-G3)</f>
+      <c r="I3" s="32">
+        <f t="shared" ref="I3:I11" si="1">IF(H3&lt;=G3,G3-H3,H3-G3)</f>
         <v>1.3888888888888819E-2</v>
       </c>
-      <c r="J3" s="147">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="302"/>
-      <c r="B4" s="326"/>
-      <c r="C4" s="178" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="159">
+      <c r="J3" s="238" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="377"/>
+      <c r="B4" s="368"/>
+      <c r="C4" s="281" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="290">
         <v>43728.767361111109</v>
       </c>
-      <c r="E4" s="160">
+      <c r="E4" s="291">
         <v>0.76736111111111116</v>
       </c>
-      <c r="F4" s="160">
+      <c r="F4" s="291">
         <v>0.81944444444444453</v>
       </c>
-      <c r="G4" s="160">
+      <c r="G4" s="291">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H4" s="160">
+      <c r="H4" s="291">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="I4" s="160">
+      <c r="I4" s="291">
         <f t="shared" si="1"/>
         <v>1.0416666666666706E-2</v>
       </c>
-      <c r="J4" s="179">
-        <v>0.1</v>
-      </c>
-      <c r="L4" s="38"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="302"/>
-      <c r="B5" s="326" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="122" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="145">
+      <c r="J4" s="245" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="377"/>
+      <c r="B5" s="365" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="280" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="289">
         <v>43730.618055555555</v>
       </c>
-      <c r="E5" s="146">
+      <c r="E5" s="32">
         <v>0.61805555555555558</v>
       </c>
-      <c r="F5" s="146">
+      <c r="F5" s="32">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G5" s="146">
+      <c r="G5" s="32">
         <v>0.14583333333333334</v>
       </c>
-      <c r="H5" s="146">
+      <c r="H5" s="32">
         <f t="shared" si="0"/>
         <v>0.11111111111111105</v>
       </c>
-      <c r="I5" s="146">
+      <c r="I5" s="32">
         <f t="shared" si="1"/>
         <v>3.4722222222222293E-2</v>
       </c>
-      <c r="J5" s="147">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="302"/>
-      <c r="B6" s="326"/>
-      <c r="C6" s="121" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="148">
+      <c r="J5" s="238" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="377"/>
+      <c r="B6" s="366"/>
+      <c r="C6" s="282" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="292">
         <v>43733.618055555555</v>
       </c>
-      <c r="E6" s="149">
+      <c r="E6" s="293">
         <v>0.61805555555555558</v>
       </c>
-      <c r="F6" s="149">
+      <c r="F6" s="293">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G6" s="149">
+      <c r="G6" s="293">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H6" s="149">
+      <c r="H6" s="293">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="I6" s="149">
+      <c r="I6" s="293">
         <f t="shared" si="1"/>
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="J6" s="150">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="302"/>
-      <c r="B7" s="326"/>
-      <c r="C7" s="174" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="175">
+      <c r="J6" s="237" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="377"/>
+      <c r="B7" s="369"/>
+      <c r="C7" s="283" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="294">
         <v>43740.6875</v>
       </c>
-      <c r="E7" s="176">
+      <c r="E7" s="295">
         <v>0.6875</v>
       </c>
-      <c r="F7" s="176">
+      <c r="F7" s="295">
         <v>0.72222222222222221</v>
       </c>
-      <c r="G7" s="176">
+      <c r="G7" s="295">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H7" s="176">
+      <c r="H7" s="295">
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="I7" s="176">
+      <c r="I7" s="295">
         <f t="shared" si="1"/>
         <v>6.9444444444444545E-3</v>
       </c>
-      <c r="J7" s="177">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="302"/>
-      <c r="B8" s="195" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="196" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="197">
+      <c r="J7" s="243" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="377"/>
+      <c r="B8" s="296" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="284" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="297">
         <v>43764</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="298">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="298">
         <v>0.72222222222222221</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="298">
         <v>0.125</v>
       </c>
-      <c r="H8" s="198">
-        <f>$F8-$E8</f>
+      <c r="H8" s="298">
+        <f t="shared" ref="H8:H13" si="2">$F8-$E8</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="I8" s="198">
+      <c r="I8" s="298">
         <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="J8" s="199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="302"/>
-      <c r="B9" s="318" t="s">
+      <c r="J8" s="299" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="377"/>
+      <c r="B9" s="365" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="194" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="154">
+      <c r="C9" s="168" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="300">
         <v>43764</v>
       </c>
-      <c r="E9" s="155">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="F9" s="155">
+      <c r="E9" s="209">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F9" s="209">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="G9" s="209">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H9" s="209">
+        <f t="shared" si="2"/>
+        <v>3.4722222222222321E-2</v>
+      </c>
+      <c r="I9" s="209">
+        <f t="shared" si="1"/>
+        <v>6.9444444444443434E-3</v>
+      </c>
+      <c r="J9" s="236" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="377"/>
+      <c r="B10" s="366"/>
+      <c r="C10" s="282" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="292">
+        <v>43764</v>
+      </c>
+      <c r="E10" s="293">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="F10" s="293">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="G10" s="293">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H10" s="293">
+        <f t="shared" si="2"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I10" s="293">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444059E-3</v>
+      </c>
+      <c r="J10" s="237" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="377"/>
+      <c r="B11" s="369"/>
+      <c r="C11" s="301" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="294">
+        <v>43765</v>
+      </c>
+      <c r="E11" s="295">
         <v>0.75</v>
       </c>
-      <c r="G9" s="155">
+      <c r="F11" s="295">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="G11" s="295">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H9" s="155">
-        <f>$F9-$E9</f>
-        <v>2.777777777777779E-2</v>
-      </c>
-      <c r="I9" s="155">
+      <c r="H11" s="295">
+        <f t="shared" si="2"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="I11" s="295">
         <f t="shared" si="1"/>
-        <v>1.3888888888888874E-2</v>
-      </c>
-      <c r="J9" s="200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="302"/>
-      <c r="B10" s="332"/>
-      <c r="C10" s="196" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="197">
-        <v>43764</v>
-      </c>
-      <c r="E10" s="198">
-        <v>0.75</v>
-      </c>
-      <c r="F10" s="198">
+        <v>3.4722222222222134E-2</v>
+      </c>
+      <c r="J11" s="243" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="377"/>
+      <c r="B12" s="376" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="282" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="292">
+        <v>43757</v>
+      </c>
+      <c r="E12" s="293">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F12" s="293">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="G12" s="293">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H12" s="293">
+        <f t="shared" si="2"/>
+        <v>0.17361111111111105</v>
+      </c>
+      <c r="I12" s="293">
+        <f>IF(H12&lt;=G12,G12-H12,H12-G12)</f>
+        <v>9.0277777777777721E-2</v>
+      </c>
+      <c r="J12" s="237" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="377"/>
+      <c r="B13" s="377"/>
+      <c r="C13" s="280" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="289">
+        <v>43766</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0.125</v>
+      </c>
+      <c r="H13" s="32">
+        <f t="shared" si="2"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="I13" s="32">
+        <f>IF(H13&lt;=G13,G13-H13,H13-G13)</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="J13" s="238" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="377"/>
+      <c r="B14" s="377"/>
+      <c r="C14" s="216" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="302">
+        <v>43779</v>
+      </c>
+      <c r="E14" s="208">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F14" s="208">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G14" s="208">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H14" s="208">
+        <f>$F14-$E14</f>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="I14" s="208">
+        <f>IF(H14&lt;=G14,G14-H14,H14-G14)</f>
+        <v>2.7777777777777755E-2</v>
+      </c>
+      <c r="J14" s="303" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="377"/>
+      <c r="B15" s="377"/>
+      <c r="C15" s="280" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="289">
+        <v>43781</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="G15" s="32">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H15" s="32">
+        <f>$F15-$E15</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="I15" s="32">
+        <f>IF(H15&lt;=G15,G15-H15,H15-G15)</f>
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="J15" s="238" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="377"/>
+      <c r="B16" s="378"/>
+      <c r="C16" s="304" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="297">
+        <v>43782</v>
+      </c>
+      <c r="E16" s="298">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F16" s="298">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G16" s="298">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="H16" s="298">
+        <f>$F16-$E16</f>
+        <v>0.23611111111111105</v>
+      </c>
+      <c r="I16" s="298">
+        <f>IF(H16&lt;=G16,G16-H16,H16-G16)</f>
+        <v>9.7222222222222154E-2</v>
+      </c>
+      <c r="J16" s="305" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="377"/>
+      <c r="B17" s="365" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="289">
+        <v>43777</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H17" s="306">
+        <f t="shared" ref="H17:H26" si="3">$F17-$E17</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="I17" s="32">
+        <f t="shared" ref="I17:I22" si="4">IF(H17&lt;=G17,G17-H17,H17-G17)</f>
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="J17" s="307" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="377"/>
+      <c r="B18" s="366"/>
+      <c r="C18" s="282" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="292">
+        <v>43778</v>
+      </c>
+      <c r="E18" s="293">
+        <v>0.375</v>
+      </c>
+      <c r="F18" s="293">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="G18" s="293">
+        <v>0.125</v>
+      </c>
+      <c r="H18" s="293">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="I18" s="293">
+        <f t="shared" si="4"/>
+        <v>9.7222222222222265E-2</v>
+      </c>
+      <c r="J18" s="308" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="377"/>
+      <c r="B19" s="366"/>
+      <c r="C19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="289">
+        <v>43786</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F19" s="32">
         <v>0.77777777777777779</v>
       </c>
-      <c r="G10" s="198">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H10" s="198">
-        <f>$F10-$E10</f>
-        <v>2.777777777777779E-2</v>
-      </c>
-      <c r="I10" s="198">
-        <f t="shared" si="1"/>
-        <v>1.3888888888888874E-2</v>
-      </c>
-      <c r="J10" s="199">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="302"/>
-      <c r="B11" s="333" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="205" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="145">
-        <v>43757</v>
-      </c>
-      <c r="E11" s="146">
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="F11" s="146">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="G11" s="206">
+      <c r="G19" s="32">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H11" s="206">
-        <f>$F11-$E11</f>
-        <v>0.17361111111111105</v>
-      </c>
-      <c r="I11" s="206">
-        <f>IF(H11&lt;=G11,G11-H11,H11-G11)</f>
-        <v>9.0277777777777721E-2</v>
-      </c>
-      <c r="J11" s="147">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="302"/>
-      <c r="B12" s="334"/>
-      <c r="C12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="207">
-        <v>43766</v>
-      </c>
-      <c r="E12" s="208">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="F12" s="208">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="G12" s="208">
+      <c r="H19" s="32">
+        <f t="shared" si="3"/>
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="I19" s="32">
+        <f t="shared" si="4"/>
+        <v>4.8611111111111091E-2</v>
+      </c>
+      <c r="J19" s="309" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="377"/>
+      <c r="B20" s="366"/>
+      <c r="C20" s="282" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="292">
+        <v>43787</v>
+      </c>
+      <c r="E20" s="293">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F20" s="293">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G20" s="293">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H20" s="293">
+        <f t="shared" si="3"/>
+        <v>0.24305555555555558</v>
+      </c>
+      <c r="I20" s="293">
+        <f t="shared" si="4"/>
+        <v>3.4722222222222238E-2</v>
+      </c>
+      <c r="J20" s="237" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="377"/>
+      <c r="B21" s="366"/>
+      <c r="C21" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="289">
+        <v>43788</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="G21" s="32">
         <v>0.125</v>
       </c>
-      <c r="H12" s="208">
-        <f>$F12-$E12</f>
-        <v>0.10416666666666663</v>
-      </c>
-      <c r="I12" s="208">
-        <f>IF(H12&lt;=G12,G12-H12,H12-G12)</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="J12" s="209">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="302"/>
-      <c r="B13" s="333"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="213"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="302"/>
-      <c r="B14" s="334"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="210"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="335"/>
-      <c r="B15" s="336"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="210"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="319" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="328"/>
-      <c r="C16" s="327"/>
-      <c r="D16" s="321"/>
-      <c r="E16" s="321"/>
-      <c r="F16" s="320"/>
-      <c r="G16" s="3">
-        <f>SUM(G2:G12)</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="H16" s="151">
-        <f>SUM(H2:H12)</f>
-        <v>0.82986111111111105</v>
-      </c>
-      <c r="I16" s="152">
-        <f t="shared" si="1"/>
-        <v>3.4722222222222099E-3</v>
-      </c>
-      <c r="J16" s="153"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="140" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="140" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="140" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="140" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="124" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="332" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="306" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="186" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="154">
-        <v>43723</v>
-      </c>
-      <c r="E19" s="155">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="F19" s="73">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G19" s="155">
-        <v>6.25E-2</v>
-      </c>
-      <c r="H19" s="155">
-        <f>$F19-$E19</f>
-        <v>6.944444444444442E-2</v>
-      </c>
-      <c r="I19" s="155">
-        <f>IF(H19&lt;=G19,G19-H19,H19-G19)</f>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="J19" s="156">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="332"/>
-      <c r="B20" s="306"/>
-      <c r="C20" s="180" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="148">
-        <v>43724</v>
-      </c>
-      <c r="E20" s="149">
-        <v>0.4375</v>
-      </c>
-      <c r="F20" s="69">
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="G20" s="149">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H20" s="149">
-        <f>$F20-$E20</f>
-        <v>6.944444444444442E-2</v>
-      </c>
-      <c r="I20" s="149">
-        <f t="shared" ref="I20:I28" si="2">IF(H20&lt;=G20,G20-H20,H20-G20)</f>
-        <v>2.7777777777777755E-2</v>
-      </c>
-      <c r="J20" s="157">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="326"/>
-      <c r="B21" s="329"/>
-      <c r="C21" s="181" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="145">
-        <v>43734.756944444445</v>
-      </c>
-      <c r="E21" s="146">
+      <c r="H21" s="32">
+        <f t="shared" si="3"/>
+        <v>7.6388888888888951E-2</v>
+      </c>
+      <c r="I21" s="32">
+        <f t="shared" ref="I21:I23" si="5">IF(H21&lt;=G21,G21-H21,H21-G21)</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="J21" s="309" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="377"/>
+      <c r="B22" s="366"/>
+      <c r="C22" s="282" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="292">
+        <v>43792</v>
+      </c>
+      <c r="E22" s="293">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F22" s="293">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="G22" s="293">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H22" s="293">
+        <f t="shared" si="3"/>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I22" s="293">
+        <f t="shared" si="4"/>
+        <v>0.18749999999999997</v>
+      </c>
+      <c r="J22" s="237" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="377"/>
+      <c r="B23" s="366"/>
+      <c r="C23" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="289">
+        <v>43793</v>
+      </c>
+      <c r="E23" s="32">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G23" s="32">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H23" s="32">
+        <f t="shared" si="3"/>
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="I23" s="32">
+        <f t="shared" si="5"/>
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="J23" s="309" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="377"/>
+      <c r="B24" s="366"/>
+      <c r="C24" s="282" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="292">
+        <v>43793</v>
+      </c>
+      <c r="E24" s="293">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="F24" s="293">
         <v>0.75694444444444453</v>
       </c>
-      <c r="F21" s="62">
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="G21" s="146">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H21" s="146">
-        <f t="shared" ref="H21:H28" si="3">$F21-$E21</f>
-        <v>4.8611111111110938E-2</v>
-      </c>
-      <c r="I21" s="146">
-        <f t="shared" si="2"/>
-        <v>6.9444444444442741E-3</v>
-      </c>
-      <c r="J21" s="158">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="326"/>
-      <c r="B22" s="329"/>
-      <c r="C22" s="180" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="148">
-        <v>43753.777777777781</v>
-      </c>
-      <c r="E22" s="149">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F22" s="69">
-        <v>0.84722222222222221</v>
-      </c>
-      <c r="G22" s="149">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="H22" s="149">
-        <f>$F22-$E22</f>
-        <v>6.944444444444442E-2</v>
-      </c>
-      <c r="I22" s="149">
-        <f>IF(H22&lt;=G22,G22-H22,H22-G22)</f>
-        <v>4.8611111111111091E-2</v>
-      </c>
-      <c r="J22" s="150">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="326"/>
-      <c r="B23" s="329"/>
-      <c r="C23" s="215"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="218"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="217"/>
-      <c r="J23" s="216"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="326"/>
-      <c r="B24" s="329"/>
-      <c r="C24" s="181" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="175">
-        <v>43761</v>
-      </c>
-      <c r="E24" s="176">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F24" s="94">
-        <v>0.90277777777777779</v>
-      </c>
-      <c r="G24" s="176">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H24" s="176">
-        <f>$F24-$E24</f>
-        <v>6.944444444444442E-2</v>
-      </c>
-      <c r="I24" s="176">
-        <f>IF(H24&lt;=G24,G24-H24,H24-G24)</f>
-        <v>2.7777777777777755E-2</v>
-      </c>
-      <c r="J24" s="177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="326"/>
-      <c r="B25" s="330" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="186" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="145">
-        <v>43725.555555555555</v>
-      </c>
-      <c r="E25" s="146">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F25" s="62">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="G25" s="146">
+      <c r="G24" s="293">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H25" s="146">
+      <c r="H24" s="293">
         <f t="shared" si="3"/>
-        <v>7.638888888888884E-2</v>
-      </c>
-      <c r="I25" s="146">
-        <f t="shared" si="2"/>
-        <v>6.9444444444444892E-3</v>
-      </c>
-      <c r="J25" s="147">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="326"/>
-      <c r="B26" s="330"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149">
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="I24" s="293">
+        <f t="shared" ref="I24" si="6">IF(H24&lt;=G24,G24-H24,H24-G24)</f>
+        <v>2.0833333333333412E-2</v>
+      </c>
+      <c r="J24" s="237" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="377"/>
+      <c r="B25" s="369"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="294"/>
+      <c r="E25" s="295"/>
+      <c r="F25" s="295"/>
+      <c r="G25" s="295"/>
+      <c r="H25" s="295">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="149">
-        <f t="shared" si="2"/>
+      <c r="I25" s="295">
+        <f t="shared" ref="I25:I26" si="7">IF(H25&lt;=G25,G25-H25,H25-G25)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="157"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="326"/>
-      <c r="B27" s="330"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146">
+      <c r="J25" s="310" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="377"/>
+      <c r="B26" s="379" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="282" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="292">
+        <v>43798</v>
+      </c>
+      <c r="E26" s="293">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F26" s="293">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="G26" s="293">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H26" s="293">
         <f t="shared" si="3"/>
+        <v>0.26388888888888884</v>
+      </c>
+      <c r="I26" s="293">
+        <f t="shared" si="7"/>
+        <v>5.5555555555555497E-2</v>
+      </c>
+      <c r="J26" s="237" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="377"/>
+      <c r="B27" s="379"/>
+      <c r="C27" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="289">
+        <v>43799</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H27" s="32">
+        <f>$F27-$E27</f>
+        <v>0.43750000000000006</v>
+      </c>
+      <c r="I27" s="32">
+        <f>IF(H27&lt;=G27,G27-H27,H27-G27)</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="J27" s="309" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="377"/>
+      <c r="B28" s="379"/>
+      <c r="C28" s="282" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="292">
+        <v>43799</v>
+      </c>
+      <c r="E28" s="293">
+        <v>43799.979166666664</v>
+      </c>
+      <c r="F28" s="293">
+        <v>43800.076388888891</v>
+      </c>
+      <c r="G28" s="293">
+        <v>0.125</v>
+      </c>
+      <c r="H28" s="293">
+        <f>$F28-$E28</f>
+        <v>9.7222222226264421E-2</v>
+      </c>
+      <c r="I28" s="293">
+        <f t="shared" ref="I28" si="8">IF(H28&lt;=G28,G28-H28,H28-G28)</f>
+        <v>2.7777777773735579E-2</v>
+      </c>
+      <c r="J28" s="237" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="377"/>
+      <c r="B29" s="379"/>
+      <c r="C29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="289">
+        <v>43800</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G29" s="32">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H29" s="32">
+        <f>$F29-$E29</f>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="I29" s="32">
+        <f>IF(H29&lt;=G29,G29-H29,H29-G29)</f>
+        <v>2.0833333333333329E-2</v>
+      </c>
+      <c r="J29" s="309" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="377"/>
+      <c r="B30" s="379"/>
+      <c r="C30" s="282" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="292">
+        <v>43800</v>
+      </c>
+      <c r="E30" s="293">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F30" s="293">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="G30" s="293">
+        <v>0.375</v>
+      </c>
+      <c r="H30" s="293">
+        <f>$F30-$E30</f>
+        <v>0.4722222222222221</v>
+      </c>
+      <c r="I30" s="293">
+        <f>IF(H30&lt;=G30,G30-H30,H30-G30)</f>
+        <v>9.7222222222222099E-2</v>
+      </c>
+      <c r="J30" s="237" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="377"/>
+      <c r="B31" s="380"/>
+      <c r="C31" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="289">
+        <v>43801</v>
+      </c>
+      <c r="E31" s="32">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G31" s="32">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H31" s="32">
+        <f>$F31-$E31</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="I31" s="32">
+        <f>IF(H31&lt;=G31,G31-H31,H31-G31)</f>
+        <v>0.11111111111111113</v>
+      </c>
+      <c r="J31" s="309" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="373" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="371"/>
+      <c r="C32" s="370"/>
+      <c r="D32" s="372"/>
+      <c r="E32" s="372"/>
+      <c r="F32" s="371"/>
+      <c r="G32" s="6">
+        <f>SUM(G2:G31)</f>
+        <v>3.5277777777777777</v>
+      </c>
+      <c r="H32" s="6">
+        <f>SUM(H2:H31)</f>
+        <v>4.000000000004043</v>
+      </c>
+      <c r="I32" s="6">
+        <f>IF(H32&lt;=G32,G32-H32,H32-G32)</f>
+        <v>0.47222222222626531</v>
+      </c>
+      <c r="J32" s="311"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="240"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="158"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="318"/>
-      <c r="B28" s="331"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="185"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="319" t="s">
+      <c r="D34" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="312" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="365" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="374" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="313" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="300">
+        <v>43723</v>
+      </c>
+      <c r="E35" s="209">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G35" s="209">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H35" s="209">
+        <f>$F35-$E35</f>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="I35" s="209">
+        <f>IF(H35&lt;=G35,G35-H35,H35-G35)</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="J35" s="314">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="366"/>
+      <c r="B36" s="374"/>
+      <c r="C36" s="315" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="292">
+        <v>43724</v>
+      </c>
+      <c r="E36" s="293">
+        <v>0.4375</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="G36" s="293">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H36" s="293">
+        <f>$F36-$E36</f>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="I36" s="293">
+        <f t="shared" ref="I36:I41" si="9">IF(H36&lt;=G36,G36-H36,H36-G36)</f>
+        <v>2.7777777777777755E-2</v>
+      </c>
+      <c r="J36" s="316">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="366"/>
+      <c r="B37" s="375"/>
+      <c r="C37" s="317" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="289">
+        <v>43734.756944444445</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="G37" s="32">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H37" s="32">
+        <f t="shared" ref="H37:H41" si="10">$F37-$E37</f>
+        <v>4.8611111111110938E-2</v>
+      </c>
+      <c r="I37" s="32">
+        <f t="shared" si="9"/>
+        <v>6.9444444444442741E-3</v>
+      </c>
+      <c r="J37" s="318">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="366"/>
+      <c r="B38" s="375"/>
+      <c r="C38" s="315" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="292">
+        <v>43753.777777777781</v>
+      </c>
+      <c r="E38" s="293">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="G38" s="293">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H38" s="293">
+        <f>$F38-$E38</f>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="I38" s="293">
+        <f>IF(H38&lt;=G38,G38-H38,H38-G38)</f>
+        <v>4.8611111111111091E-2</v>
+      </c>
+      <c r="J38" s="319">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="366"/>
+      <c r="B39" s="375"/>
+      <c r="C39" s="280" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="289">
+        <v>43761</v>
+      </c>
+      <c r="E39" s="32">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="G39" s="32">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H39" s="32">
+        <f>$F39-$E39</f>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="I39" s="32">
+        <f>IF(H39&lt;=G39,G39-H39,H39-G39)</f>
+        <v>2.7777777777777755E-2</v>
+      </c>
+      <c r="J39" s="318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="366"/>
+      <c r="B40" s="375"/>
+      <c r="C40" s="284" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="297">
+        <v>43776</v>
+      </c>
+      <c r="E40" s="298">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="F40" s="22">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="G40" s="298">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="H40" s="298">
+        <f>$F40-$E40</f>
+        <v>8.680555555555558E-2</v>
+      </c>
+      <c r="I40" s="298">
+        <f>IF(H40&lt;=G40,G40-H40,H40-G40)</f>
+        <v>1.7361111111111147E-2</v>
+      </c>
+      <c r="J40" s="320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="367"/>
+      <c r="B41" s="321" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="317" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="289">
+        <v>43725.555555555555</v>
+      </c>
+      <c r="E41" s="32">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G41" s="32">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H41" s="32">
+        <f t="shared" si="10"/>
+        <v>7.638888888888884E-2</v>
+      </c>
+      <c r="I41" s="32">
+        <f t="shared" si="9"/>
+        <v>6.9444444444444892E-3</v>
+      </c>
+      <c r="J41" s="322">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="370" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="320"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="3">
-        <f>SUM(G19:G28)</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="H29" s="3">
-        <f>SUM(H19:H28)</f>
-        <v>0.40277777777777746</v>
-      </c>
-      <c r="I29" s="2">
-        <f>IF(H29&lt;=G29,G29-H29,H29-G29)</f>
-        <v>0.11111111111111083</v>
-      </c>
-      <c r="J29" s="153"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="114" t="s">
+      <c r="B42" s="371"/>
+      <c r="C42" s="323"/>
+      <c r="D42" s="324"/>
+      <c r="E42" s="324"/>
+      <c r="F42" s="325"/>
+      <c r="G42" s="6">
+        <f>SUM(G35:G41)</f>
+        <v>0.36111111111111105</v>
+      </c>
+      <c r="H42" s="6">
+        <f>SUM(H35:H41)</f>
+        <v>0.48958333333333304</v>
+      </c>
+      <c r="I42" s="6">
+        <f>IF(H42&lt;=G42,G42-H42,H42-G42)</f>
+        <v>0.12847222222222199</v>
+      </c>
+      <c r="J42" s="326"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="327" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="328" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="329" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
-      <c r="B33" s="116">
-        <f>G29+G16</f>
-        <v>1.125</v>
-      </c>
-      <c r="C33" s="117">
-        <f>H29+H16</f>
-        <v>1.2326388888888884</v>
-      </c>
-      <c r="D33" s="118">
-        <f>I29+I16</f>
-        <v>0.11458333333333304</v>
-      </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="330">
+        <f>G42+G32</f>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="B46" s="285">
+        <f>H42+H32</f>
+        <v>4.489583333337376</v>
+      </c>
+      <c r="C46" s="331">
+        <f>ABS(G32-H32+G42-H42)</f>
+        <v>0.6006944444484873</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A35:A41"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B26:B31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -13263,10 +13983,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42714C1D-C593-464A-80BF-C213BA577893}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13285,970 +14005,734 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="129" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="130" t="s">
+      <c r="A1" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="131" t="s">
+      <c r="H1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="130" t="s">
+      <c r="J1" s="97" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="347" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="351" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="376" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="376" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>43726</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>0.8125</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <f>$F2-$E2</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <f>IF($H2&lt;=$G2,$G2-$H2,$H2-$G2)</f>
         <v>4.163336342344337E-17</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="199">
         <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="348"/>
-      <c r="B3" s="352"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="377"/>
+      <c r="B3" s="377"/>
+      <c r="C3" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>43727</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="174">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="174">
         <v>3.125E-2</v>
       </c>
-      <c r="H3" s="15">
-        <f t="shared" ref="H3:H12" si="0">$F3-$E3</f>
+      <c r="H3" s="13">
+        <f>$F3-$E3</f>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="I3" s="15">
-        <f t="shared" ref="I3:I13" si="1">IF($H3&lt;=$G3,$G3-$H3,$H3-$G3)</f>
+      <c r="I3" s="174">
+        <f t="shared" ref="I3:I11" si="0">IF($H3&lt;=$G3,$G3-$H3,$H3-$G3)</f>
         <v>1.736111111111116E-2</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="200">
         <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="348"/>
-      <c r="B4" s="353"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="377"/>
+      <c r="B4" s="378"/>
+      <c r="C4" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="176">
         <v>43730</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="173">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="16">
         <v>0.56944444444444442</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="173">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="16">
+        <f t="shared" ref="H4:H10" si="1">$F4-$E4</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="I4" s="173">
         <f t="shared" si="0"/>
-        <v>4.8611111111111049E-2</v>
-      </c>
-      <c r="I4" s="19">
+        <v>6.9444444444443851E-3</v>
+      </c>
+      <c r="J4" s="201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="377"/>
+      <c r="B5" s="365" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="171" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="253">
+        <v>43725</v>
+      </c>
+      <c r="E5" s="254">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="F5" s="255">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="G5" s="256">
+        <v>0.125</v>
+      </c>
+      <c r="H5" s="18">
         <f t="shared" si="1"/>
-        <v>6.9444444444443851E-3</v>
-      </c>
-      <c r="J4" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="348"/>
-      <c r="B5" s="349" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="106">
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="I5" s="256">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222321E-2</v>
+      </c>
+      <c r="J5" s="257">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="377"/>
+      <c r="B6" s="366"/>
+      <c r="C6" s="172" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="176">
         <v>43725</v>
       </c>
-      <c r="E5" s="107">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F5" s="107">
+      <c r="E6" s="173">
+        <v>43725.958333333336</v>
+      </c>
+      <c r="F6" s="16">
+        <v>43726.083333333336</v>
+      </c>
+      <c r="G6" s="173">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="I6" s="173">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="J6" s="201">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="377"/>
+      <c r="B7" s="381"/>
+      <c r="C7" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12">
+        <v>43731</v>
+      </c>
+      <c r="E7" s="174">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F7" s="13">
         <v>0.82638888888888884</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G7" s="174">
         <v>0.125</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.27083333333333326</v>
+      </c>
+      <c r="I7" s="174">
         <f t="shared" si="0"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="I5" s="23">
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="J7" s="200">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="377"/>
+      <c r="B8" s="381"/>
+      <c r="C8" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="20">
+        <v>43367</v>
+      </c>
+      <c r="E8" s="175">
+        <v>9.375E-2</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.17291666666666669</v>
+      </c>
+      <c r="G8" s="175">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H8" s="16">
         <f t="shared" si="1"/>
-        <v>3.4722222222222321E-2</v>
-      </c>
-      <c r="J5" s="40">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="348"/>
-      <c r="B6" s="350"/>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="42">
-        <v>43725</v>
-      </c>
-      <c r="E6" s="104">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F6" s="104">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G6" s="24">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="H6" s="21">
-        <v>0.125</v>
-      </c>
-      <c r="I6" s="21">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333343E-2</v>
-      </c>
-      <c r="J6" s="191">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="348"/>
-      <c r="B7" s="354"/>
-      <c r="C7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="188">
-        <v>43731</v>
-      </c>
-      <c r="E7" s="187">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F7" s="187">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0.125</v>
-      </c>
-      <c r="H7" s="15">
-        <f t="shared" si="0"/>
-        <v>0.27083333333333326</v>
-      </c>
-      <c r="I7" s="15">
-        <f t="shared" si="1"/>
-        <v>0.14583333333333326</v>
-      </c>
-      <c r="J7" s="192">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="348"/>
-      <c r="B8" s="354"/>
-      <c r="C8" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="190">
-        <v>43367</v>
-      </c>
-      <c r="E8" s="30">
-        <v>9.375E-2</v>
-      </c>
-      <c r="F8" s="30">
-        <v>0.17291666666666669</v>
-      </c>
-      <c r="G8" s="30">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H8" s="30">
-        <f>$F8-$E8</f>
         <v>7.9166666666666691E-2</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="175">
         <f>IF($H8&lt;=$G8,$G8-$H8,$H8-$G8)</f>
         <v>4.166666666666638E-3</v>
       </c>
-      <c r="J8" s="193">
+      <c r="J8" s="202">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="348"/>
-      <c r="B9" s="355"/>
-      <c r="C9" s="189" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="148">
+      <c r="A9" s="377"/>
+      <c r="B9" s="382"/>
+      <c r="C9" s="177" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="178">
         <v>43757</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="179">
         <v>0.52777777777777779</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="24">
         <v>0.68055555555555547</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="179">
         <v>0.125</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="24">
         <f>$F9-$E9</f>
         <v>0.15277777777777768</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="179">
         <f>IF($H9&lt;=$G9,$G9-$H9,$H9-$G9)</f>
         <v>2.7777777777777679E-2</v>
       </c>
-      <c r="J9" s="193">
+      <c r="J9" s="203">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="349" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="356" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="13" t="s">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="168" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="167" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="20">
         <v>43732</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="175">
         <v>0.625</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="21">
         <v>1.0625</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="175">
         <v>0.22916666666666666</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="21">
+        <f t="shared" si="1"/>
+        <v>0.4375</v>
+      </c>
+      <c r="I10" s="175">
         <f t="shared" si="0"/>
-        <v>0.4375</v>
-      </c>
-      <c r="I10" s="15">
-        <f t="shared" si="1"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="J10" s="192"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="350"/>
-      <c r="B11" s="357"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="26">
+      <c r="J10" s="202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="258" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="166"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="7">
+        <f>SUM(G2:G10)</f>
+        <v>1.0520833333333335</v>
+      </c>
+      <c r="H11" s="6">
+        <f>SUM(H2:H10)</f>
+        <v>1.3361111111111108</v>
+      </c>
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
+        <v>0.28402777777777732</v>
+      </c>
+      <c r="J11" s="166"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="127" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="26">
-        <f t="shared" si="1"/>
+      <c r="D14" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="183" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="183" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="388" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="383" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="118">
+        <v>43755</v>
+      </c>
+      <c r="E15" s="204">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="G15" s="192">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H15" s="180">
+        <f t="shared" ref="H15:H24" si="2">$F15-$E15</f>
+        <v>2.3611111111111027E-2</v>
+      </c>
+      <c r="I15" s="192">
+        <v>1.8055555555555637E-2</v>
+      </c>
+      <c r="J15" s="124">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="389"/>
+      <c r="B16" s="384"/>
+      <c r="C16" s="386" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="119">
+        <v>43755</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G16" s="113">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H16" s="193">
+        <f t="shared" si="2"/>
+        <v>7.5000000000000067E-2</v>
+      </c>
+      <c r="I16" s="193">
+        <v>3.3333333333333402E-2</v>
+      </c>
+      <c r="J16" s="120">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="389"/>
+      <c r="B17" s="385"/>
+      <c r="C17" s="387"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="158">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="43"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="350"/>
-      <c r="B12" s="357"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="15">
-        <f t="shared" si="0"/>
+      <c r="I17" s="196">
         <v>0</v>
       </c>
-      <c r="I12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="J17" s="188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="389"/>
+      <c r="B18" s="390" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="186" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="225">
+        <v>44121</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F18" s="230">
+        <v>0.75</v>
+      </c>
+      <c r="G18" s="192">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H18" s="180">
+        <f t="shared" si="2"/>
+        <v>0.11111111111111105</v>
+      </c>
+      <c r="I18" s="192">
+        <v>2.7777777777777721E-2</v>
+      </c>
+      <c r="J18" s="124">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="389"/>
+      <c r="B19" s="391"/>
+      <c r="C19" s="224" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="226">
+        <v>43761</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F19" s="231">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G19" s="194">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H19" s="195">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I19" s="194">
+        <v>2.0833333333333329E-2</v>
+      </c>
+      <c r="J19" s="188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="389"/>
+      <c r="B20" s="383" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="182" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="227">
+        <v>43761</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="F20" s="232">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G20" s="185">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H20" s="112">
+        <f t="shared" si="2"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I20" s="185">
+        <v>2.0833333333333294E-2</v>
+      </c>
+      <c r="J20" s="125">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="389"/>
+      <c r="B21" s="385"/>
+      <c r="C21" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="228">
+        <v>43752</v>
+      </c>
+      <c r="E21" s="123">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F21" s="128">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="G21" s="196">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H21" s="158">
+        <f t="shared" si="2"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="I21" s="196">
+        <v>1.3888888888888916E-2</v>
+      </c>
+      <c r="J21" s="187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="389"/>
+      <c r="B22" s="163" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="229">
+        <v>43774</v>
+      </c>
+      <c r="E22" s="117">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="F22" s="233">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G22" s="197">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H22" s="198">
+        <f t="shared" si="2"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I22" s="197">
+        <v>6.9444444444444926E-3</v>
+      </c>
+      <c r="J22" s="190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="389"/>
+      <c r="B23" s="383" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="114">
+        <v>43756</v>
+      </c>
+      <c r="E23" s="184">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="F23" s="115">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="G23" s="191">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H23" s="115">
+        <f t="shared" si="2"/>
+        <v>5.7638888888888906E-2</v>
+      </c>
+      <c r="I23" s="191">
+        <f>IF($H23&lt;=$G23,$G23-$H23,$H23-$G23)</f>
+        <v>2.5694444444444423E-2</v>
+      </c>
+      <c r="J23" s="234">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="389"/>
+      <c r="B24" s="384"/>
+      <c r="C24" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="151">
+        <v>43773</v>
+      </c>
+      <c r="E24" s="185">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="F24" s="112">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G24" s="185">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H24" s="112">
+        <f t="shared" si="2"/>
+        <v>4.5138888888888951E-2</v>
+      </c>
+      <c r="I24" s="185">
+        <f>IF($H24&lt;=$G24,$G24-$H24,$H24-$G24)</f>
+        <v>2.4305555555555618E-2</v>
+      </c>
+      <c r="J24" s="235">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="8">
-        <f>SUM(G2:G12)</f>
-        <v>1.0520833333333335</v>
-      </c>
-      <c r="H13" s="7">
-        <f>SUM(H2:H12)</f>
-        <v>1.3361111111111108</v>
-      </c>
-      <c r="I13" s="9">
-        <f t="shared" si="1"/>
-        <v>0.28402777777777732</v>
-      </c>
-      <c r="J13" s="46"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="48"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="132" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="133" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="134" t="s">
+      <c r="B25" s="160"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="2">
+        <f>SUM(G15:G24)</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H25" s="3">
+        <f>SUM(H15:H24)</f>
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="I25" s="249">
+        <f>IF(H25&lt;=G25,G25-H25,H25-G25)</f>
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="J25" s="116"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="48"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="116">
-        <f>G13</f>
-        <v>1.0520833333333335</v>
-      </c>
-      <c r="B17" s="117">
-        <f>H13</f>
-        <v>1.3361111111111108</v>
-      </c>
-      <c r="C17" s="118">
-        <f>I13</f>
-        <v>0.28402777777777732</v>
-      </c>
-      <c r="E17" s="48"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="48"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E19" s="48"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E20" s="48"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E21" s="48"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="48"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="48"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="333" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="211">
-        <v>43756</v>
-      </c>
-      <c r="D24" s="212">
-        <v>0.61249999999999993</v>
-      </c>
-      <c r="E24" s="212">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="F24" s="212">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G24" s="212">
-        <v>5.7638888888888885E-2</v>
-      </c>
-      <c r="H24" s="212">
-        <v>2.5694444444444447E-2</v>
-      </c>
-      <c r="I24" s="213">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="334"/>
-      <c r="B25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="207">
-        <v>43773</v>
-      </c>
-      <c r="D25" s="208">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="E25" s="208">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F25" s="208">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G25" s="208">
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="H25" s="212">
-        <v>2.4305555555555556E-2</v>
-      </c>
-      <c r="I25" s="210">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="336"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="207"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208">
-        <v>0</v>
-      </c>
-      <c r="H26" s="208">
-        <v>0</v>
-      </c>
-      <c r="I26" s="210"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="48"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="278" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="279" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="225" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="225" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="225" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="225" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="225" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="225" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="225" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="337" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="333" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="224" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="232">
-        <v>43755</v>
-      </c>
-      <c r="E29" s="289">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F29" s="289">
-        <v>0.8569444444444444</v>
-      </c>
-      <c r="G29" s="237">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H29" s="227">
-        <v>2.3611111111111027E-2</v>
-      </c>
-      <c r="I29" s="227">
-        <v>1.8055555555555637E-2</v>
-      </c>
-      <c r="J29" s="245">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="338"/>
-      <c r="B30" s="334"/>
-      <c r="C30" s="280" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="243">
-        <v>43755</v>
-      </c>
-      <c r="E30" s="290">
-        <v>0.7583333333333333</v>
-      </c>
-      <c r="F30" s="290">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G30" s="236">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H30" s="227">
-        <v>7.5000000000000067E-2</v>
-      </c>
-      <c r="I30" s="227">
-        <v>3.3333333333333402E-2</v>
-      </c>
-      <c r="J30" s="246">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="338"/>
-      <c r="B31" s="336"/>
-      <c r="C31" s="220"/>
-      <c r="D31" s="234"/>
-      <c r="E31" s="293"/>
-      <c r="F31" s="293"/>
-      <c r="G31" s="238"/>
-      <c r="H31" s="227">
-        <v>0</v>
-      </c>
-      <c r="I31" s="227">
-        <v>0</v>
-      </c>
-      <c r="J31" s="247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="338"/>
-      <c r="B32" s="343" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="294" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="295">
-        <v>44121</v>
-      </c>
-      <c r="E32" s="296">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="F32" s="296">
-        <v>0.75</v>
-      </c>
-      <c r="G32" s="236">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H32" s="227">
-        <v>0.11111111111111105</v>
-      </c>
-      <c r="I32" s="227">
-        <v>2.7777777777777721E-2</v>
-      </c>
-      <c r="J32" s="246">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="338"/>
-      <c r="B33" s="345"/>
-      <c r="C33" s="281" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="288">
-        <v>43761</v>
-      </c>
-      <c r="E33" s="291">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F33" s="292">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G33" s="235">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H33" s="230">
-        <v>6.25E-2</v>
-      </c>
-      <c r="I33" s="227">
-        <v>2.0833333333333329E-2</v>
-      </c>
-      <c r="J33" s="249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="338"/>
-      <c r="B34" s="340" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="299" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="232">
-        <v>43761</v>
-      </c>
-      <c r="E34" s="289">
-        <v>0.6875</v>
-      </c>
-      <c r="F34" s="253">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G34" s="258">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H34" s="257">
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="I34" s="257">
-        <v>2.0833333333333294E-2</v>
-      </c>
-      <c r="J34" s="259">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="338"/>
-      <c r="B35" s="341"/>
-      <c r="C35" s="297" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="233">
-        <v>43752</v>
-      </c>
-      <c r="E35" s="228">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="F35" s="283">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="G35" s="236">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H35" s="257">
-        <v>5.555555555555558E-2</v>
-      </c>
-      <c r="I35" s="257">
-        <v>1.3888888888888916E-2</v>
-      </c>
-      <c r="J35" s="246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="338"/>
-      <c r="B36" s="342"/>
-      <c r="C36" s="298"/>
-      <c r="D36" s="261"/>
-      <c r="E36" s="262"/>
-      <c r="F36" s="284"/>
-      <c r="G36" s="263"/>
-      <c r="H36" s="257">
-        <v>0</v>
-      </c>
-      <c r="I36" s="257">
-        <v>0</v>
-      </c>
-      <c r="J36" s="264"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="338"/>
-      <c r="B37" s="343" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="222" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="300">
-        <v>43774</v>
-      </c>
-      <c r="E37" s="229">
-        <v>0.25694444444444448</v>
-      </c>
-      <c r="F37" s="285">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="G37" s="239">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="H37" s="257">
-        <v>1.388888888888884E-2</v>
-      </c>
-      <c r="I37" s="257">
-        <v>6.9444444444444926E-3</v>
-      </c>
-      <c r="J37" s="248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="338"/>
-      <c r="B38" s="344"/>
-      <c r="C38" s="255"/>
-      <c r="D38" s="255"/>
-      <c r="E38" s="242"/>
-      <c r="F38" s="286"/>
-      <c r="G38" s="244"/>
-      <c r="H38" s="257">
-        <v>0</v>
-      </c>
-      <c r="I38" s="257">
-        <v>0</v>
-      </c>
-      <c r="J38" s="250"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="338"/>
-      <c r="B39" s="345"/>
-      <c r="C39" s="223"/>
-      <c r="D39" s="223"/>
-      <c r="E39" s="231"/>
-      <c r="F39" s="287"/>
-      <c r="G39" s="240"/>
-      <c r="H39" s="257">
-        <v>0</v>
-      </c>
-      <c r="I39" s="257">
-        <v>0</v>
-      </c>
-      <c r="J39" s="251"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="338"/>
-      <c r="B40" s="340"/>
-      <c r="C40" s="256"/>
-      <c r="D40" s="256"/>
-      <c r="E40" s="257"/>
-      <c r="F40" s="282"/>
-      <c r="G40" s="258"/>
-      <c r="H40" s="257">
-        <v>0</v>
-      </c>
-      <c r="I40" s="257">
-        <v>0</v>
-      </c>
-      <c r="J40" s="259"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="338"/>
-      <c r="B41" s="341"/>
-      <c r="C41" s="221"/>
-      <c r="D41" s="221"/>
-      <c r="E41" s="228"/>
-      <c r="F41" s="283"/>
-      <c r="G41" s="236"/>
-      <c r="H41" s="257">
-        <v>0</v>
-      </c>
-      <c r="I41" s="257">
-        <v>0</v>
-      </c>
-      <c r="J41" s="246"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="338"/>
-      <c r="B42" s="342"/>
-      <c r="C42" s="260"/>
-      <c r="D42" s="260"/>
-      <c r="E42" s="262"/>
-      <c r="F42" s="284"/>
-      <c r="G42" s="263"/>
-      <c r="H42" s="257">
-        <v>0</v>
-      </c>
-      <c r="I42" s="257">
-        <v>0</v>
-      </c>
-      <c r="J42" s="264"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="338"/>
-      <c r="B43" s="343"/>
-      <c r="C43" s="267"/>
-      <c r="D43" s="241"/>
-      <c r="E43" s="266"/>
-      <c r="F43" s="229"/>
-      <c r="G43" s="266"/>
-      <c r="H43" s="257">
-        <v>0</v>
-      </c>
-      <c r="I43" s="257">
-        <v>0</v>
-      </c>
-      <c r="J43" s="270"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="338"/>
-      <c r="B44" s="344"/>
-      <c r="C44" s="268"/>
-      <c r="D44" s="252"/>
-      <c r="E44" s="269"/>
-      <c r="F44" s="242"/>
-      <c r="G44" s="269"/>
-      <c r="H44" s="257">
-        <v>0</v>
-      </c>
-      <c r="I44" s="257">
-        <v>0</v>
-      </c>
-      <c r="J44" s="271"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="338"/>
-      <c r="B45" s="344"/>
-      <c r="C45" s="265"/>
-      <c r="D45" s="233"/>
-      <c r="E45" s="266"/>
-      <c r="F45" s="228"/>
-      <c r="G45" s="266"/>
-      <c r="H45" s="257">
-        <v>0</v>
-      </c>
-      <c r="I45" s="257">
-        <v>0</v>
-      </c>
-      <c r="J45" s="272"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="338"/>
-      <c r="B46" s="344"/>
-      <c r="C46" s="268"/>
-      <c r="D46" s="255"/>
-      <c r="E46" s="269"/>
-      <c r="F46" s="242"/>
-      <c r="G46" s="269"/>
-      <c r="H46" s="257">
-        <v>0</v>
-      </c>
-      <c r="I46" s="257">
-        <v>0</v>
-      </c>
-      <c r="J46" s="271"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="339"/>
-      <c r="B47" s="346"/>
-      <c r="C47" s="265"/>
-      <c r="D47" s="221"/>
-      <c r="E47" s="266"/>
-      <c r="F47" s="228"/>
-      <c r="G47" s="266"/>
-      <c r="H47" s="257">
-        <v>0</v>
-      </c>
-      <c r="I47" s="257">
-        <v>0</v>
-      </c>
-      <c r="J47" s="272"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="275" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="276"/>
-      <c r="C48" s="275"/>
-      <c r="D48" s="277"/>
-      <c r="E48" s="277"/>
-      <c r="F48" s="276"/>
-      <c r="G48" s="274">
-        <f>SUM(G29:G47)</f>
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="H48" s="273">
-        <f>SUM(H29:H47)</f>
-        <v>0.36249999999999993</v>
-      </c>
-      <c r="I48" s="254">
-        <f>IF($H13&lt;=$G13,$G13-$H13,$H13-$G13)</f>
-        <v>0.28402777777777732</v>
-      </c>
-      <c r="J48" s="226"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="220">
+        <f>G11+G25</f>
+        <v>1.5104166666666667</v>
+      </c>
+      <c r="B30" s="221">
+        <f>H11+H25</f>
+        <v>1.8013888888888885</v>
+      </c>
+      <c r="C30" s="222">
+        <f>ABS(G11-H11+G25-H25)</f>
+        <v>0.2909722222222218</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="9">
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A29:A47"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -14257,16 +14741,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4C5F66-E89D-4EAB-B57A-C68CB0901AD5}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="4" customWidth="1"/>
@@ -14279,657 +14763,1246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="126" t="s">
+      <c r="A1" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="398" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="395" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="272" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="206" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G2" s="209">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H2" s="210">
+        <f t="shared" ref="H2:H3" si="0">$F2-$E2</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="I2" s="18">
+        <f t="shared" ref="I2:I3" si="1">IF($H2&lt;=$G2,$G2-$H2,$H2-G2)</f>
+        <v>4.1666666666666595E-2</v>
+      </c>
+      <c r="J2" s="236">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="399"/>
+      <c r="B3" s="396"/>
+      <c r="C3" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="G3" s="16">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H3" s="19">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I3" s="21">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333336E-2</v>
+      </c>
+      <c r="J3" s="237">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="399"/>
+      <c r="B4" s="396"/>
+      <c r="C4" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="G4" s="32">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H4" s="33">
+        <f t="shared" ref="H4:H6" si="2">$F4-$E4</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" ref="I4:I6" si="3">IF($H4&lt;=$G4,$G4-$H4,$H4-G4)</f>
+        <v>6.9444444444443712E-3</v>
+      </c>
+      <c r="J4" s="238">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="399"/>
+      <c r="B5" s="396"/>
+      <c r="C5" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H5" s="19">
+        <f t="shared" si="2"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="3"/>
+        <v>6.9444444444444579E-3</v>
+      </c>
+      <c r="J5" s="237">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="399"/>
+      <c r="B6" s="396"/>
+      <c r="C6" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="G6" s="32">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H6" s="33">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="3"/>
+        <v>2.4286128663675299E-17</v>
+      </c>
+      <c r="J6" s="238">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="399"/>
+      <c r="B7" s="396"/>
+      <c r="C7" s="266" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="267" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="268">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F7" s="268">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G7" s="268"/>
+      <c r="H7" s="269">
+        <f t="shared" ref="H7:H30" si="4">$F7-$E7</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I7" s="270">
+        <f t="shared" ref="I7:I30" si="5">IF($H7&lt;=$G7,$G7-$H7,$H7-G7)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J7" s="271"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="399"/>
+      <c r="B8" s="396"/>
+      <c r="C8" s="260" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="261" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="262">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F8" s="262">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="G8" s="263"/>
+      <c r="H8" s="264">
+        <f t="shared" si="4"/>
+        <v>3.4722222222222099E-2</v>
+      </c>
+      <c r="I8" s="262">
+        <f t="shared" si="5"/>
+        <v>3.4722222222222099E-2</v>
+      </c>
+      <c r="J8" s="265"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="399"/>
+      <c r="B9" s="396"/>
+      <c r="C9" s="266" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="267" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="268">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F9" s="268">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="G9" s="268"/>
+      <c r="H9" s="269">
+        <f t="shared" si="4"/>
+        <v>0.15972222222222221</v>
+      </c>
+      <c r="I9" s="270">
+        <f t="shared" si="5"/>
+        <v>0.15972222222222221</v>
+      </c>
+      <c r="J9" s="271"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="399"/>
+      <c r="B10" s="396"/>
+      <c r="C10" s="260" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="261" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="262">
+        <v>0.8125</v>
+      </c>
+      <c r="F10" s="262">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G10" s="263"/>
+      <c r="H10" s="264">
+        <f t="shared" si="4"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I10" s="262">
+        <f t="shared" si="5"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="J10" s="265"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="399"/>
+      <c r="B11" s="396"/>
+      <c r="C11" s="266" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="267" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="268">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="F11" s="268">
+        <v>0.8125</v>
+      </c>
+      <c r="G11" s="268"/>
+      <c r="H11" s="269">
+        <f t="shared" si="4"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="I11" s="270">
+        <f t="shared" si="5"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="J11" s="271"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="399"/>
+      <c r="B12" s="396"/>
+      <c r="C12" s="260" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="261" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="262">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="262">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="G12" s="263"/>
+      <c r="H12" s="264">
+        <f t="shared" si="4"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I12" s="262">
+        <f t="shared" si="5"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="J12" s="265"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="399"/>
+      <c r="B13" s="396"/>
+      <c r="C13" s="266" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="267" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="268">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F13" s="268">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="G13" s="268"/>
+      <c r="H13" s="269">
+        <f t="shared" si="4"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I13" s="270">
+        <f t="shared" si="5"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="J13" s="271"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="399"/>
+      <c r="B14" s="396"/>
+      <c r="C14" s="260" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="261" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="262">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="F14" s="262">
+        <v>0.6875</v>
+      </c>
+      <c r="G14" s="263"/>
+      <c r="H14" s="264">
+        <f t="shared" si="4"/>
+        <v>5.902777777777779E-2</v>
+      </c>
+      <c r="I14" s="262">
+        <f t="shared" si="5"/>
+        <v>5.902777777777779E-2</v>
+      </c>
+      <c r="J14" s="265"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="399"/>
+      <c r="B15" s="397"/>
+      <c r="C15" s="266" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="267" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="268">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F15" s="268">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="G15" s="268"/>
+      <c r="H15" s="269">
+        <f t="shared" si="4"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="I15" s="270">
+        <f t="shared" si="5"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="J15" s="271"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="399"/>
+      <c r="B16" s="401" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="273" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="274" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="275">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F16" s="275">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G16" s="276"/>
+      <c r="H16" s="277">
+        <f t="shared" si="4"/>
+        <v>0.17013888888888884</v>
+      </c>
+      <c r="I16" s="275">
+        <f t="shared" si="5"/>
+        <v>0.17013888888888884</v>
+      </c>
+      <c r="J16" s="278"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="399"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="266" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="267" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="268">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F17" s="268">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="G17" s="268"/>
+      <c r="H17" s="269">
+        <f t="shared" si="4"/>
+        <v>7.9861111111111049E-2</v>
+      </c>
+      <c r="I17" s="270">
+        <f t="shared" si="5"/>
+        <v>7.9861111111111049E-2</v>
+      </c>
+      <c r="J17" s="271"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="399"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="260" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="261" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="262">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F18" s="262">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="G18" s="263"/>
+      <c r="H18" s="264">
+        <f t="shared" si="4"/>
+        <v>9.027777777777779E-2</v>
+      </c>
+      <c r="I18" s="262">
+        <f t="shared" si="5"/>
+        <v>9.027777777777779E-2</v>
+      </c>
+      <c r="J18" s="265"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="399"/>
+      <c r="B19" s="402"/>
+      <c r="C19" s="266" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="267" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="268">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="F19" s="268">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="G19" s="268"/>
+      <c r="H19" s="269">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888951E-2</v>
+      </c>
+      <c r="I19" s="270">
+        <f t="shared" si="5"/>
+        <v>4.5138888888888951E-2</v>
+      </c>
+      <c r="J19" s="271"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="399"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="260" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="261" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="262">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="F20" s="262">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G20" s="263"/>
+      <c r="H20" s="264">
+        <f t="shared" si="4"/>
+        <v>7.986111111111116E-2</v>
+      </c>
+      <c r="I20" s="262">
+        <f t="shared" si="5"/>
+        <v>7.986111111111116E-2</v>
+      </c>
+      <c r="J20" s="265"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="399"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="266" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="267" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="268">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F21" s="268">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="G21" s="268"/>
+      <c r="H21" s="269">
+        <f t="shared" si="4"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="I21" s="270">
+        <f t="shared" si="5"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="J21" s="271"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="399"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="260" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="261" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="262">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F22" s="262">
+        <v>0.75</v>
+      </c>
+      <c r="G22" s="263"/>
+      <c r="H22" s="264">
+        <f t="shared" si="4"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I22" s="262">
+        <f t="shared" si="5"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="J22" s="265"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="399"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="266" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="267" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="268">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F23" s="268">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="G23" s="268"/>
+      <c r="H23" s="269">
+        <f t="shared" si="4"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="I23" s="270">
+        <f t="shared" si="5"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="J23" s="271"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="399"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="260" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="261" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="262">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="F24" s="262">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G24" s="263"/>
+      <c r="H24" s="264">
+        <f t="shared" si="4"/>
+        <v>5.9027777777777901E-2</v>
+      </c>
+      <c r="I24" s="262">
+        <f t="shared" si="5"/>
+        <v>5.9027777777777901E-2</v>
+      </c>
+      <c r="J24" s="265"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="399"/>
+      <c r="B25" s="402"/>
+      <c r="C25" s="266" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="267" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="268">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F25" s="268">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="G25" s="268"/>
+      <c r="H25" s="269">
+        <f t="shared" si="4"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I25" s="270">
+        <f t="shared" si="5"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="J25" s="271"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="399"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="260" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="261" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="262">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F26" s="262">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="G26" s="263"/>
+      <c r="H26" s="264">
+        <f t="shared" si="4"/>
+        <v>2.4305555555555469E-2</v>
+      </c>
+      <c r="I26" s="262">
+        <f t="shared" si="5"/>
+        <v>2.4305555555555469E-2</v>
+      </c>
+      <c r="J26" s="265"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="399"/>
+      <c r="B27" s="402"/>
+      <c r="C27" s="266"/>
+      <c r="D27" s="267"/>
+      <c r="E27" s="268"/>
+      <c r="F27" s="268"/>
+      <c r="G27" s="268"/>
+      <c r="H27" s="269">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="270">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="271"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="399"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="260"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="262"/>
+      <c r="F28" s="262"/>
+      <c r="G28" s="263"/>
+      <c r="H28" s="264">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="262">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="265"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="399"/>
+      <c r="B29" s="402"/>
+      <c r="C29" s="266"/>
+      <c r="D29" s="267"/>
+      <c r="E29" s="268"/>
+      <c r="F29" s="268"/>
+      <c r="G29" s="268"/>
+      <c r="H29" s="269">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="270">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="271"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="400"/>
+      <c r="B30" s="403"/>
+      <c r="C30" s="260"/>
+      <c r="D30" s="261"/>
+      <c r="E30" s="262"/>
+      <c r="F30" s="262"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="264">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="262">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="265"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="373" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="394"/>
+      <c r="C31" s="370"/>
+      <c r="D31" s="372"/>
+      <c r="E31" s="372"/>
+      <c r="F31" s="371"/>
+      <c r="G31" s="7">
+        <f>SUM(G2:G6)</f>
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="H31" s="6">
+        <f>SUM(H2:H30)</f>
+        <v>1.489583333333333</v>
+      </c>
+      <c r="I31" s="6">
+        <f>ABS(G31-H31)</f>
+        <v>1.364583333333333</v>
+      </c>
+      <c r="J31" s="239"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="240"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="392" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="392" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="G34" s="209">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H34" s="210">
+        <f t="shared" ref="H34:H44" si="6">$F34-$E34</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I34" s="18">
+        <f t="shared" ref="I34:I44" si="7">IF($H34&lt;=$G34,$G34-$H34,$H34-G34)</f>
+        <v>2.0833333333333336E-2</v>
+      </c>
+      <c r="J34" s="236">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="379"/>
+      <c r="B35" s="379"/>
+      <c r="C35" s="216" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="207" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="G35" s="208">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H35" s="150">
+        <f t="shared" si="6"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" si="7"/>
+        <v>3.4722222222222134E-2</v>
+      </c>
+      <c r="J35" s="242">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="379"/>
+      <c r="B36" s="393"/>
+      <c r="C36" s="177" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="24">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0.71875</v>
+      </c>
+      <c r="G36" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H36" s="217">
+        <f t="shared" si="6"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="I36" s="24">
+        <f t="shared" si="7"/>
+        <v>1.3888888888888874E-2</v>
+      </c>
+      <c r="J36" s="243">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="379"/>
+      <c r="B37" s="205" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="212" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="213" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="214">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F37" s="214">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="G37" s="214">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H37" s="215">
+        <f t="shared" si="6"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="I37" s="214">
+        <f t="shared" si="7"/>
+        <v>2.4305555555555504E-2</v>
+      </c>
+      <c r="J37" s="244">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="379"/>
+      <c r="B38" s="392" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="206" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="18">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="F38" s="18">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G38" s="209">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H38" s="210">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555469E-2</v>
+      </c>
+      <c r="I38" s="18">
+        <f t="shared" si="7"/>
+        <v>1.3888888888888805E-2</v>
+      </c>
+      <c r="J38" s="236">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="379"/>
+      <c r="B39" s="379"/>
+      <c r="C39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G39" s="16">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H39" s="150">
+        <f t="shared" si="6"/>
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="I39" s="21">
+        <f t="shared" si="7"/>
+        <v>1.0416666666666637E-2</v>
+      </c>
+      <c r="J39" s="237">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="379"/>
+      <c r="B40" s="379"/>
+      <c r="C40" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G40" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H40" s="33">
+        <f t="shared" si="6"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="7"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="J40" s="238">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="379"/>
+      <c r="B41" s="379"/>
+      <c r="C41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="G41" s="16">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H41" s="150">
+        <f t="shared" si="6"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="I41" s="21">
+        <f t="shared" si="7"/>
+        <v>1.0416666666666605E-2</v>
+      </c>
+      <c r="J41" s="237">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="379"/>
+      <c r="B42" s="379"/>
+      <c r="C42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="13">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F42" s="13">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="G42" s="32">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H42" s="33">
+        <f t="shared" si="6"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="7"/>
+        <v>6.9444444444444961E-3</v>
+      </c>
+      <c r="J42" s="238">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="379"/>
+      <c r="B43" s="393"/>
+      <c r="C43" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="G43" s="15">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H43" s="211">
+        <f t="shared" si="6"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="I43" s="22">
+        <f t="shared" si="7"/>
+        <v>3.4722222222221856E-3</v>
+      </c>
+      <c r="J43" s="245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="162" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="218" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="18">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G44" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H44" s="204">
+        <f t="shared" si="6"/>
+        <v>7.638888888888884E-2</v>
+      </c>
+      <c r="I44" s="18">
+        <f t="shared" si="7"/>
+        <v>6.9444444444444892E-3</v>
+      </c>
+      <c r="J44" s="236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="373" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="371"/>
+      <c r="C45" s="370"/>
+      <c r="D45" s="372"/>
+      <c r="E45" s="372"/>
+      <c r="F45" s="371"/>
+      <c r="G45" s="219">
+        <f>SUM(G34:G44)</f>
+        <v>0.39236111111111105</v>
+      </c>
+      <c r="H45" s="8">
+        <f>SUM(H34:H44)</f>
+        <v>0.38888888888888878</v>
+      </c>
+      <c r="I45" s="8">
+        <f>ABS(G45-H45)</f>
+        <v>3.4722222222222654E-3</v>
+      </c>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="127" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="127" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="127" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="127" t="s">
+      <c r="B48" s="223" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="127" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="364" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="362" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="172" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="G2" s="50">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H2" s="51">
-        <v>6.25E-2</v>
-      </c>
-      <c r="I2" s="15">
-        <f>IF($H2&lt;=$G2,$G2-$H2,$H2-G2)</f>
-        <v>2.0833333333333336E-2</v>
-      </c>
-      <c r="J2" s="136">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="365"/>
-      <c r="B3" s="362"/>
-      <c r="C3" s="173" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="21">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G3" s="21">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H3" s="24">
-        <v>2.4305555555555556E-2</v>
-      </c>
-      <c r="I3" s="26">
-        <f t="shared" ref="I3:I5" si="0">IF($H3&lt;=$G3,$G3-$H3,$H3-G3)</f>
-        <v>1.7361111111111108E-2</v>
-      </c>
-      <c r="J3" s="135">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="365"/>
-      <c r="B4" s="362"/>
-      <c r="C4" s="172" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="G4" s="50">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H4" s="51">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="I4" s="15">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444406E-3</v>
-      </c>
-      <c r="J4" s="136">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="365"/>
-      <c r="B5" s="362"/>
-      <c r="C5" s="173" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="F5" s="21">
-        <v>0.71875</v>
-      </c>
-      <c r="G5" s="21">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H5" s="24">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="I5" s="26">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444406E-3</v>
-      </c>
-      <c r="J5" s="135">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="365"/>
-      <c r="B6" s="362"/>
-      <c r="C6" s="172" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G6" s="50">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H6" s="51">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="I6" s="15">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="J6" s="136"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="365"/>
-      <c r="B7" s="362"/>
-      <c r="C7" s="173" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="24">
-        <v>2.4305555555555556E-2</v>
-      </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="135"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="365"/>
-      <c r="B8" s="362"/>
-      <c r="C8" s="172" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="136"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="365"/>
-      <c r="B9" s="362"/>
-      <c r="C9" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="21">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F9" s="21">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="24">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="135"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="365"/>
-      <c r="B10" s="362"/>
-      <c r="C10" s="172" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="136"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="365"/>
-      <c r="B11" s="362"/>
-      <c r="C11" s="173" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0.81597222222222221</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="135"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="365"/>
-      <c r="B12" s="362"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="136"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="365"/>
-      <c r="B13" s="362"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="135"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="365"/>
-      <c r="B14" s="361" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="G14" s="11">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H14" s="12">
-        <v>7.6388888888888895E-2</v>
-      </c>
-      <c r="I14" s="28">
-        <f>IF($H14&lt;=$G14,$G14-$H14,$H14-G14)</f>
-        <v>6.9444444444444337E-3</v>
-      </c>
-      <c r="J14" s="138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="365"/>
-      <c r="B15" s="361"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15">
-        <f>IF($H15&lt;=$G15,$G15-$H15,$H15-G15)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="136"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="365"/>
-      <c r="B16" s="361"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="26">
-        <f>IF($H16&lt;=$G16,$G16-$H16,$H16-G16)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="135"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="366"/>
-      <c r="B17" s="361"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="32">
-        <f>IF($H17&lt;=$G17,$G17-$H17,$H17-G17)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="139"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="349" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="362" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G18" s="50">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H18" s="51">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I18" s="15">
-        <f>IF($H18&lt;=$G18,$G18-$H18,$H18-G18)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J18" s="136">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="350"/>
-      <c r="B19" s="362"/>
-      <c r="C19" s="173" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="21">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F19" s="21">
-        <v>0.79861111111111116</v>
-      </c>
-      <c r="G19" s="21">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H19" s="24">
-        <v>6.25E-2</v>
-      </c>
-      <c r="I19" s="26">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J19" s="135"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="350"/>
-      <c r="B20" s="362"/>
-      <c r="C20" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0.84027777777777779</v>
-      </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="136"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="350"/>
-      <c r="B21" s="362"/>
-      <c r="C21" s="173" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="21">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="24">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="135"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="350"/>
-      <c r="B22" s="362"/>
-      <c r="C22" s="172" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="136"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="350"/>
-      <c r="B23" s="362"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="135"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="350"/>
-      <c r="B24" s="362"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="136"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="350"/>
-      <c r="B25" s="362"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="135"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="350"/>
-      <c r="B26" s="362"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="136"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="350"/>
-      <c r="B27" s="362"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="135"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="350"/>
-      <c r="B28" s="362"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="136"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="363"/>
-      <c r="B29" s="362"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="137"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="358" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="360"/>
-      <c r="C31" s="358"/>
-      <c r="D31" s="359"/>
-      <c r="E31" s="359"/>
-      <c r="F31" s="360"/>
-      <c r="G31" s="8">
-        <f>SUM(G2+G3+G4+G5+G14+G18)</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="H31" s="7">
-        <f>SUM(H2+H3+H4+H5+H14+H18)</f>
-        <v>0.31597222222222221</v>
-      </c>
-      <c r="I31" s="7">
-        <f>SUM(H31-G31)</f>
-        <v>2.4305555555555525E-2</v>
-      </c>
-      <c r="J31" s="35"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="132" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="133" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="134" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="116">
-        <f>G31</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="B34" s="117">
-        <f>H31</f>
-        <v>0.31597222222222221</v>
-      </c>
-      <c r="C34" s="118">
-        <f>I31</f>
-        <v>2.4305555555555525E-2</v>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="285">
+        <f>G31+G45</f>
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="B49" s="285">
+        <f>H31+H45</f>
+        <v>1.8784722222222219</v>
+      </c>
+      <c r="C49" s="285">
+        <f>I31+I45</f>
+        <v>1.3680555555555554</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="B16:B30"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
     <mergeCell ref="C31:F31"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="A34:A43"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -15132,15 +16205,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{921B4399-A4C8-41C7-81BF-DE7CD4C15AC1}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="96baf148-0394-4110-8b73-6de8c89f3de6"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="96baf148-0394-4110-8b73-6de8c89f3de6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
+++ b/05_Zeitaufzeichnung/Zeitaufzeichnung_Local_Admin.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tgmwien-my.sharepoint.com/personal/tschrottwieser_student_tgm_ac_at/Documents/Schule/Sem7/ITP/Local Admin/05_Zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1677" documentId="8_{408C25CB-732D-4323-BCEA-F567F8226029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3CB1773B-C9B8-4FEB-9FA8-3CA60D28F855}"/>
+  <xr:revisionPtr revIDLastSave="1874" documentId="8_{408C25CB-732D-4323-BCEA-F567F8226029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{258EEE94-7893-468D-9216-A94BACE50AA0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allg." sheetId="1" r:id="rId1"/>
     <sheet name="Tobias S." sheetId="2" r:id="rId2"/>
     <sheet name="Kalian D." sheetId="6" r:id="rId3"/>
     <sheet name="Nils" sheetId="7" r:id="rId4"/>
-    <sheet name="Tobias W." sheetId="8" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="117">
   <si>
     <t>Aktivität</t>
   </si>
@@ -126,18 +126,6 @@
     <t>Verbesserung V2 (Abschluss)</t>
   </si>
   <si>
-    <t>25.09.2019</t>
-  </si>
-  <si>
-    <t>17.09.2019</t>
-  </si>
-  <si>
-    <t>14.10.2019</t>
-  </si>
-  <si>
-    <t>Rest-API</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dokumente </t>
   </si>
   <si>
@@ -187,12 +175,6 @@
   </si>
   <si>
     <t>Dokumente</t>
-  </si>
-  <si>
-    <t>Entwicklungsumgebung eingerichtet</t>
-  </si>
-  <si>
-    <t>Backend</t>
   </si>
   <si>
     <t>Entwicklung der API</t>
@@ -253,45 +235,6 @@
   </si>
   <si>
     <t>Noch zu erledigen</t>
-  </si>
-  <si>
-    <t>Nutzwertanalyse - Datenformate / Lizenzserver</t>
-  </si>
-  <si>
-    <t>17.10.2019</t>
-  </si>
-  <si>
-    <t>Nutzwertanalyse - Lizenzserver</t>
-  </si>
-  <si>
-    <t>18.10.2019</t>
-  </si>
-  <si>
-    <t>Nutzwertanalyse - Datenformate</t>
-  </si>
-  <si>
-    <t>Dokumentation - Gruppen</t>
-  </si>
-  <si>
-    <t>20.10.2019</t>
-  </si>
-  <si>
-    <t>Dokumentation - Filter</t>
-  </si>
-  <si>
-    <t>21.10.2019</t>
-  </si>
-  <si>
-    <t>22.10.2019</t>
-  </si>
-  <si>
-    <t>Dokumentation - Permissions Pfad</t>
-  </si>
-  <si>
-    <t>Nutzwertanalyse - Auth Modell</t>
-  </si>
-  <si>
-    <t>23.10.2019</t>
   </si>
   <si>
     <t>Restaurant</t>
@@ -372,9 +315,6 @@
     <t>Fehler bei der Implementierung und dem Design ausbessern</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Fehler Behebungen beim Design</t>
   </si>
   <si>
@@ -396,18 +336,6 @@
     <t>Implementierung der Columns</t>
   </si>
   <si>
-    <t>Momentaner Stand + Aufteilung</t>
-  </si>
-  <si>
-    <t>Machbarkeit</t>
-  </si>
-  <si>
-    <t>Fehlersuche/-ausbesserung</t>
-  </si>
-  <si>
-    <t>überarbeitet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Implementierung und Updaten </t>
   </si>
   <si>
@@ -415,63 +343,6 @@
   </si>
   <si>
     <t>Implementierung der Nutzer und bugs fixen</t>
-  </si>
-  <si>
-    <t>26.10.2019</t>
-  </si>
-  <si>
-    <t>27.10.2019</t>
-  </si>
-  <si>
-    <t>08.11.2019</t>
-  </si>
-  <si>
-    <t>10.11.2019</t>
-  </si>
-  <si>
-    <t>11.11.2019</t>
-  </si>
-  <si>
-    <t>13.11.2019</t>
-  </si>
-  <si>
-    <t>16.11.2019</t>
-  </si>
-  <si>
-    <t>18.11.2019</t>
-  </si>
-  <si>
-    <t>19.11.2019</t>
-  </si>
-  <si>
-    <t>20.11.2019</t>
-  </si>
-  <si>
-    <t>21.11.2019</t>
-  </si>
-  <si>
-    <t>25.11.2019</t>
-  </si>
-  <si>
-    <t>Dokumentation - Tabellenabfragen</t>
-  </si>
-  <si>
-    <t>Implementierung - Autogen/Permissions/Filter</t>
-  </si>
-  <si>
-    <t>Implementierung - FilterAPI</t>
-  </si>
-  <si>
-    <t>Implementierung - Fehler behoben</t>
-  </si>
-  <si>
-    <t>Implementierung - TablesAPI</t>
-  </si>
-  <si>
-    <t>Implementierung - Filter/PermissionAPI</t>
-  </si>
-  <si>
-    <t>Implementierung - UsergroupAPI</t>
   </si>
   <si>
     <t>Testing</t>
@@ -496,6 +367,27 @@
   </si>
   <si>
     <t>Testcases für DailyColumn + DailyFormula</t>
+  </si>
+  <si>
+    <t>Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Tested RestaurantApi and fixed errors</t>
+  </si>
+  <si>
+    <t>Tested UserApi and UsersApi and fixed errors</t>
+  </si>
+  <si>
+    <t>Vollendung</t>
+  </si>
+  <si>
+    <t>Tested ColumnApi and UserApi and fixed errors</t>
+  </si>
+  <si>
+    <t>Tested FormulaApi and DailycolumnApi and fixed errors</t>
+  </si>
+  <si>
+    <t>30%-</t>
   </si>
 </sst>
 </file>
@@ -616,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -981,14 +873,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="404">
+  <cellXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,7 +898,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,20 +920,12 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,16 +935,9 @@
     <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1060,116 +946,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1180,15 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1226,27 +1004,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1264,7 +1023,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1277,19 +1035,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1313,9 +1058,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1344,9 +1086,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1450,47 +1189,13 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1498,9 +1203,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1526,18 +1228,8 @@
     <xf numFmtId="10" fontId="3" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1581,55 +1273,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1681,9 +1324,6 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1696,14 +1336,8 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1713,15 +1347,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="14" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="14" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1765,6 +1390,181 @@
     <xf numFmtId="165" fontId="3" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1783,6 +1583,57 @@
     <xf numFmtId="165" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1801,68 +1652,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1873,10 +1682,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1897,6 +1712,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1904,12 +1758,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1943,42 +1791,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2256,16 +2068,16 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.7673611111111107</c:v>
+                  <c:v>6.8923611111111107</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.8013888888888885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.489583333337376</c:v>
+                  <c:v>5.5173611111151546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8784722222222219</c:v>
+                  <c:v>3.1944444444444446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2484,16 +2296,16 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.9999999999999976</c:v>
+                  <c:v>1.9791666666666636</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2909722222222218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6006944444484873</c:v>
+                  <c:v>0.95486111111515515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3680555555555554</c:v>
+                  <c:v>2.6840277777777781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2712,16 +2524,16 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.7673611111111107</c:v>
+                  <c:v>6.8923611111111107</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.8013888888888885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.489583333337376</c:v>
+                  <c:v>5.5173611111151546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8784722222222219</c:v>
+                  <c:v>3.1944444444444446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4308,7 +4120,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4356,7 +4168,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4548,7 +4360,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4596,7 +4408,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4692,7 +4504,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4740,7 +4552,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4788,7 +4600,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4836,7 +4648,7 @@
       <dgm:prSet/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -4988,7 +4800,7 @@
       <dgm:prSet/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -5036,7 +4848,7 @@
       <dgm:prSet/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -5084,7 +4896,7 @@
       <dgm:prSet/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -5132,7 +4944,7 @@
       <dgm:prSet/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -5180,7 +4992,7 @@
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -6196,7 +6008,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6536205" y="2064985"/>
+          <a:off x="6536205" y="2069748"/>
           <a:ext cx="198453" cy="2487284"/>
         </a:xfrm>
         <a:custGeom>
@@ -6255,7 +6067,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6536205" y="2064985"/>
+          <a:off x="6536205" y="2069748"/>
           <a:ext cx="198453" cy="1547937"/>
         </a:xfrm>
         <a:custGeom>
@@ -6314,7 +6126,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6536205" y="2064985"/>
+          <a:off x="6536205" y="2069748"/>
           <a:ext cx="198453" cy="608590"/>
         </a:xfrm>
         <a:custGeom>
@@ -6373,7 +6185,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3853800" y="1122661"/>
+          <a:off x="3853800" y="1127424"/>
           <a:ext cx="3211614" cy="280811"/>
         </a:xfrm>
         <a:custGeom>
@@ -6435,7 +6247,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4935346" y="2064985"/>
+          <a:off x="4935346" y="2069748"/>
           <a:ext cx="198453" cy="1547937"/>
         </a:xfrm>
         <a:custGeom>
@@ -6494,7 +6306,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4935346" y="2064985"/>
+          <a:off x="4935346" y="2069748"/>
           <a:ext cx="198453" cy="608590"/>
         </a:xfrm>
         <a:custGeom>
@@ -6553,7 +6365,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3853800" y="1122661"/>
+          <a:off x="3853800" y="1127424"/>
           <a:ext cx="1610755" cy="280811"/>
         </a:xfrm>
         <a:custGeom>
@@ -6615,7 +6427,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3334487" y="2064985"/>
+          <a:off x="3334487" y="2069748"/>
           <a:ext cx="198453" cy="2487284"/>
         </a:xfrm>
         <a:custGeom>
@@ -6674,7 +6486,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3334487" y="2064985"/>
+          <a:off x="3334487" y="2069748"/>
           <a:ext cx="198453" cy="1547937"/>
         </a:xfrm>
         <a:custGeom>
@@ -6733,7 +6545,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3334487" y="2064985"/>
+          <a:off x="3334487" y="2069748"/>
           <a:ext cx="198453" cy="608590"/>
         </a:xfrm>
         <a:custGeom>
@@ -6792,7 +6604,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3808080" y="1122661"/>
+          <a:off x="3808080" y="1127424"/>
           <a:ext cx="91440" cy="280811"/>
         </a:xfrm>
         <a:custGeom>
@@ -6854,7 +6666,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1733628" y="2064985"/>
+          <a:off x="1733628" y="2069748"/>
           <a:ext cx="198453" cy="3426631"/>
         </a:xfrm>
         <a:custGeom>
@@ -6913,7 +6725,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1733628" y="2064985"/>
+          <a:off x="1733628" y="2069748"/>
           <a:ext cx="198453" cy="2487284"/>
         </a:xfrm>
         <a:custGeom>
@@ -6972,7 +6784,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1733628" y="2064985"/>
+          <a:off x="1733628" y="2069748"/>
           <a:ext cx="198453" cy="1547937"/>
         </a:xfrm>
         <a:custGeom>
@@ -7031,7 +6843,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1733628" y="2064985"/>
+          <a:off x="1733628" y="2069748"/>
           <a:ext cx="198453" cy="608590"/>
         </a:xfrm>
         <a:custGeom>
@@ -7090,7 +6902,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2262838" y="1122661"/>
+          <a:off x="2262838" y="1127424"/>
           <a:ext cx="1590962" cy="280811"/>
         </a:xfrm>
         <a:custGeom>
@@ -7152,7 +6964,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="132769" y="2064985"/>
+          <a:off x="132769" y="2069748"/>
           <a:ext cx="198453" cy="1547937"/>
         </a:xfrm>
         <a:custGeom>
@@ -7211,7 +7023,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="132769" y="2064985"/>
+          <a:off x="132769" y="2069748"/>
           <a:ext cx="198453" cy="608590"/>
         </a:xfrm>
         <a:custGeom>
@@ -7270,7 +7082,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="661979" y="1122661"/>
+          <a:off x="661979" y="1127424"/>
           <a:ext cx="3191821" cy="280811"/>
         </a:xfrm>
         <a:custGeom>
@@ -7332,7 +7144,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3192288" y="461149"/>
+          <a:off x="3192288" y="465912"/>
           <a:ext cx="1323023" cy="661511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7395,7 +7207,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3192288" y="461149"/>
+        <a:off x="3192288" y="465912"/>
         <a:ext cx="1323023" cy="661511"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7406,7 +7218,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="467" y="1403473"/>
+          <a:off x="467" y="1408236"/>
           <a:ext cx="1323023" cy="661511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7469,7 +7281,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="467" y="1403473"/>
+        <a:off x="467" y="1408236"/>
         <a:ext cx="1323023" cy="661511"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7480,7 +7292,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="331223" y="2342820"/>
+          <a:off x="331223" y="2347583"/>
           <a:ext cx="1323023" cy="661511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7543,7 +7355,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="331223" y="2342820"/>
+        <a:off x="331223" y="2347583"/>
         <a:ext cx="1323023" cy="661511"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7554,7 +7366,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="331223" y="3282167"/>
+          <a:off x="331223" y="3286930"/>
           <a:ext cx="1323023" cy="661511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7617,7 +7429,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="331223" y="3282167"/>
+        <a:off x="331223" y="3286930"/>
         <a:ext cx="1323023" cy="661511"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7628,14 +7440,14 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1601326" y="1403473"/>
+          <a:off x="1601326" y="1408236"/>
           <a:ext cx="1323023" cy="661511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -7691,7 +7503,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1601326" y="1403473"/>
+        <a:off x="1601326" y="1408236"/>
         <a:ext cx="1323023" cy="661511"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7702,7 +7514,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1932082" y="2342820"/>
+          <a:off x="1932082" y="2347583"/>
           <a:ext cx="1323023" cy="661511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7765,7 +7577,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1932082" y="2342820"/>
+        <a:off x="1932082" y="2347583"/>
         <a:ext cx="1323023" cy="661511"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7776,7 +7588,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1932082" y="3282167"/>
+          <a:off x="1932082" y="3286930"/>
           <a:ext cx="1323023" cy="661511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7839,7 +7651,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1932082" y="3282167"/>
+        <a:off x="1932082" y="3286930"/>
         <a:ext cx="1323023" cy="661511"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7850,14 +7662,14 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1932082" y="4221514"/>
+          <a:off x="1932082" y="4226276"/>
           <a:ext cx="1323023" cy="661511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -7913,7 +7725,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1932082" y="4221514"/>
+        <a:off x="1932082" y="4226276"/>
         <a:ext cx="1323023" cy="661511"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7924,7 +7736,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1932082" y="5160861"/>
+          <a:off x="1932082" y="5165623"/>
           <a:ext cx="1323023" cy="661511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7988,7 +7800,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1932082" y="5160861"/>
+        <a:off x="1932082" y="5165623"/>
         <a:ext cx="1323023" cy="661511"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7999,7 +7811,526 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3202185" y="1403473"/>
+          <a:off x="3202185" y="1408236"/>
+          <a:ext cx="1323023" cy="661511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3 Feinentwicklung</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3202185" y="1408236"/>
+        <a:ext cx="1323023" cy="661511"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{895CF28C-9467-4019-BE5E-5D325E19ADD2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3532941" y="2347583"/>
+          <a:ext cx="1323023" cy="661511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.1 Ergänzung von fehlenden Funktionen</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3532941" y="2347583"/>
+        <a:ext cx="1323023" cy="661511"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E1E9F6D1-CE76-47F1-BB35-7088C137E362}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3532941" y="3286930"/>
+          <a:ext cx="1323023" cy="661511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.2 Feinabstimmung der Webapplikation</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3532941" y="3286930"/>
+        <a:ext cx="1323023" cy="661511"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1869839A-63AC-4AC2-974D-B02AD012EBB1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3532941" y="4226276"/>
+          <a:ext cx="1323023" cy="661511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.3 Dokumente aktualisieren</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3532941" y="4226276"/>
+        <a:ext cx="1323023" cy="661511"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7E74FE0C-3C46-4FE5-85C5-B46FEE044613}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4803043" y="1408236"/>
+          <a:ext cx="1323023" cy="661511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4 Troubleshooting</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4803043" y="1408236"/>
+        <a:ext cx="1323023" cy="661511"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{706EDAD4-64F7-4373-AEE7-9B4BC6E35F34}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5133799" y="2347583"/>
+          <a:ext cx="1323023" cy="661511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4.1 Testing</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5133799" y="2347583"/>
+        <a:ext cx="1323023" cy="661511"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8435D8D3-1CD4-4FF2-A99C-768E02A10304}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5133799" y="3286930"/>
+          <a:ext cx="1323023" cy="661511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4.2 Debugging</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5133799" y="3286930"/>
+        <a:ext cx="1323023" cy="661511"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{39609A15-D352-4FDF-9EC9-AF8A78595001}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6403902" y="1408236"/>
           <a:ext cx="1323023" cy="661511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8057,23 +8388,171 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>3 Feinentwicklung</a:t>
+            <a:t>5 Abschluss</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3202185" y="1403473"/>
+        <a:off x="6403902" y="1408236"/>
         <a:ext cx="1323023" cy="661511"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{895CF28C-9467-4019-BE5E-5D325E19ADD2}">
+    <dsp:sp modelId="{5E1D54B8-6BDB-4D09-8DCC-8DCE64D2E791}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3532941" y="2342820"/>
+          <a:off x="6734658" y="2347583"/>
+          <a:ext cx="1323023" cy="661511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.1 Durchlauf mit Testpersonen</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6734658" y="2347583"/>
+        <a:ext cx="1323023" cy="661511"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7263E78D-04B2-4B87-B3C4-BA5442646890}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6734658" y="3286930"/>
+          <a:ext cx="1323023" cy="661511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.2 Dokumente vollenden</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6734658" y="3286930"/>
+        <a:ext cx="1323023" cy="661511"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1D5B4E13-7FFB-4059-BBBE-9ADBD334C35E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6734658" y="4226276"/>
           <a:ext cx="1323023" cy="661511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8131,679 +8610,12 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>3.1 Ergänzung von fehlenden Funktionen</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3532941" y="2342820"/>
-        <a:ext cx="1323023" cy="661511"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{E1E9F6D1-CE76-47F1-BB35-7088C137E362}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3532941" y="3282167"/>
-          <a:ext cx="1323023" cy="661511"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3.2 Feinabstimmung der Webapplikation</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3532941" y="3282167"/>
-        <a:ext cx="1323023" cy="661511"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{1869839A-63AC-4AC2-974D-B02AD012EBB1}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3532941" y="4221514"/>
-          <a:ext cx="1323023" cy="661511"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buFont typeface="+mj-lt"/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3.3 Dokumente aktualisieren</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3532941" y="4221514"/>
-        <a:ext cx="1323023" cy="661511"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{7E74FE0C-3C46-4FE5-85C5-B46FEE044613}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4803043" y="1403473"/>
-          <a:ext cx="1323023" cy="661511"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4 Troubleshooting</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="4803043" y="1403473"/>
-        <a:ext cx="1323023" cy="661511"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{706EDAD4-64F7-4373-AEE7-9B4BC6E35F34}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5133799" y="2342820"/>
-          <a:ext cx="1323023" cy="661511"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4.1 Testing</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5133799" y="2342820"/>
-        <a:ext cx="1323023" cy="661511"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{8435D8D3-1CD4-4FF2-A99C-768E02A10304}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5133799" y="3282167"/>
-          <a:ext cx="1323023" cy="661511"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4.2 Debugging</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5133799" y="3282167"/>
-        <a:ext cx="1323023" cy="661511"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{39609A15-D352-4FDF-9EC9-AF8A78595001}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6403902" y="1403473"/>
-          <a:ext cx="1323023" cy="661511"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>5 Abschluss</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="6403902" y="1403473"/>
-        <a:ext cx="1323023" cy="661511"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{5E1D54B8-6BDB-4D09-8DCC-8DCE64D2E791}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6734658" y="2342820"/>
-          <a:ext cx="1323023" cy="661511"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>5.1 Durchlauf mit Testpersonen</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="6734658" y="2342820"/>
-        <a:ext cx="1323023" cy="661511"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{7263E78D-04B2-4B87-B3C4-BA5442646890}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6734658" y="3282167"/>
-          <a:ext cx="1323023" cy="661511"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>5.2 Dokumente vollenden</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="6734658" y="3282167"/>
-        <a:ext cx="1323023" cy="661511"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{1D5B4E13-7FFB-4059-BBBE-9ADBD334C35E}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6734658" y="4221514"/>
-          <a:ext cx="1323023" cy="661511"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1200" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
             <a:t>5.3 Abgabe</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6734658" y="4221514"/>
+        <a:off x="6734658" y="4226276"/>
         <a:ext cx="1323023" cy="661511"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -11044,7 +10856,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 11">
+        <xdr:cNvPr id="13" name="Diagramm 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FFFC9ED-4335-439A-B2F3-00E30828CADC}"/>
@@ -11331,136 +11143,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19" style="4" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="18" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="10.42578125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="18" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="10.42578125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="140" t="s">
+      <c r="A1" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="250">
-        <f>'Tobias S.'!A42</f>
-        <v>4.7673611111111134</v>
-      </c>
-      <c r="C2" s="250">
-        <f>'Tobias S.'!C42</f>
-        <v>1.9999999999999976</v>
-      </c>
-      <c r="D2" s="250">
-        <f>'Tobias S.'!B42</f>
-        <v>6.7673611111111107</v>
+      <c r="A2" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="165">
+        <f>'Tobias S.'!A44</f>
+        <v>4.9131944444444473</v>
+      </c>
+      <c r="C2" s="165">
+        <f>'Tobias S.'!C44</f>
+        <v>1.9791666666666636</v>
+      </c>
+      <c r="D2" s="165">
+        <f>'Tobias S.'!B44</f>
+        <v>6.8923611111111107</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="142" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="251">
+      <c r="A3" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="166">
         <f>Nils!A30</f>
         <v>1.5104166666666667</v>
       </c>
-      <c r="C3" s="251">
+      <c r="C3" s="166">
         <f>Nils!C30</f>
         <v>0.2909722222222218</v>
       </c>
-      <c r="D3" s="251">
+      <c r="D3" s="166">
         <f>Nils!B30</f>
         <v>1.8013888888888885</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="144" t="s">
-        <v>70</v>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="250">
-        <f>'Kalian D.'!A46</f>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="C4" s="250">
-        <f>'Kalian D.'!C46</f>
-        <v>0.6006944444484873</v>
-      </c>
-      <c r="D4" s="250">
-        <f>'Kalian D.'!B46</f>
-        <v>4.489583333337376</v>
-      </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="146" t="s">
-        <v>71</v>
+      <c r="A4" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="165">
+        <f>'Kalian D.'!A49</f>
+        <v>4.5624999999999991</v>
+      </c>
+      <c r="C4" s="165">
+        <f>'Kalian D.'!C49</f>
+        <v>0.95486111111515515</v>
+      </c>
+      <c r="D4" s="165">
+        <f>'Kalian D.'!B49</f>
+        <v>5.5173611111151546</v>
+      </c>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="147" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="252">
-        <f>'Tobias W.'!A49</f>
+      <c r="A5" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="167">
         <v>0.51736111111111105</v>
       </c>
-      <c r="C5" s="252">
-        <f>'Tobias W.'!C49</f>
-        <v>1.3680555555555554</v>
-      </c>
-      <c r="D5" s="252">
-        <f>'Tobias W.'!B49</f>
-        <v>1.8784722222222219</v>
-      </c>
-      <c r="F5" s="148"/>
-      <c r="G5" s="149" t="s">
-        <v>69</v>
+      <c r="C5" s="167">
+        <v>2.6840277777777781</v>
+      </c>
+      <c r="D5" s="167">
+        <v>3.1944444444444446</v>
+      </c>
+      <c r="F5" s="82"/>
+      <c r="G5" s="83" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="332" t="s">
+      <c r="A7" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="333"/>
-      <c r="C7" s="333"/>
-      <c r="D7" s="336">
+      <c r="B7" s="282"/>
+      <c r="C7" s="282"/>
+      <c r="D7" s="285">
         <f>SUM(D2:D5)</f>
-        <v>14.936805555559598</v>
+        <v>17.405555555559602</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="334"/>
-      <c r="B8" s="335"/>
-      <c r="C8" s="335"/>
-      <c r="D8" s="337"/>
+      <c r="A8" s="283"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="286"/>
+    </row>
+    <row r="35" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D35" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11475,7 +11287,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576FEAC2-94F0-43B7-AE55-3B16F30C7B1C}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
@@ -11483,1183 +11295,1241 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="24" style="35" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="35" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="35"/>
-    <col min="10" max="10" width="22.5703125" style="35" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="35"/>
-    <col min="12" max="12" width="19.85546875" style="35" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" style="35" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="35"/>
+    <col min="1" max="1" width="36.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="24" style="23" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="23"/>
+    <col min="10" max="10" width="22.5703125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="23"/>
+    <col min="12" max="12" width="19.85546875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" style="23" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="90" t="s">
+      <c r="A1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="338" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="341" t="s">
+      <c r="A2" s="304" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="307" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="225">
         <v>43714</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="226">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="226">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="227">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="226">
         <f>F2-E2</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="226">
         <f>IF(H2&lt;=G2,G2-H2,H2-G2)</f>
         <v>8.3333333333333412E-2</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="228">
         <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="339"/>
-      <c r="B3" s="342"/>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="305"/>
+      <c r="B3" s="308"/>
+      <c r="C3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="229">
         <v>43714</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="230">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="230">
         <v>0</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="231">
         <v>3.125E-2</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="230">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="230">
         <f t="shared" ref="I3:I25" si="0">IF(H3&lt;=G3,G3-H3,H3-G3)</f>
         <v>1.0416666666666664E-2</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="232">
         <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="339"/>
-      <c r="B4" s="343"/>
-      <c r="C4" s="46" t="s">
+      <c r="A4" s="305"/>
+      <c r="B4" s="309"/>
+      <c r="C4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="233">
         <v>43715</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="234">
         <v>0</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="234">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="235">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="236">
         <f>F4-E4</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="236">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="237">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="339"/>
-      <c r="B5" s="344" t="s">
+      <c r="A5" s="305"/>
+      <c r="B5" s="298" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="238">
         <v>43716</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="239">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="239">
         <v>0.97916666666666663</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="240">
         <v>0.125</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="239">
         <f t="shared" ref="H5:H26" si="1">F5-E5</f>
         <v>0.25</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="239">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="241">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="339"/>
-      <c r="B6" s="345"/>
-      <c r="C6" s="340" t="s">
+      <c r="A6" s="305"/>
+      <c r="B6" s="299"/>
+      <c r="C6" s="306" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="242">
         <v>43717</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="236">
         <v>0.74305555555555547</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="236">
         <v>0.98958333333333337</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="243">
         <v>0.20833333333333334</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="236">
         <f t="shared" si="1"/>
         <v>0.2465277777777779</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="236">
         <f t="shared" si="0"/>
         <v>3.8194444444444559E-2</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="244">
         <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="339"/>
-      <c r="B7" s="345"/>
-      <c r="C7" s="340"/>
-      <c r="D7" s="60">
+      <c r="A7" s="305"/>
+      <c r="B7" s="299"/>
+      <c r="C7" s="306"/>
+      <c r="D7" s="245">
         <v>43718</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="246">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="246">
         <v>0.875</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="247">
         <v>0.125</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="246">
         <f t="shared" si="1"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="246">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="248">
         <v>0.85</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="339"/>
-      <c r="B8" s="346"/>
-      <c r="C8" s="41" t="s">
+      <c r="A8" s="305"/>
+      <c r="B8" s="310"/>
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="229">
         <v>43722</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="230">
         <v>0.625</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="230">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="231">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="230">
         <f>F8-E8</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="230">
         <f t="shared" si="0"/>
         <v>4.163336342344337E-17</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="232">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="339"/>
-      <c r="B9" s="349" t="s">
+      <c r="A9" s="305"/>
+      <c r="B9" s="287" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="249">
         <v>43745</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="250">
         <v>0.625</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="250">
         <v>0.77083333333333337</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="251">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="250">
         <f>F9-E9</f>
         <v>0.14583333333333337</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="250">
         <f>IF(H9&lt;=G9,G9-H9,H9-G9)</f>
         <v>6.2500000000000042E-2</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="252">
         <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="339"/>
-      <c r="B10" s="347"/>
-      <c r="C10" s="41" t="s">
+      <c r="A10" s="305"/>
+      <c r="B10" s="288"/>
+      <c r="C10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="229">
         <v>43783</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="230">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="230">
         <v>0.75</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="231">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="230">
         <f t="shared" ref="H10:H11" si="2">F10-E10</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="230">
         <v>0</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="232">
         <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="339"/>
-      <c r="B11" s="348"/>
-      <c r="C11" s="108" t="s">
+      <c r="A11" s="305"/>
+      <c r="B11" s="311"/>
+      <c r="C11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="253">
         <v>43817</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="71">
+      <c r="E11" s="254">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F11" s="254">
+        <v>0.625</v>
+      </c>
+      <c r="G11" s="255">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="H11" s="254">
         <f t="shared" si="2"/>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="I11" s="254">
         <v>0</v>
       </c>
-      <c r="I11" s="71">
-        <v>0</v>
-      </c>
-      <c r="J11" s="73"/>
+      <c r="J11" s="256">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="339"/>
-      <c r="B12" s="352" t="s">
+      <c r="A12" s="305"/>
+      <c r="B12" s="298" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="350" t="s">
+      <c r="C12" s="312" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="111">
+      <c r="D12" s="238">
         <v>43753</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="239">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="257">
         <v>0.77083333333333337</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="239">
         <v>0.125</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="239">
         <f t="shared" si="1"/>
         <v>0.21527777777777779</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="239">
         <f>IF(H12&lt;=G12,G12-H12,H12-G12)</f>
         <v>9.027777777777779E-2</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="258">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="339"/>
-      <c r="B13" s="353"/>
-      <c r="C13" s="351"/>
-      <c r="D13" s="110">
+      <c r="A13" s="305"/>
+      <c r="B13" s="299"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="229">
         <v>43754</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="230">
         <v>0.89583333333333337</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="259">
         <v>0.125</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="230">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="230">
         <v>0.22916666666666666</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="230">
         <f>IF(H13&lt;=G13,G13-H13,H13-G13)</f>
         <v>6.25E-2</v>
       </c>
-      <c r="J13" s="80">
+      <c r="J13" s="260">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="339"/>
-      <c r="B14" s="353"/>
-      <c r="C14" s="121" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="109">
+      <c r="A14" s="305"/>
+      <c r="B14" s="299"/>
+      <c r="C14" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="245">
         <v>43759</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="246">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F14" s="261">
         <v>0.8125</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="246">
         <v>0.14583333333333334</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="246">
         <f t="shared" si="1"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="246">
         <f t="shared" si="0"/>
         <v>6.2500000000000028E-2</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="262">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="339"/>
-      <c r="B15" s="353"/>
-      <c r="C15" s="351" t="s">
+      <c r="A15" s="305"/>
+      <c r="B15" s="299"/>
+      <c r="C15" s="301" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="229">
         <v>43761</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="230">
         <v>0.375</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="259">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="230">
         <v>0.375</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="230">
         <f t="shared" si="1"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="230">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="J15" s="80">
+      <c r="J15" s="260">
         <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="339"/>
-      <c r="B16" s="353"/>
-      <c r="C16" s="351"/>
-      <c r="D16" s="42">
+      <c r="A16" s="305"/>
+      <c r="B16" s="299"/>
+      <c r="C16" s="301"/>
+      <c r="D16" s="229">
         <v>43762</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="230">
         <v>0</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="259">
         <v>0.19444444444444445</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="230">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H16" s="130">
+      <c r="H16" s="230">
         <f>F16-E16</f>
         <v>0.19444444444444445</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="230">
         <f t="shared" si="0"/>
         <v>0.11111111111111112</v>
       </c>
-      <c r="J16" s="80">
+      <c r="J16" s="260">
         <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="339"/>
-      <c r="B17" s="353"/>
-      <c r="C17" s="351"/>
-      <c r="D17" s="42">
+      <c r="A17" s="305"/>
+      <c r="B17" s="299"/>
+      <c r="C17" s="301"/>
+      <c r="D17" s="229">
         <v>43763</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="230">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="259">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="230">
         <v>0.125</v>
       </c>
-      <c r="H17" s="130">
+      <c r="H17" s="230">
         <f>F17-E17</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="230">
         <f>IF(H17&lt;=G17,G17-H17,H17-G17)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="J17" s="80">
+      <c r="J17" s="260">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="339"/>
-      <c r="B18" s="353"/>
-      <c r="C18" s="355" t="s">
+      <c r="A18" s="305"/>
+      <c r="B18" s="299"/>
+      <c r="C18" s="297" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="245">
         <v>43766</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="246">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="261">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="246">
         <v>0.375</v>
       </c>
-      <c r="H18" s="131">
+      <c r="H18" s="246">
         <v>0.65277777777777779</v>
       </c>
-      <c r="I18" s="61">
+      <c r="I18" s="246">
         <f t="shared" ref="I18:I20" si="3">IF(H18&lt;=G18,G18-H18,H18-G18)</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="J18" s="79">
+      <c r="J18" s="262">
         <v>0.93</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="339"/>
-      <c r="B19" s="353"/>
-      <c r="C19" s="355"/>
-      <c r="D19" s="60">
+      <c r="A19" s="305"/>
+      <c r="B19" s="299"/>
+      <c r="C19" s="297"/>
+      <c r="D19" s="245">
         <v>43767</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="246">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="261">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="246">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H19" s="131">
+      <c r="H19" s="246">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I19" s="61">
+      <c r="I19" s="246">
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="J19" s="79">
+      <c r="J19" s="262">
         <v>0.96</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="339"/>
-      <c r="B20" s="354"/>
-      <c r="C20" s="356"/>
-      <c r="D20" s="70">
+      <c r="A20" s="305"/>
+      <c r="B20" s="310"/>
+      <c r="C20" s="313"/>
+      <c r="D20" s="253">
         <v>43768</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="254">
         <v>0.65277777777777779</v>
       </c>
-      <c r="F20" s="132">
+      <c r="F20" s="263">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="254">
         <v>0.5</v>
       </c>
-      <c r="H20" s="133">
+      <c r="H20" s="254">
         <v>0.55555555555555558</v>
       </c>
-      <c r="I20" s="71">
+      <c r="I20" s="254">
         <f t="shared" si="3"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="J20" s="134">
+      <c r="J20" s="264">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="339"/>
-      <c r="B21" s="347" t="s">
+      <c r="A21" s="305"/>
+      <c r="B21" s="288" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="245">
         <v>43772</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="246">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="246">
         <v>0.25</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="247">
         <v>0.39583333333333331</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="246">
         <v>0.5</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="246">
         <f t="shared" si="0"/>
         <v>0.10416666666666669</v>
       </c>
-      <c r="J21" s="63">
+      <c r="J21" s="248">
         <v>0.33</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="339"/>
-      <c r="B22" s="347"/>
-      <c r="C22" s="41" t="s">
+      <c r="A22" s="305"/>
+      <c r="B22" s="288"/>
+      <c r="C22" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="229">
         <v>43773</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="230">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="230">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="231">
         <v>0.39583333333333331</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="230">
         <v>0.61111111111111105</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="230">
         <f t="shared" si="0"/>
         <v>0.21527777777777773</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="232">
         <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="339"/>
-      <c r="B23" s="348"/>
-      <c r="C23" s="69" t="s">
+      <c r="A23" s="305"/>
+      <c r="B23" s="311"/>
+      <c r="C23" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="253">
         <v>43774</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="254">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F23" s="71">
+      <c r="F23" s="254">
         <v>0.73611111111111116</v>
       </c>
-      <c r="G23" s="72">
+      <c r="G23" s="255">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="246">
         <f t="shared" si="1"/>
         <v>0.15277777777777779</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I23" s="246">
         <f t="shared" si="0"/>
         <v>1.3888888888888867E-2</v>
       </c>
-      <c r="J23" s="73">
+      <c r="J23" s="256">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="362" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="362" t="s">
+      <c r="A24" s="298" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="265">
         <v>43715</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="239">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="257">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="239">
         <v>0.125</v>
       </c>
-      <c r="H24" s="76">
+      <c r="H24" s="257">
         <f t="shared" si="1"/>
         <v>0.15277777777777779</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="239">
         <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="258">
         <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="363"/>
-      <c r="B25" s="363"/>
-      <c r="C25" s="74" t="s">
+      <c r="A25" s="299"/>
+      <c r="B25" s="295"/>
+      <c r="C25" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="86">
+      <c r="D25" s="266">
         <v>43747</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="246">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F25" s="78">
+      <c r="F25" s="261">
         <v>0.68055555555555547</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="246">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H25" s="78">
+      <c r="H25" s="261">
         <f t="shared" si="1"/>
         <v>0.12499999999999989</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="246">
         <f t="shared" si="0"/>
         <v>4.1666666666666768E-2</v>
       </c>
-      <c r="J25" s="79">
+      <c r="J25" s="262">
         <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="363"/>
-      <c r="B26" s="363"/>
-      <c r="C26" s="41" t="s">
+      <c r="A26" s="299"/>
+      <c r="B26" s="295"/>
+      <c r="C26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="87">
+      <c r="D26" s="267">
         <v>43752</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="230">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F26" s="75">
+      <c r="F26" s="259">
         <v>0.75694444444444453</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="230">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="H26" s="75">
+      <c r="H26" s="259">
         <f t="shared" si="1"/>
         <v>2.7777777777777901E-2</v>
       </c>
-      <c r="I26" s="43">
-        <f>IF(H26&lt;=G26,G26-H26,H26-G26)</f>
+      <c r="I26" s="230">
+        <f t="shared" ref="I26:I32" si="4">IF(H26&lt;=G26,G26-H26,H26-G26)</f>
         <v>1.3888888888889013E-2</v>
       </c>
-      <c r="J26" s="80">
+      <c r="J26" s="260">
         <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="363"/>
-      <c r="B27" s="363"/>
-      <c r="C27" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="86">
+      <c r="A27" s="299"/>
+      <c r="B27" s="295"/>
+      <c r="C27" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="266">
         <v>43782</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="246">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F27" s="78">
+      <c r="F27" s="261">
         <v>0.9375</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="246">
         <v>0.10416666666666667</v>
       </c>
-      <c r="H27" s="78">
-        <f>F27-E27</f>
+      <c r="H27" s="261">
+        <f t="shared" ref="H27:H32" si="5">F27-E27</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="I27" s="61">
-        <f>IF(H27&lt;=G27,G27-H27,H27-G27)</f>
+      <c r="I27" s="246">
+        <f t="shared" si="4"/>
         <v>0.1041666666666667</v>
       </c>
-      <c r="J27" s="79">
+      <c r="J27" s="262">
         <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="363"/>
-      <c r="B28" s="349" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="85">
-        <v>43714</v>
-      </c>
-      <c r="E28" s="54">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F28" s="76">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G28" s="54">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="H28" s="76">
-        <f>F28-E28</f>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="I28" s="54">
-        <f>IF(H28&lt;=G28,G28-H28,H28-G28)</f>
-        <v>1.3888888888888815E-2</v>
-      </c>
-      <c r="J28" s="77">
-        <v>0.2</v>
+      <c r="A28" s="299"/>
+      <c r="B28" s="303"/>
+      <c r="C28" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="267">
+        <v>43817</v>
+      </c>
+      <c r="E28" s="230">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F28" s="259">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="G28" s="230">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H28" s="259">
+        <f t="shared" si="5"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="I28" s="230">
+        <f t="shared" si="4"/>
+        <v>1.3888888888888916E-2</v>
+      </c>
+      <c r="J28" s="260">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="363"/>
-      <c r="B29" s="347"/>
-      <c r="C29" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="86">
+      <c r="A29" s="299"/>
+      <c r="B29" s="287" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="268">
+        <v>43714</v>
+      </c>
+      <c r="E29" s="250">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F29" s="269">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G29" s="250">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H29" s="269">
+        <f t="shared" si="5"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="I29" s="250">
+        <f t="shared" si="4"/>
+        <v>1.3888888888888815E-2</v>
+      </c>
+      <c r="J29" s="270">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="299"/>
+      <c r="B30" s="288"/>
+      <c r="C30" s="301" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="267">
         <v>43754</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E30" s="230">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F29" s="78">
+      <c r="F30" s="259">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G30" s="230">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H29" s="78">
-        <f>F29-E29</f>
+      <c r="H30" s="259">
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
-      <c r="I29" s="61">
-        <f>IF(H29&lt;=G29,G29-H29,H29-G29)</f>
+      <c r="I30" s="230">
+        <f t="shared" si="4"/>
         <v>0.11805555555555555</v>
       </c>
-      <c r="J29" s="79">
+      <c r="J30" s="260">
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="364"/>
-      <c r="B30" s="347"/>
-      <c r="C30" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="102">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="299"/>
+      <c r="B31" s="288"/>
+      <c r="C31" s="301"/>
+      <c r="D31" s="271">
         <v>43759</v>
       </c>
-      <c r="E30" s="101">
+      <c r="E31" s="272">
         <v>0.8125</v>
       </c>
-      <c r="F30" s="103">
+      <c r="F31" s="273">
         <v>0.81944444444444453</v>
       </c>
-      <c r="G30" s="105">
+      <c r="G31" s="87">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H30" s="104">
-        <f>F30-E30</f>
+      <c r="H31" s="230">
+        <f t="shared" si="5"/>
         <v>6.9444444444445308E-3</v>
       </c>
-      <c r="I30" s="43">
-        <f>IF(H30&lt;=G30,G30-H30,H30-G30)</f>
+      <c r="I31" s="230">
+        <f t="shared" si="4"/>
         <v>8.6736173798840355E-17</v>
       </c>
-      <c r="J30" s="80">
+      <c r="J31" s="260">
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="358" t="s">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="300"/>
+      <c r="B32" s="289"/>
+      <c r="C32" s="302"/>
+      <c r="D32" s="274">
+        <v>43818</v>
+      </c>
+      <c r="E32" s="275">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F32" s="276">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G32" s="277">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H32" s="230">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I32" s="230">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="J32" s="278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="359"/>
-      <c r="C31" s="360"/>
-      <c r="D31" s="361"/>
-      <c r="E31" s="361"/>
-      <c r="F31" s="359"/>
-      <c r="G31" s="2">
-        <f>SUM(G2:G30)</f>
-        <v>4.4409722222222241</v>
-      </c>
-      <c r="H31" s="3">
-        <f>SUM(H2:H30)</f>
-        <v>6.2881944444444438</v>
-      </c>
-      <c r="I31" s="3">
-        <f>SUM(H31-G31)</f>
-        <v>1.8472222222222197</v>
-      </c>
-      <c r="J31" s="248"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
-      <c r="J32" s="246"/>
-    </row>
-    <row r="33" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="90" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="247" t="s">
-        <v>7</v>
-      </c>
+      <c r="B33" s="291"/>
+      <c r="C33" s="292"/>
+      <c r="D33" s="293"/>
+      <c r="E33" s="293"/>
+      <c r="F33" s="291"/>
+      <c r="G33" s="1">
+        <f>SUM(G2:G31)</f>
+        <v>4.586805555555558</v>
+      </c>
+      <c r="H33" s="2">
+        <f>SUM(H2:H31)</f>
+        <v>6.4131944444444438</v>
+      </c>
+      <c r="I33" s="2">
+        <f>SUM(H33-G33)</f>
+        <v>1.8263888888888857</v>
+      </c>
+      <c r="J33" s="163"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="349" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="362" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="135">
-        <v>43774</v>
-      </c>
-      <c r="E34" s="136">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F34" s="136">
-        <v>0.75</v>
-      </c>
-      <c r="G34" s="137">
-        <v>3.125E-2</v>
-      </c>
-      <c r="H34" s="153">
-        <f>F34-E34</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="I34" s="138">
-        <f>IF(H34&lt;=G34,G34-H34,H34-G34)</f>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="J34" s="79">
-        <v>0.1</v>
-      </c>
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="J34" s="161"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="347"/>
-      <c r="B35" s="363"/>
-      <c r="C35" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="102">
-        <v>43777</v>
-      </c>
-      <c r="E35" s="103">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F35" s="103">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G35" s="152">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H35" s="154">
-        <v>0.125</v>
-      </c>
-      <c r="I35" s="139">
-        <f>IF(H35&lt;=G35,G35-H35,H35-G35)</f>
-        <v>4.1666666666666671E-2</v>
-      </c>
-      <c r="J35" s="80">
-        <v>0.6</v>
+    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="162" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="347"/>
-      <c r="B36" s="363"/>
-      <c r="C36" s="355" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="155">
-        <v>43781</v>
-      </c>
-      <c r="E36" s="156">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F36" s="156">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="G36" s="137">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H36" s="157">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="I36" s="138">
+      <c r="A36" s="287" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="294" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="69">
+        <v>43774</v>
+      </c>
+      <c r="E36" s="70">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F36" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="G36" s="71">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H36" s="86">
+        <f>F36-E36</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I36" s="72">
         <f>IF(H36&lt;=G36,G36-H36,H36-G36)</f>
-        <v>0.10416666666666669</v>
-      </c>
-      <c r="J36" s="79">
-        <v>0.8</v>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="J36" s="31">
+        <v>0.1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="347"/>
-      <c r="B37" s="363"/>
-      <c r="C37" s="355"/>
-      <c r="D37" s="155">
+      <c r="A37" s="288"/>
+      <c r="B37" s="295"/>
+      <c r="C37" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="50">
+        <v>43777</v>
+      </c>
+      <c r="E37" s="51">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F37" s="51">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G37" s="85">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H37" s="87">
+        <v>0.125</v>
+      </c>
+      <c r="I37" s="73">
+        <f>IF(H37&lt;=G37,G37-H37,H37-G37)</f>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="J37" s="32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="288"/>
+      <c r="B38" s="295"/>
+      <c r="C38" s="297" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="88">
+        <v>43781</v>
+      </c>
+      <c r="E38" s="89">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F38" s="89">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G38" s="71">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H38" s="90">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="I38" s="72">
+        <f>IF(H38&lt;=G38,G38-H38,H38-G38)</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="J38" s="31">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="288"/>
+      <c r="B39" s="295"/>
+      <c r="C39" s="297"/>
+      <c r="D39" s="88">
         <v>43782</v>
       </c>
-      <c r="E37" s="156">
+      <c r="E39" s="89">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F37" s="156">
+      <c r="F39" s="89">
         <v>0.625</v>
       </c>
-      <c r="G37" s="137">
+      <c r="G39" s="71">
         <v>3.125E-2</v>
       </c>
-      <c r="H37" s="157">
+      <c r="H39" s="90">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I37" s="138">
-        <f>IF(H37&lt;=G37,G37-H37,H37-G37)</f>
+      <c r="I39" s="72">
+        <f>IF(H39&lt;=G39,G39-H39,H39-G39)</f>
         <v>1.0416666666666664E-2</v>
       </c>
-      <c r="J37" s="79">
+      <c r="J39" s="31">
         <v>0.95</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="357"/>
-      <c r="B38" s="364"/>
-      <c r="C38" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="102">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="289"/>
+      <c r="B40" s="296"/>
+      <c r="C40" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="50">
         <v>43783</v>
       </c>
-      <c r="E38" s="103">
+      <c r="E40" s="51">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F38" s="103">
+      <c r="F40" s="51">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G38" s="152">
+      <c r="G40" s="85">
         <v>0.1388888888888889</v>
       </c>
-      <c r="H38" s="154">
+      <c r="H40" s="87">
         <v>0.125</v>
       </c>
-      <c r="I38" s="139">
-        <f>IF(H38&lt;=G38,G38-H38,H38-G38)</f>
+      <c r="I40" s="73">
+        <f>IF(H40&lt;=G40,G40-H40,H40-G40)</f>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="J38" s="80">
+      <c r="J40" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="358" t="s">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="359"/>
-      <c r="C39" s="360"/>
-      <c r="D39" s="361"/>
-      <c r="E39" s="361"/>
-      <c r="F39" s="359"/>
-      <c r="G39" s="2">
-        <f>SUM(G34:G38)</f>
+      <c r="B41" s="291"/>
+      <c r="C41" s="292"/>
+      <c r="D41" s="293"/>
+      <c r="E41" s="293"/>
+      <c r="F41" s="291"/>
+      <c r="G41" s="1">
+        <f>SUM(G36:G40)</f>
         <v>0.3263888888888889</v>
       </c>
-      <c r="H39" s="3">
-        <f>SUM(H34:H38)</f>
+      <c r="H41" s="2">
+        <f>SUM(H36:H40)</f>
         <v>0.47916666666666669</v>
       </c>
-      <c r="I39" s="3">
-        <f>SUM(H39-G39)</f>
+      <c r="I41" s="2">
+        <f>SUM(H41-G41)</f>
         <v>0.15277777777777779</v>
       </c>
-      <c r="J39" s="1"/>
+      <c r="J41" s="56"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="100" t="s">
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="220">
-        <f>G31+G39</f>
-        <v>4.7673611111111134</v>
-      </c>
-      <c r="B42" s="221">
-        <f>H31+H39</f>
-        <v>6.7673611111111107</v>
-      </c>
-      <c r="C42" s="222">
-        <f>ABS(G31-H31+G39-H39)</f>
-        <v>1.9999999999999976</v>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="140">
+        <f>G33+G41</f>
+        <v>4.9131944444444473</v>
+      </c>
+      <c r="B44" s="141">
+        <f>H33+H41</f>
+        <v>6.8923611111111107</v>
+      </c>
+      <c r="C44" s="142">
+        <f>ABS(G33-H33+G41-H41)</f>
+        <v>1.9791666666666636</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C36:C37"/>
+  <mergeCells count="21">
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B2:B4"/>
@@ -12670,6 +12540,13 @@
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12678,1303 +12555,1403 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE3FFA5-9891-4047-A9F0-49BD30A1A375}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:F32"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="23.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="93" t="s">
+      <c r="A1" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="376" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="368" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="279" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="286">
+      <c r="A2" s="336" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="320" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="175" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="182">
         <v>43727</v>
       </c>
-      <c r="E2" s="287">
+      <c r="E2" s="183">
         <v>0.72222222222222221</v>
       </c>
-      <c r="F2" s="287">
+      <c r="F2" s="183">
         <v>0.81944444444444453</v>
       </c>
-      <c r="G2" s="287">
+      <c r="G2" s="183">
         <v>6.25E-2</v>
       </c>
-      <c r="H2" s="287">
+      <c r="H2" s="183">
         <f>$F2-$E2</f>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="I2" s="287">
+      <c r="I2" s="183">
         <f>IF(H2&lt;=G2,G2-H2,H2-G2)</f>
         <v>3.4722222222222321E-2</v>
       </c>
-      <c r="J2" s="288" t="s">
-        <v>111</v>
+      <c r="J2" s="184">
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="377"/>
-      <c r="B3" s="368"/>
-      <c r="C3" s="280" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="289">
+      <c r="A3" s="337"/>
+      <c r="B3" s="320"/>
+      <c r="C3" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="185">
         <v>43728.486111111109</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="22">
         <v>0.4861111111111111</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="22">
         <v>0.51388888888888895</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="22">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="22">
         <f t="shared" ref="H3:H7" si="0">$F3-$E3</f>
         <v>2.7777777777777846E-2</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="22">
         <f t="shared" ref="I3:I11" si="1">IF(H3&lt;=G3,G3-H3,H3-G3)</f>
         <v>1.3888888888888819E-2</v>
       </c>
-      <c r="J3" s="238" t="s">
-        <v>111</v>
+      <c r="J3" s="157">
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="377"/>
-      <c r="B4" s="368"/>
-      <c r="C4" s="281" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="290">
+      <c r="A4" s="337"/>
+      <c r="B4" s="320"/>
+      <c r="C4" s="177" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="186">
         <v>43728.767361111109</v>
       </c>
-      <c r="E4" s="291">
+      <c r="E4" s="187">
         <v>0.76736111111111116</v>
       </c>
-      <c r="F4" s="291">
+      <c r="F4" s="187">
         <v>0.81944444444444453</v>
       </c>
-      <c r="G4" s="291">
+      <c r="G4" s="187">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H4" s="291">
+      <c r="H4" s="187">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="I4" s="291">
+      <c r="I4" s="187">
         <f t="shared" si="1"/>
         <v>1.0416666666666706E-2</v>
       </c>
-      <c r="J4" s="245" t="s">
-        <v>111</v>
-      </c>
-      <c r="L4" s="29"/>
+      <c r="J4" s="160">
+        <v>1</v>
+      </c>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="377"/>
-      <c r="B5" s="365" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="280" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="289">
+      <c r="A5" s="337"/>
+      <c r="B5" s="321" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="176" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="185">
         <v>43730.618055555555</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="22">
         <v>0.61805555555555558</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="22">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="22">
         <v>0.14583333333333334</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="22">
         <f t="shared" si="0"/>
         <v>0.11111111111111105</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="22">
         <f t="shared" si="1"/>
         <v>3.4722222222222293E-2</v>
       </c>
-      <c r="J5" s="238" t="s">
-        <v>111</v>
+      <c r="J5" s="157">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="377"/>
-      <c r="B6" s="366"/>
-      <c r="C6" s="282" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="292">
+      <c r="A6" s="337"/>
+      <c r="B6" s="322"/>
+      <c r="C6" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="188">
         <v>43733.618055555555</v>
       </c>
-      <c r="E6" s="293">
+      <c r="E6" s="189">
         <v>0.61805555555555558</v>
       </c>
-      <c r="F6" s="293">
+      <c r="F6" s="189">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G6" s="293">
+      <c r="G6" s="189">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H6" s="293">
+      <c r="H6" s="189">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="I6" s="293">
+      <c r="I6" s="189">
         <f t="shared" si="1"/>
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="J6" s="237" t="s">
-        <v>111</v>
+      <c r="J6" s="156">
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="377"/>
-      <c r="B7" s="369"/>
-      <c r="C7" s="283" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="294">
+      <c r="A7" s="337"/>
+      <c r="B7" s="323"/>
+      <c r="C7" s="179" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="190">
         <v>43740.6875</v>
       </c>
-      <c r="E7" s="295">
+      <c r="E7" s="191">
         <v>0.6875</v>
       </c>
-      <c r="F7" s="295">
+      <c r="F7" s="191">
         <v>0.72222222222222221</v>
       </c>
-      <c r="G7" s="295">
+      <c r="G7" s="191">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H7" s="295">
+      <c r="H7" s="191">
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="I7" s="295">
+      <c r="I7" s="191">
         <f t="shared" si="1"/>
         <v>6.9444444444444545E-3</v>
       </c>
-      <c r="J7" s="243" t="s">
-        <v>111</v>
+      <c r="J7" s="159">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="377"/>
-      <c r="B8" s="296" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="284" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="297">
+      <c r="A8" s="337"/>
+      <c r="B8" s="223" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="180" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="192">
         <v>43764</v>
       </c>
-      <c r="E8" s="298">
+      <c r="E8" s="193">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F8" s="298">
+      <c r="F8" s="193">
         <v>0.72222222222222221</v>
       </c>
-      <c r="G8" s="298">
+      <c r="G8" s="193">
         <v>0.125</v>
       </c>
-      <c r="H8" s="298">
+      <c r="H8" s="193">
         <f t="shared" ref="H8:H13" si="2">$F8-$E8</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="I8" s="298">
+      <c r="I8" s="193">
         <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="J8" s="299" t="s">
-        <v>111</v>
+      <c r="J8" s="194">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="377"/>
-      <c r="B9" s="365" t="s">
+      <c r="A9" s="337"/>
+      <c r="B9" s="321" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="168" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="300">
+      <c r="C9" s="314" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="195">
         <v>43764</v>
       </c>
-      <c r="E9" s="209">
+      <c r="E9" s="138">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F9" s="209">
+      <c r="F9" s="138">
         <v>0.73611111111111116</v>
       </c>
-      <c r="G9" s="209">
+      <c r="G9" s="138">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H9" s="209">
+      <c r="H9" s="138">
         <f t="shared" si="2"/>
         <v>3.4722222222222321E-2</v>
       </c>
-      <c r="I9" s="209">
+      <c r="I9" s="138">
         <f t="shared" si="1"/>
         <v>6.9444444444443434E-3</v>
       </c>
-      <c r="J9" s="236" t="s">
-        <v>111</v>
+      <c r="J9" s="155" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="377"/>
-      <c r="B10" s="366"/>
-      <c r="C10" s="282" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="292">
+      <c r="A10" s="337"/>
+      <c r="B10" s="322"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="188">
         <v>43764</v>
       </c>
-      <c r="E10" s="293">
+      <c r="E10" s="189">
         <v>0.76388888888888884</v>
       </c>
-      <c r="F10" s="293">
+      <c r="F10" s="189">
         <v>0.78472222222222221</v>
       </c>
-      <c r="G10" s="293">
+      <c r="G10" s="189">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="H10" s="293">
+      <c r="H10" s="189">
         <f t="shared" si="2"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="I10" s="293">
+      <c r="I10" s="189">
         <f t="shared" si="1"/>
         <v>6.9444444444444059E-3</v>
       </c>
-      <c r="J10" s="237" t="s">
-        <v>111</v>
+      <c r="J10" s="156">
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="377"/>
-      <c r="B11" s="369"/>
-      <c r="C11" s="301" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="294">
+      <c r="A11" s="337"/>
+      <c r="B11" s="323"/>
+      <c r="C11" s="316"/>
+      <c r="D11" s="190">
         <v>43765</v>
       </c>
-      <c r="E11" s="295">
+      <c r="E11" s="191">
         <v>0.75</v>
       </c>
-      <c r="F11" s="295">
+      <c r="F11" s="191">
         <v>0.75694444444444453</v>
       </c>
-      <c r="G11" s="295">
+      <c r="G11" s="191">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H11" s="295">
+      <c r="H11" s="191">
         <f t="shared" si="2"/>
         <v>6.9444444444445308E-3</v>
       </c>
-      <c r="I11" s="295">
+      <c r="I11" s="191">
         <f t="shared" si="1"/>
         <v>3.4722222222222134E-2</v>
       </c>
-      <c r="J11" s="243" t="s">
-        <v>111</v>
+      <c r="J11" s="159">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="377"/>
-      <c r="B12" s="376" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="282" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="292">
+      <c r="A12" s="337"/>
+      <c r="B12" s="330" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="178" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="188">
         <v>43757</v>
       </c>
-      <c r="E12" s="293">
+      <c r="E12" s="189">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F12" s="293">
+      <c r="F12" s="189">
         <v>0.68055555555555547</v>
       </c>
-      <c r="G12" s="293">
+      <c r="G12" s="189">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H12" s="293">
+      <c r="H12" s="189">
         <f t="shared" si="2"/>
         <v>0.17361111111111105</v>
       </c>
-      <c r="I12" s="293">
+      <c r="I12" s="189">
         <f>IF(H12&lt;=G12,G12-H12,H12-G12)</f>
         <v>9.0277777777777721E-2</v>
       </c>
-      <c r="J12" s="237" t="s">
-        <v>111</v>
+      <c r="J12" s="156">
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="377"/>
-      <c r="B13" s="377"/>
-      <c r="C13" s="280" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="289">
+      <c r="A13" s="337"/>
+      <c r="B13" s="331"/>
+      <c r="C13" s="176" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="185">
         <v>43766</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="22">
         <v>0.59722222222222221</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="22">
         <v>0.70138888888888884</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="22">
         <v>0.125</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="22">
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="22">
         <f>IF(H13&lt;=G13,G13-H13,H13-G13)</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J13" s="238" t="s">
-        <v>111</v>
+      <c r="J13" s="157">
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="377"/>
-      <c r="B14" s="377"/>
-      <c r="C14" s="216" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="302">
+      <c r="A14" s="337"/>
+      <c r="B14" s="331"/>
+      <c r="C14" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="196">
         <v>43779</v>
       </c>
-      <c r="E14" s="208">
+      <c r="E14" s="137">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F14" s="208">
+      <c r="F14" s="137">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G14" s="208">
+      <c r="G14" s="137">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H14" s="208">
+      <c r="H14" s="137">
         <f>$F14-$E14</f>
         <v>6.944444444444442E-2</v>
       </c>
-      <c r="I14" s="208">
+      <c r="I14" s="137">
         <f>IF(H14&lt;=G14,G14-H14,H14-G14)</f>
         <v>2.7777777777777755E-2</v>
       </c>
-      <c r="J14" s="303" t="s">
-        <v>111</v>
+      <c r="J14" s="280">
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="377"/>
-      <c r="B15" s="377"/>
-      <c r="C15" s="280" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="289">
+      <c r="A15" s="337"/>
+      <c r="B15" s="331"/>
+      <c r="C15" s="176" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="185">
         <v>43781</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="22">
         <v>0.88888888888888884</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="22">
         <v>0.99305555555555547</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="22">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="22">
         <f>$F15-$E15</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="22">
         <f>IF(H15&lt;=G15,G15-H15,H15-G15)</f>
         <v>2.0833333333333301E-2</v>
       </c>
-      <c r="J15" s="238" t="s">
-        <v>111</v>
+      <c r="J15" s="157">
+        <v>0.85</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="377"/>
-      <c r="B16" s="378"/>
-      <c r="C16" s="304" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="297">
+      <c r="A16" s="337"/>
+      <c r="B16" s="332"/>
+      <c r="C16" s="197" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="192">
         <v>43782</v>
       </c>
-      <c r="E16" s="298">
+      <c r="E16" s="193">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F16" s="298">
+      <c r="F16" s="193">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G16" s="298">
+      <c r="G16" s="193">
         <v>0.1388888888888889</v>
       </c>
-      <c r="H16" s="298">
+      <c r="H16" s="193">
         <f>$F16-$E16</f>
         <v>0.23611111111111105</v>
       </c>
-      <c r="I16" s="298">
+      <c r="I16" s="193">
         <f>IF(H16&lt;=G16,G16-H16,H16-G16)</f>
         <v>9.7222222222222154E-2</v>
       </c>
-      <c r="J16" s="305" t="s">
-        <v>111</v>
+      <c r="J16" s="198">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="377"/>
-      <c r="B17" s="365" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="289">
+      <c r="A17" s="337"/>
+      <c r="B17" s="339" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="185">
         <v>43777</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="22">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="22">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="22">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H17" s="306">
-        <f t="shared" ref="H17:H26" si="3">$F17-$E17</f>
+      <c r="H17" s="199">
+        <f t="shared" ref="H17:H25" si="3">$F17-$E17</f>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="22">
         <f t="shared" ref="I17:I22" si="4">IF(H17&lt;=G17,G17-H17,H17-G17)</f>
         <v>0.13194444444444445</v>
       </c>
-      <c r="J17" s="307" t="s">
-        <v>111</v>
+      <c r="J17" s="200">
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="377"/>
-      <c r="B18" s="366"/>
-      <c r="C18" s="282" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="292">
+      <c r="A18" s="337"/>
+      <c r="B18" s="340"/>
+      <c r="C18" s="178" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="188">
         <v>43778</v>
       </c>
-      <c r="E18" s="293">
+      <c r="E18" s="189">
         <v>0.375</v>
       </c>
-      <c r="F18" s="293">
+      <c r="F18" s="189">
         <v>0.40277777777777773</v>
       </c>
-      <c r="G18" s="293">
+      <c r="G18" s="189">
         <v>0.125</v>
       </c>
-      <c r="H18" s="293">
+      <c r="H18" s="189">
         <f t="shared" si="3"/>
         <v>2.7777777777777735E-2</v>
       </c>
-      <c r="I18" s="293">
+      <c r="I18" s="189">
         <f t="shared" si="4"/>
         <v>9.7222222222222265E-2</v>
       </c>
-      <c r="J18" s="308" t="s">
-        <v>111</v>
+      <c r="J18" s="156">
+        <v>0.45</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="377"/>
-      <c r="B19" s="366"/>
-      <c r="C19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="289">
+      <c r="A19" s="337"/>
+      <c r="B19" s="340"/>
+      <c r="C19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="185">
         <v>43786</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="22">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="22">
         <v>0.77777777777777779</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="22">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="22">
         <f t="shared" si="3"/>
         <v>0.13194444444444442</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="22">
         <f t="shared" si="4"/>
         <v>4.8611111111111091E-2</v>
       </c>
-      <c r="J19" s="309" t="s">
-        <v>111</v>
+      <c r="J19" s="157">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="377"/>
-      <c r="B20" s="366"/>
-      <c r="C20" s="282" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="292">
+      <c r="A20" s="337"/>
+      <c r="B20" s="340"/>
+      <c r="C20" s="178" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="188">
         <v>43787</v>
       </c>
-      <c r="E20" s="293">
+      <c r="E20" s="189">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F20" s="293">
+      <c r="F20" s="189">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G20" s="293">
+      <c r="G20" s="189">
         <v>0.20833333333333334</v>
       </c>
-      <c r="H20" s="293">
+      <c r="H20" s="189">
         <f t="shared" si="3"/>
         <v>0.24305555555555558</v>
       </c>
-      <c r="I20" s="293">
+      <c r="I20" s="189">
         <f t="shared" si="4"/>
         <v>3.4722222222222238E-2</v>
       </c>
-      <c r="J20" s="237" t="s">
-        <v>111</v>
+      <c r="J20" s="156">
+        <v>0.85</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="377"/>
-      <c r="B21" s="366"/>
-      <c r="C21" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="289">
+      <c r="A21" s="337"/>
+      <c r="B21" s="340"/>
+      <c r="C21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="185">
         <v>43788</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="22">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="22">
         <v>0.40972222222222227</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="22">
         <v>0.125</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="22">
         <f t="shared" si="3"/>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="22">
         <f t="shared" ref="I21:I23" si="5">IF(H21&lt;=G21,G21-H21,H21-G21)</f>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="J21" s="309" t="s">
-        <v>111</v>
+      <c r="J21" s="157">
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="377"/>
-      <c r="B22" s="366"/>
-      <c r="C22" s="282" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="292">
+      <c r="A22" s="337"/>
+      <c r="B22" s="340"/>
+      <c r="C22" s="178" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="188">
         <v>43792</v>
       </c>
-      <c r="E22" s="293">
+      <c r="E22" s="189">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F22" s="293">
+      <c r="F22" s="189">
         <v>0.85416666666666663</v>
       </c>
-      <c r="G22" s="293">
+      <c r="G22" s="189">
         <v>0.20833333333333334</v>
       </c>
-      <c r="H22" s="293">
+      <c r="H22" s="189">
         <f t="shared" si="3"/>
         <v>0.39583333333333331</v>
       </c>
-      <c r="I22" s="293">
+      <c r="I22" s="189">
         <f t="shared" si="4"/>
         <v>0.18749999999999997</v>
       </c>
-      <c r="J22" s="237" t="s">
-        <v>111</v>
+      <c r="J22" s="156">
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="377"/>
-      <c r="B23" s="366"/>
-      <c r="C23" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="289">
+      <c r="A23" s="337"/>
+      <c r="B23" s="340"/>
+      <c r="C23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="185">
         <v>43793</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="22">
         <v>0.38541666666666669</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="22">
         <v>0.52777777777777779</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="22">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="22">
         <f t="shared" si="3"/>
         <v>0.1423611111111111</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="22">
         <f t="shared" si="5"/>
         <v>5.9027777777777776E-2</v>
       </c>
-      <c r="J23" s="309" t="s">
-        <v>111</v>
+      <c r="J23" s="157">
+        <v>0.99</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="377"/>
-      <c r="B24" s="366"/>
-      <c r="C24" s="282" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="292">
+      <c r="A24" s="337"/>
+      <c r="B24" s="342"/>
+      <c r="C24" s="177" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="186">
         <v>43793</v>
       </c>
-      <c r="E24" s="293">
+      <c r="E24" s="187">
         <v>0.65277777777777779</v>
       </c>
-      <c r="F24" s="293">
+      <c r="F24" s="187">
         <v>0.75694444444444453</v>
       </c>
-      <c r="G24" s="293">
+      <c r="G24" s="187">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H24" s="293">
+      <c r="H24" s="187">
         <f t="shared" si="3"/>
         <v>0.10416666666666674</v>
       </c>
-      <c r="I24" s="293">
+      <c r="I24" s="187">
         <f t="shared" ref="I24" si="6">IF(H24&lt;=G24,G24-H24,H24-G24)</f>
         <v>2.0833333333333412E-2</v>
       </c>
-      <c r="J24" s="237" t="s">
-        <v>111</v>
+      <c r="J24" s="160">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="377"/>
-      <c r="B25" s="369"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="294"/>
-      <c r="E25" s="295"/>
-      <c r="F25" s="295"/>
-      <c r="G25" s="295"/>
-      <c r="H25" s="295">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="295">
-        <f t="shared" ref="I25:I26" si="7">IF(H25&lt;=G25,G25-H25,H25-G25)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="310" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="377"/>
-      <c r="B26" s="379" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="282" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="292">
+      <c r="A25" s="337"/>
+      <c r="B25" s="333" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="178" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="188">
         <v>43798</v>
       </c>
-      <c r="E26" s="293">
+      <c r="E25" s="189">
         <v>0.63888888888888895</v>
       </c>
-      <c r="F26" s="293">
+      <c r="F25" s="189">
         <v>0.90277777777777779</v>
       </c>
-      <c r="G26" s="293">
+      <c r="G25" s="189">
         <v>0.20833333333333334</v>
       </c>
-      <c r="H26" s="293">
+      <c r="H25" s="189">
         <f t="shared" si="3"/>
         <v>0.26388888888888884</v>
       </c>
-      <c r="I26" s="293">
-        <f t="shared" si="7"/>
+      <c r="I25" s="189">
+        <f t="shared" ref="I25" si="7">IF(H25&lt;=G25,G25-H25,H25-G25)</f>
         <v>5.5555555555555497E-2</v>
       </c>
-      <c r="J26" s="237" t="s">
+      <c r="J25" s="156">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="337"/>
+      <c r="B26" s="334"/>
+      <c r="C26" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="185">
+        <v>43799</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F26" s="22">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G26" s="22">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" ref="H26:H34" si="8">$F26-$E26</f>
+        <v>0.43750000000000006</v>
+      </c>
+      <c r="I26" s="22">
+        <f>IF(H26&lt;=G26,G26-H26,H26-G26)</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="J26" s="157">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="337"/>
+      <c r="B27" s="334"/>
+      <c r="C27" s="178" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="188">
+        <v>43799</v>
+      </c>
+      <c r="E27" s="189">
+        <v>43799.979166666664</v>
+      </c>
+      <c r="F27" s="189">
+        <v>43800.076388888891</v>
+      </c>
+      <c r="G27" s="189">
+        <v>0.125</v>
+      </c>
+      <c r="H27" s="189">
+        <f t="shared" si="8"/>
+        <v>9.7222222226264421E-2</v>
+      </c>
+      <c r="I27" s="189">
+        <f t="shared" ref="I27" si="9">IF(H27&lt;=G27,G27-H27,H27-G27)</f>
+        <v>2.7777777773735579E-2</v>
+      </c>
+      <c r="J27" s="156">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="337"/>
+      <c r="B28" s="334"/>
+      <c r="C28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="185">
+        <v>43800</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F28" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G28" s="22">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H28" s="22">
+        <f t="shared" si="8"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="I28" s="22">
+        <f t="shared" ref="I28:I35" si="10">IF(H28&lt;=G28,G28-H28,H28-G28)</f>
+        <v>2.0833333333333329E-2</v>
+      </c>
+      <c r="J28" s="157">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="337"/>
+      <c r="B29" s="334"/>
+      <c r="C29" s="178" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="188">
+        <v>43800</v>
+      </c>
+      <c r="E29" s="189">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F29" s="189">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="G29" s="189">
+        <v>0.375</v>
+      </c>
+      <c r="H29" s="189">
+        <f t="shared" si="8"/>
+        <v>0.4722222222222221</v>
+      </c>
+      <c r="I29" s="189">
+        <f t="shared" si="10"/>
+        <v>9.7222222222222099E-2</v>
+      </c>
+      <c r="J29" s="156">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="337"/>
+      <c r="B30" s="335"/>
+      <c r="C30" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="190">
+        <v>43801</v>
+      </c>
+      <c r="E30" s="191">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F30" s="191">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G30" s="222">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H30" s="191">
+        <f t="shared" si="8"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="I30" s="191">
+        <f t="shared" si="10"/>
+        <v>0.11111111111111113</v>
+      </c>
+      <c r="J30" s="279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="337"/>
+      <c r="B31" s="339" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="178" t="s">
         <v>111</v>
       </c>
+      <c r="D31" s="188">
+        <v>43811</v>
+      </c>
+      <c r="E31" s="189">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F31" s="189">
+        <v>0.875</v>
+      </c>
+      <c r="G31" s="189">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="H31" s="189">
+        <f t="shared" si="8"/>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="I31" s="189">
+        <f t="shared" si="10"/>
+        <v>2.0833333333333343E-2</v>
+      </c>
+      <c r="J31" s="156">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="377"/>
-      <c r="B27" s="379"/>
-      <c r="C27" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="289">
-        <v>43799</v>
-      </c>
-      <c r="E27" s="32">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F27" s="32">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="337"/>
+      <c r="B32" s="340"/>
+      <c r="C32" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="185">
+        <v>43813</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="H32" s="22">
+        <f t="shared" si="8"/>
+        <v>0.23611111111111116</v>
+      </c>
+      <c r="I32" s="22">
+        <f t="shared" si="10"/>
+        <v>5.5555555555555608E-2</v>
+      </c>
+      <c r="J32" s="157">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="337"/>
+      <c r="B33" s="340"/>
+      <c r="C33" s="178" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="188">
+        <v>43816</v>
+      </c>
+      <c r="E33" s="189">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F33" s="189">
         <v>0.89583333333333337</v>
       </c>
-      <c r="G27" s="32">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H27" s="32">
-        <f>$F27-$E27</f>
-        <v>0.43750000000000006</v>
-      </c>
-      <c r="I27" s="32">
-        <f>IF(H27&lt;=G27,G27-H27,H27-G27)</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="J27" s="309" t="s">
-        <v>111</v>
+      <c r="G33" s="189">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="H33" s="189">
+        <f t="shared" si="8"/>
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="I33" s="189">
+        <f t="shared" si="10"/>
+        <v>0.18750000000000003</v>
+      </c>
+      <c r="J33" s="156">
+        <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="377"/>
-      <c r="B28" s="379"/>
-      <c r="C28" s="282" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="292">
-        <v>43799</v>
-      </c>
-      <c r="E28" s="293">
-        <v>43799.979166666664</v>
-      </c>
-      <c r="F28" s="293">
-        <v>43800.076388888891</v>
-      </c>
-      <c r="G28" s="293">
-        <v>0.125</v>
-      </c>
-      <c r="H28" s="293">
-        <f>$F28-$E28</f>
-        <v>9.7222222226264421E-2</v>
-      </c>
-      <c r="I28" s="293">
-        <f t="shared" ref="I28" si="8">IF(H28&lt;=G28,G28-H28,H28-G28)</f>
-        <v>2.7777777773735579E-2</v>
-      </c>
-      <c r="J28" s="237" t="s">
-        <v>111</v>
+    <row r="34" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="338"/>
+      <c r="B34" s="341"/>
+      <c r="C34" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="185">
+        <v>43817</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0.4375</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="G34" s="22">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H34" s="22">
+        <f t="shared" si="8"/>
+        <v>0.29861111111111116</v>
+      </c>
+      <c r="I34" s="22">
+        <f t="shared" si="10"/>
+        <v>9.0277777777777818E-2</v>
+      </c>
+      <c r="J34" s="157">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="377"/>
-      <c r="B29" s="379"/>
-      <c r="C29" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="289">
-        <v>43800</v>
-      </c>
-      <c r="E29" s="32">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="F29" s="32">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="G29" s="32">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="H29" s="32">
-        <f>$F29-$E29</f>
-        <v>4.8611111111111105E-2</v>
-      </c>
-      <c r="I29" s="32">
-        <f>IF(H29&lt;=G29,G29-H29,H29-G29)</f>
-        <v>2.0833333333333329E-2</v>
-      </c>
-      <c r="J29" s="309" t="s">
-        <v>111</v>
-      </c>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="327" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="325"/>
+      <c r="C35" s="324"/>
+      <c r="D35" s="326"/>
+      <c r="E35" s="326"/>
+      <c r="F35" s="325"/>
+      <c r="G35" s="4">
+        <f>SUM(G2:G34)</f>
+        <v>4.2013888888888884</v>
+      </c>
+      <c r="H35" s="4">
+        <f>SUM(H2:H34)</f>
+        <v>5.0277777777818216</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="10"/>
+        <v>0.82638888889293316</v>
+      </c>
+      <c r="J35" s="201"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="377"/>
-      <c r="B30" s="379"/>
-      <c r="C30" s="282" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="292">
-        <v>43800</v>
-      </c>
-      <c r="E30" s="293">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F30" s="293">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="G30" s="293">
-        <v>0.375</v>
-      </c>
-      <c r="H30" s="293">
-        <f>$F30-$E30</f>
-        <v>0.4722222222222221</v>
-      </c>
-      <c r="I30" s="293">
-        <f>IF(H30&lt;=G30,G30-H30,H30-G30)</f>
-        <v>9.7222222222222099E-2</v>
-      </c>
-      <c r="J30" s="237" t="s">
-        <v>111</v>
-      </c>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="158"/>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="377"/>
-      <c r="B31" s="380"/>
-      <c r="C31" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="289">
-        <v>43801</v>
-      </c>
-      <c r="E31" s="32">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="F31" s="32">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="G31" s="32">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H31" s="32">
-        <f>$F31-$E31</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="I31" s="32">
-        <f>IF(H31&lt;=G31,G31-H31,H31-G31)</f>
-        <v>0.11111111111111113</v>
-      </c>
-      <c r="J31" s="309" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="373" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="371"/>
-      <c r="C32" s="370"/>
-      <c r="D32" s="372"/>
-      <c r="E32" s="372"/>
-      <c r="F32" s="371"/>
-      <c r="G32" s="6">
-        <f>SUM(G2:G31)</f>
-        <v>3.5277777777777777</v>
-      </c>
-      <c r="H32" s="6">
-        <f>SUM(H2:H31)</f>
-        <v>4.000000000004043</v>
-      </c>
-      <c r="I32" s="6">
-        <f>IF(H32&lt;=G32,G32-H32,H32-G32)</f>
-        <v>0.47222222222626531</v>
-      </c>
-      <c r="J32" s="311"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J33" s="240"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="93" t="s">
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="93" t="s">
+      <c r="D37" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="93" t="s">
+      <c r="E37" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="93" t="s">
+      <c r="F37" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="93" t="s">
+      <c r="G37" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="93" t="s">
+      <c r="H37" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="93" t="s">
+      <c r="I37" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="312" t="s">
+      <c r="J37" s="202" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="365" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="374" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="313" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="300">
-        <v>43723</v>
-      </c>
-      <c r="E35" s="209">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="F35" s="18">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G35" s="209">
-        <v>6.25E-2</v>
-      </c>
-      <c r="H35" s="209">
-        <f>$F35-$E35</f>
-        <v>6.944444444444442E-2</v>
-      </c>
-      <c r="I35" s="209">
-        <f>IF(H35&lt;=G35,G35-H35,H35-G35)</f>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="J35" s="314">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="366"/>
-      <c r="B36" s="374"/>
-      <c r="C36" s="315" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="292">
-        <v>43724</v>
-      </c>
-      <c r="E36" s="293">
-        <v>0.4375</v>
-      </c>
-      <c r="F36" s="16">
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="G36" s="293">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H36" s="293">
-        <f>$F36-$E36</f>
-        <v>6.944444444444442E-2</v>
-      </c>
-      <c r="I36" s="293">
-        <f t="shared" ref="I36:I41" si="9">IF(H36&lt;=G36,G36-H36,H36-G36)</f>
-        <v>2.7777777777777755E-2</v>
-      </c>
-      <c r="J36" s="316">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="366"/>
-      <c r="B37" s="375"/>
-      <c r="C37" s="317" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="289">
-        <v>43734.756944444445</v>
-      </c>
-      <c r="E37" s="32">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="F37" s="13">
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="G37" s="32">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H37" s="32">
-        <f t="shared" ref="H37:H41" si="10">$F37-$E37</f>
-        <v>4.8611111111110938E-2</v>
-      </c>
-      <c r="I37" s="32">
-        <f t="shared" si="9"/>
-        <v>6.9444444444442741E-3</v>
-      </c>
-      <c r="J37" s="318">
-        <v>0.87</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="366"/>
-      <c r="B38" s="375"/>
-      <c r="C38" s="315" t="s">
+      <c r="A38" s="317" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="292">
-        <v>43753.777777777781</v>
-      </c>
-      <c r="E38" s="293">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F38" s="16">
-        <v>0.84722222222222221</v>
-      </c>
-      <c r="G38" s="293">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="H38" s="293">
+      <c r="B38" s="328" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="195">
+        <v>43723</v>
+      </c>
+      <c r="E38" s="138">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G38" s="138">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H38" s="138">
         <f>$F38-$E38</f>
         <v>6.944444444444442E-2</v>
       </c>
-      <c r="I38" s="293">
+      <c r="I38" s="138">
         <f>IF(H38&lt;=G38,G38-H38,H38-G38)</f>
-        <v>4.8611111111111091E-2</v>
-      </c>
-      <c r="J38" s="319">
-        <v>0.9</v>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="J38" s="204">
+        <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="366"/>
-      <c r="B39" s="375"/>
-      <c r="C39" s="280" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="289">
-        <v>43761</v>
-      </c>
-      <c r="E39" s="32">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F39" s="13">
-        <v>0.90277777777777779</v>
-      </c>
-      <c r="G39" s="32">
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="318"/>
+      <c r="B39" s="328"/>
+      <c r="C39" s="205" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="188">
+        <v>43724</v>
+      </c>
+      <c r="E39" s="189">
+        <v>0.4375</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="G39" s="189">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="189">
         <f>$F39-$E39</f>
         <v>6.944444444444442E-2</v>
       </c>
-      <c r="I39" s="32">
-        <f>IF(H39&lt;=G39,G39-H39,H39-G39)</f>
+      <c r="I39" s="189">
+        <f t="shared" ref="I39:I44" si="11">IF(H39&lt;=G39,G39-H39,H39-G39)</f>
         <v>2.7777777777777755E-2</v>
       </c>
-      <c r="J39" s="318">
-        <v>1</v>
+      <c r="J39" s="206">
+        <v>0.85</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="366"/>
-      <c r="B40" s="375"/>
-      <c r="C40" s="284" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="297">
+      <c r="A40" s="318"/>
+      <c r="B40" s="329"/>
+      <c r="C40" s="207" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="185">
+        <v>43734.756944444445</v>
+      </c>
+      <c r="E40" s="22">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="G40" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H40" s="22">
+        <f t="shared" ref="H40:H44" si="12">$F40-$E40</f>
+        <v>4.8611111111110938E-2</v>
+      </c>
+      <c r="I40" s="22">
+        <f t="shared" si="11"/>
+        <v>6.9444444444442741E-3</v>
+      </c>
+      <c r="J40" s="208">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="318"/>
+      <c r="B41" s="329"/>
+      <c r="C41" s="205" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="188">
+        <v>43753.777777777781</v>
+      </c>
+      <c r="E41" s="189">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="G41" s="189">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H41" s="189">
+        <f>$F41-$E41</f>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="I41" s="189">
+        <f>IF(H41&lt;=G41,G41-H41,H41-G41)</f>
+        <v>4.8611111111111091E-2</v>
+      </c>
+      <c r="J41" s="209">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="318"/>
+      <c r="B42" s="329"/>
+      <c r="C42" s="176" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="185">
+        <v>43761</v>
+      </c>
+      <c r="E42" s="22">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="G42" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H42" s="22">
+        <f>$F42-$E42</f>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="I42" s="22">
+        <f>IF(H42&lt;=G42,G42-H42,H42-G42)</f>
+        <v>2.7777777777777755E-2</v>
+      </c>
+      <c r="J42" s="208">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="318"/>
+      <c r="B43" s="329"/>
+      <c r="C43" s="180" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="192">
         <v>43776</v>
       </c>
-      <c r="E40" s="298">
+      <c r="E43" s="193">
         <v>0.3611111111111111</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F43" s="16">
         <v>0.44791666666666669</v>
       </c>
-      <c r="G40" s="298">
+      <c r="G43" s="193">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="H40" s="298">
-        <f>$F40-$E40</f>
+      <c r="H43" s="193">
+        <f>$F43-$E43</f>
         <v>8.680555555555558E-2</v>
       </c>
-      <c r="I40" s="298">
-        <f>IF(H40&lt;=G40,G40-H40,H40-G40)</f>
+      <c r="I43" s="193">
+        <f>IF(H43&lt;=G43,G43-H43,H43-G43)</f>
         <v>1.7361111111111147E-2</v>
       </c>
-      <c r="J40" s="320">
+      <c r="J43" s="210">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="367"/>
-      <c r="B41" s="321" t="s">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="319"/>
+      <c r="B44" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="317" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="289">
+      <c r="C44" s="207" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="185">
         <v>43725.555555555555</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E44" s="22">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F44" s="11">
         <v>0.63194444444444442</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G44" s="22">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H41" s="32">
-        <f t="shared" si="10"/>
+      <c r="H44" s="22">
+        <f t="shared" si="12"/>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="I41" s="32">
-        <f t="shared" si="9"/>
+      <c r="I44" s="22">
+        <f t="shared" si="11"/>
         <v>6.9444444444444892E-3</v>
       </c>
-      <c r="J41" s="322">
-        <v>0.2</v>
+      <c r="J44" s="212">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="370" t="s">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="324" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="371"/>
-      <c r="C42" s="323"/>
-      <c r="D42" s="324"/>
-      <c r="E42" s="324"/>
-      <c r="F42" s="325"/>
-      <c r="G42" s="6">
-        <f>SUM(G35:G41)</f>
+      <c r="B45" s="325"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="214"/>
+      <c r="F45" s="215"/>
+      <c r="G45" s="4">
+        <f>SUM(G38:G44)</f>
         <v>0.36111111111111105</v>
       </c>
-      <c r="H42" s="6">
-        <f>SUM(H35:H41)</f>
+      <c r="H45" s="4">
+        <f>SUM(H38:H44)</f>
         <v>0.48958333333333304</v>
       </c>
-      <c r="I42" s="6">
-        <f>IF(H42&lt;=G42,G42-H42,H42-G42)</f>
+      <c r="I45" s="4">
+        <f>IF(H45&lt;=G45,G45-H45,H45-G45)</f>
         <v>0.12847222222222199</v>
       </c>
-      <c r="J42" s="326"/>
+      <c r="J45" s="216"/>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="327" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="328" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="329" t="s">
+    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="217" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="218" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="219" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="330">
-        <f>G42+G32</f>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="B46" s="285">
-        <f>H42+H32</f>
-        <v>4.489583333337376</v>
-      </c>
-      <c r="C46" s="331">
-        <f>ABS(G32-H32+G42-H42)</f>
-        <v>0.6006944444484873</v>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="220">
+        <f>G45+G35</f>
+        <v>4.5624999999999991</v>
+      </c>
+      <c r="B49" s="181">
+        <f>H45+H35</f>
+        <v>5.5173611111151546</v>
+      </c>
+      <c r="C49" s="221">
+        <f>ABS(G35-H35+G45-H45)</f>
+        <v>0.95486111111515515</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A35:A41"/>
+  <mergeCells count="14">
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A38:A44"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="B38:B43"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A2:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B17:B24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -13991,733 +13968,733 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="4"/>
-    <col min="5" max="5" width="10.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="4"/>
-    <col min="10" max="10" width="23.28515625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="22.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="10.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="3"/>
+    <col min="10" max="10" width="23.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="96" t="s">
+      <c r="A1" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="376" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="376" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="169" t="s">
+      <c r="A2" s="343" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="343" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>43726</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>0.8125</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <f>$F2-$E2</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="8">
         <f>IF($H2&lt;=$G2,$G2-$H2,$H2-$G2)</f>
         <v>4.163336342344337E-17</v>
       </c>
-      <c r="J2" s="199">
+      <c r="J2" s="131">
         <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="377"/>
-      <c r="B3" s="377"/>
-      <c r="C3" s="88" t="s">
+      <c r="A3" s="344"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>43727</v>
       </c>
-      <c r="E3" s="174">
+      <c r="E3" s="106">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G3" s="174">
+      <c r="G3" s="106">
         <v>3.125E-2</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <f>$F3-$E3</f>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="I3" s="174">
+      <c r="I3" s="106">
         <f t="shared" ref="I3:I11" si="0">IF($H3&lt;=$G3,$G3-$H3,$H3-$G3)</f>
         <v>1.736111111111116E-2</v>
       </c>
-      <c r="J3" s="200">
+      <c r="J3" s="132">
         <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="377"/>
-      <c r="B4" s="378"/>
-      <c r="C4" s="170" t="s">
+      <c r="A4" s="344"/>
+      <c r="B4" s="345"/>
+      <c r="C4" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="176">
+      <c r="D4" s="108">
         <v>43730</v>
       </c>
-      <c r="E4" s="173">
+      <c r="E4" s="105">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="12">
         <v>0.56944444444444442</v>
       </c>
-      <c r="G4" s="173">
+      <c r="G4" s="105">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="12">
         <f t="shared" ref="H4:H10" si="1">$F4-$E4</f>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="I4" s="173">
+      <c r="I4" s="105">
         <f t="shared" si="0"/>
         <v>6.9444444444443851E-3</v>
       </c>
-      <c r="J4" s="201">
+      <c r="J4" s="133">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="377"/>
-      <c r="B5" s="365" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="171" t="s">
+      <c r="A5" s="344"/>
+      <c r="B5" s="317" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="253">
+      <c r="D5" s="168">
         <v>43725</v>
       </c>
-      <c r="E5" s="254">
+      <c r="E5" s="169">
         <v>0.73611111111111116</v>
       </c>
-      <c r="F5" s="255">
+      <c r="F5" s="170">
         <v>0.82638888888888884</v>
       </c>
-      <c r="G5" s="256">
+      <c r="G5" s="171">
         <v>0.125</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="13">
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="I5" s="256">
+      <c r="I5" s="171">
         <f t="shared" si="0"/>
         <v>3.4722222222222321E-2</v>
       </c>
-      <c r="J5" s="257">
+      <c r="J5" s="172">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="377"/>
-      <c r="B6" s="366"/>
-      <c r="C6" s="172" t="s">
+      <c r="A6" s="344"/>
+      <c r="B6" s="318"/>
+      <c r="C6" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="176">
+      <c r="D6" s="108">
         <v>43725</v>
       </c>
-      <c r="E6" s="173">
+      <c r="E6" s="105">
         <v>43725.958333333336</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>43726.083333333336</v>
       </c>
-      <c r="G6" s="173">
+      <c r="G6" s="105">
         <v>0.20833333333333334</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="12">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="I6" s="173">
+      <c r="I6" s="105">
         <f t="shared" si="0"/>
         <v>8.3333333333333343E-2</v>
       </c>
-      <c r="J6" s="201">
+      <c r="J6" s="133">
         <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="377"/>
-      <c r="B7" s="381"/>
-      <c r="C7" s="88" t="s">
+      <c r="A7" s="344"/>
+      <c r="B7" s="346"/>
+      <c r="C7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>43731</v>
       </c>
-      <c r="E7" s="174">
+      <c r="E7" s="106">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>0.82638888888888884</v>
       </c>
-      <c r="G7" s="174">
+      <c r="G7" s="106">
         <v>0.125</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <f t="shared" si="1"/>
         <v>0.27083333333333326</v>
       </c>
-      <c r="I7" s="174">
+      <c r="I7" s="106">
         <f t="shared" si="0"/>
         <v>0.14583333333333326</v>
       </c>
-      <c r="J7" s="200">
+      <c r="J7" s="132">
         <v>0.85</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="377"/>
-      <c r="B8" s="381"/>
-      <c r="C8" s="84" t="s">
+      <c r="A8" s="344"/>
+      <c r="B8" s="346"/>
+      <c r="C8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="14">
         <v>43367</v>
       </c>
-      <c r="E8" s="175">
+      <c r="E8" s="107">
         <v>9.375E-2</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="15">
         <v>0.17291666666666669</v>
       </c>
-      <c r="G8" s="175">
+      <c r="G8" s="107">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="12">
         <f t="shared" si="1"/>
         <v>7.9166666666666691E-2</v>
       </c>
-      <c r="I8" s="175">
+      <c r="I8" s="107">
         <f>IF($H8&lt;=$G8,$G8-$H8,$H8-$G8)</f>
         <v>4.166666666666638E-3</v>
       </c>
-      <c r="J8" s="202">
+      <c r="J8" s="134">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="377"/>
-      <c r="B9" s="382"/>
-      <c r="C9" s="177" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="178">
+      <c r="A9" s="344"/>
+      <c r="B9" s="347"/>
+      <c r="C9" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="110">
         <v>43757</v>
       </c>
-      <c r="E9" s="179">
+      <c r="E9" s="111">
         <v>0.52777777777777779</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="17">
         <v>0.68055555555555547</v>
       </c>
-      <c r="G9" s="179">
+      <c r="G9" s="111">
         <v>0.125</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="17">
         <f>$F9-$E9</f>
         <v>0.15277777777777768</v>
       </c>
-      <c r="I9" s="179">
+      <c r="I9" s="111">
         <f>IF($H9&lt;=$G9,$G9-$H9,$H9-$G9)</f>
         <v>2.7777777777777679E-2</v>
       </c>
-      <c r="J9" s="203">
+      <c r="J9" s="135">
         <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="168" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="167" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="84" t="s">
+      <c r="A10" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="14">
         <v>43732</v>
       </c>
-      <c r="E10" s="175">
+      <c r="E10" s="107">
         <v>0.625</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="15">
         <v>1.0625</v>
       </c>
-      <c r="G10" s="175">
+      <c r="G10" s="107">
         <v>0.22916666666666666</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="15">
         <f t="shared" si="1"/>
         <v>0.4375</v>
       </c>
-      <c r="I10" s="175">
+      <c r="I10" s="107">
         <f t="shared" si="0"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="J10" s="202">
+      <c r="J10" s="134">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="258" t="s">
+      <c r="A11" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="166"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="7">
+      <c r="B11" s="98"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="5">
         <f>SUM(G2:G10)</f>
         <v>1.0520833333333335</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <f>SUM(H2:H10)</f>
         <v>1.3361111111111108</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>0.28402777777777732</v>
       </c>
-      <c r="J11" s="166"/>
+      <c r="J11" s="98"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E13" s="30"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="183" t="s">
+      <c r="A14" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="183" t="s">
+      <c r="D14" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="183" t="s">
+      <c r="E14" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="183" t="s">
+      <c r="G14" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="183" t="s">
+      <c r="H14" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="183" t="s">
+      <c r="I14" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="183" t="s">
+      <c r="J14" s="115" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="388" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="383" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="181" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="118">
+      <c r="A15" s="353" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="348" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="58">
         <v>43755</v>
       </c>
-      <c r="E15" s="204">
+      <c r="E15" s="136">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="13">
         <v>0.8569444444444444</v>
       </c>
-      <c r="G15" s="192">
+      <c r="G15" s="124">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H15" s="180">
+      <c r="H15" s="112">
         <f t="shared" ref="H15:H24" si="2">$F15-$E15</f>
         <v>2.3611111111111027E-2</v>
       </c>
-      <c r="I15" s="192">
+      <c r="I15" s="124">
         <v>1.8055555555555637E-2</v>
       </c>
-      <c r="J15" s="124">
+      <c r="J15" s="63">
         <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="389"/>
-      <c r="B16" s="384"/>
-      <c r="C16" s="386" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="119">
+      <c r="A16" s="354"/>
+      <c r="B16" s="349"/>
+      <c r="C16" s="351" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="59">
         <v>43755</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="15">
         <v>0.7583333333333333</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="15">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G16" s="113">
+      <c r="G16" s="53">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H16" s="193">
+      <c r="H16" s="125">
         <f t="shared" si="2"/>
         <v>7.5000000000000067E-2</v>
       </c>
-      <c r="I16" s="193">
+      <c r="I16" s="125">
         <v>3.3333333333333402E-2</v>
       </c>
-      <c r="J16" s="120">
+      <c r="J16" s="60">
         <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="389"/>
-      <c r="B17" s="385"/>
-      <c r="C17" s="387"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="158">
+      <c r="A17" s="354"/>
+      <c r="B17" s="350"/>
+      <c r="C17" s="352"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="196">
+      <c r="I17" s="128">
         <v>0</v>
       </c>
-      <c r="J17" s="188">
+      <c r="J17" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="389"/>
-      <c r="B18" s="390" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="186" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="225">
+      <c r="A18" s="354"/>
+      <c r="B18" s="355" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="144">
         <v>44121</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="13">
         <v>0.63888888888888895</v>
       </c>
-      <c r="F18" s="230">
+      <c r="F18" s="149">
         <v>0.75</v>
       </c>
-      <c r="G18" s="192">
+      <c r="G18" s="124">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H18" s="180">
+      <c r="H18" s="112">
         <f t="shared" si="2"/>
         <v>0.11111111111111105</v>
       </c>
-      <c r="I18" s="192">
+      <c r="I18" s="124">
         <v>2.7777777777777721E-2</v>
       </c>
-      <c r="J18" s="124">
+      <c r="J18" s="63">
         <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
-      <c r="B19" s="391"/>
-      <c r="C19" s="224" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="226">
+      <c r="A19" s="354"/>
+      <c r="B19" s="356"/>
+      <c r="C19" s="143" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="145">
         <v>43761</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="15">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F19" s="231">
+      <c r="F19" s="150">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G19" s="194">
+      <c r="G19" s="126">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H19" s="195">
+      <c r="H19" s="127">
         <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
-      <c r="I19" s="194">
+      <c r="I19" s="126">
         <v>2.0833333333333329E-2</v>
       </c>
-      <c r="J19" s="188">
+      <c r="J19" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
-      <c r="B20" s="383" t="s">
+      <c r="A20" s="354"/>
+      <c r="B20" s="348" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="182" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="227">
+      <c r="C20" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="146">
         <v>43761</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="13">
         <v>0.6875</v>
       </c>
-      <c r="F20" s="232">
+      <c r="F20" s="151">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G20" s="185">
+      <c r="G20" s="117">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H20" s="112">
+      <c r="H20" s="52">
         <f t="shared" si="2"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="I20" s="185">
+      <c r="I20" s="117">
         <v>2.0833333333333294E-2</v>
       </c>
-      <c r="J20" s="125">
+      <c r="J20" s="64">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="389"/>
-      <c r="B21" s="385"/>
-      <c r="C21" s="129" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="228">
+      <c r="A21" s="354"/>
+      <c r="B21" s="350"/>
+      <c r="C21" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="147">
         <v>43752</v>
       </c>
-      <c r="E21" s="123">
+      <c r="E21" s="62">
         <v>0.63888888888888895</v>
       </c>
-      <c r="F21" s="128">
+      <c r="F21" s="67">
         <v>0.69444444444444453</v>
       </c>
-      <c r="G21" s="196">
+      <c r="G21" s="128">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H21" s="158">
+      <c r="H21" s="91">
         <f t="shared" si="2"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="I21" s="196">
+      <c r="I21" s="128">
         <v>1.3888888888888916E-2</v>
       </c>
-      <c r="J21" s="187">
+      <c r="J21" s="119">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="389"/>
-      <c r="B22" s="163" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="189" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="229">
+      <c r="A22" s="354"/>
+      <c r="B22" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="148">
         <v>43774</v>
       </c>
-      <c r="E22" s="117">
+      <c r="E22" s="57">
         <v>0.25694444444444448</v>
       </c>
-      <c r="F22" s="233">
+      <c r="F22" s="152">
         <v>0.27083333333333331</v>
       </c>
-      <c r="G22" s="197">
+      <c r="G22" s="129">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H22" s="198">
+      <c r="H22" s="130">
         <f t="shared" si="2"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="I22" s="197">
+      <c r="I22" s="129">
         <v>6.9444444444444926E-3</v>
       </c>
-      <c r="J22" s="190">
+      <c r="J22" s="122">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
-      <c r="B23" s="383" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="169" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="114">
+      <c r="A23" s="354"/>
+      <c r="B23" s="348" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="54">
         <v>43756</v>
       </c>
-      <c r="E23" s="184">
+      <c r="E23" s="116">
         <v>0.61249999999999993</v>
       </c>
-      <c r="F23" s="115">
+      <c r="F23" s="55">
         <v>0.67013888888888884</v>
       </c>
-      <c r="G23" s="191">
+      <c r="G23" s="123">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H23" s="115">
+      <c r="H23" s="55">
         <f t="shared" si="2"/>
         <v>5.7638888888888906E-2</v>
       </c>
-      <c r="I23" s="191">
+      <c r="I23" s="123">
         <f>IF($H23&lt;=$G23,$G23-$H23,$H23-$G23)</f>
         <v>2.5694444444444423E-2</v>
       </c>
-      <c r="J23" s="234">
+      <c r="J23" s="153">
         <v>0.15</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="389"/>
-      <c r="B24" s="384"/>
-      <c r="C24" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="151">
+      <c r="A24" s="354"/>
+      <c r="B24" s="349"/>
+      <c r="C24" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="84">
         <v>43773</v>
       </c>
-      <c r="E24" s="185">
+      <c r="E24" s="117">
         <v>0.60069444444444442</v>
       </c>
-      <c r="F24" s="112">
+      <c r="F24" s="52">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G24" s="185">
+      <c r="G24" s="117">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H24" s="112">
+      <c r="H24" s="52">
         <f t="shared" si="2"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="I24" s="185">
+      <c r="I24" s="117">
         <f>IF($H24&lt;=$G24,$G24-$H24,$H24-$G24)</f>
         <v>2.4305555555555618E-2</v>
       </c>
-      <c r="J24" s="235">
+      <c r="J24" s="154">
         <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="259" t="s">
+      <c r="A25" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="160"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="2">
+      <c r="B25" s="93"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="1">
         <f>SUM(G15:G24)</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <f>SUM(H15:H24)</f>
         <v>0.46527777777777779</v>
       </c>
-      <c r="I25" s="249">
+      <c r="I25" s="164">
         <f>IF(H25&lt;=G25,G25-H25,H25-G25)</f>
         <v>6.9444444444444753E-3</v>
       </c>
-      <c r="J25" s="116"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="100" t="s">
+      <c r="A29" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="220">
+      <c r="A30" s="140">
         <f>G11+G25</f>
         <v>1.5104166666666667</v>
       </c>
-      <c r="B30" s="221">
+      <c r="B30" s="141">
         <f>H11+H25</f>
         <v>1.8013888888888885</v>
       </c>
-      <c r="C30" s="222">
+      <c r="C30" s="142">
         <f>ABS(G11-H11+G25-H25)</f>
         <v>0.2909722222222218</v>
       </c>
@@ -14740,1291 +14717,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4C5F66-E89D-4EAB-B57A-C68CB0901AD5}">
-  <dimension ref="A1:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB12016C-5AD0-4B02-85F3-4A8A4C0080BC}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="4"/>
-    <col min="10" max="10" width="23" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="92" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="398" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="395" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="272" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="206" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G2" s="209">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H2" s="210">
-        <f t="shared" ref="H2:H3" si="0">$F2-$E2</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="I2" s="18">
-        <f t="shared" ref="I2:I3" si="1">IF($H2&lt;=$G2,$G2-$H2,$H2-G2)</f>
-        <v>4.1666666666666595E-2</v>
-      </c>
-      <c r="J2" s="236">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="399"/>
-      <c r="B3" s="396"/>
-      <c r="C3" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0.79861111111111116</v>
-      </c>
-      <c r="G3" s="16">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H3" s="19">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="I3" s="21">
-        <f t="shared" si="1"/>
-        <v>2.0833333333333336E-2</v>
-      </c>
-      <c r="J3" s="237">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="399"/>
-      <c r="B4" s="396"/>
-      <c r="C4" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.84027777777777779</v>
-      </c>
-      <c r="G4" s="32">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="H4" s="33">
-        <f t="shared" ref="H4:H6" si="2">$F4-$E4</f>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="I4" s="13">
-        <f t="shared" ref="I4:I6" si="3">IF($H4&lt;=$G4,$G4-$H4,$H4-G4)</f>
-        <v>6.9444444444443712E-3</v>
-      </c>
-      <c r="J4" s="238">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="399"/>
-      <c r="B5" s="396"/>
-      <c r="C5" s="107" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="G5" s="16">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="H5" s="19">
-        <f t="shared" si="2"/>
-        <v>2.777777777777779E-2</v>
-      </c>
-      <c r="I5" s="21">
-        <f t="shared" si="3"/>
-        <v>6.9444444444444579E-3</v>
-      </c>
-      <c r="J5" s="237">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="399"/>
-      <c r="B6" s="396"/>
-      <c r="C6" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="G6" s="32">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="H6" s="33">
-        <f t="shared" si="2"/>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="I6" s="13">
-        <f t="shared" si="3"/>
-        <v>2.4286128663675299E-17</v>
-      </c>
-      <c r="J6" s="238">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="399"/>
-      <c r="B7" s="396"/>
-      <c r="C7" s="266" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="267" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="268">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F7" s="268">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G7" s="268"/>
-      <c r="H7" s="269">
-        <f t="shared" ref="H7:H30" si="4">$F7-$E7</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="I7" s="270">
-        <f t="shared" ref="I7:I30" si="5">IF($H7&lt;=$G7,$G7-$H7,$H7-G7)</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="J7" s="271"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="399"/>
-      <c r="B8" s="396"/>
-      <c r="C8" s="260" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="261" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="262">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F8" s="262">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="G8" s="263"/>
-      <c r="H8" s="264">
-        <f t="shared" si="4"/>
-        <v>3.4722222222222099E-2</v>
-      </c>
-      <c r="I8" s="262">
-        <f t="shared" si="5"/>
-        <v>3.4722222222222099E-2</v>
-      </c>
-      <c r="J8" s="265"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="399"/>
-      <c r="B9" s="396"/>
-      <c r="C9" s="266" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="267" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="268">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="F9" s="268">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="G9" s="268"/>
-      <c r="H9" s="269">
-        <f t="shared" si="4"/>
-        <v>0.15972222222222221</v>
-      </c>
-      <c r="I9" s="270">
-        <f t="shared" si="5"/>
-        <v>0.15972222222222221</v>
-      </c>
-      <c r="J9" s="271"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="399"/>
-      <c r="B10" s="396"/>
-      <c r="C10" s="260" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="261" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="262">
-        <v>0.8125</v>
-      </c>
-      <c r="F10" s="262">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G10" s="263"/>
-      <c r="H10" s="264">
-        <f t="shared" si="4"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="I10" s="262">
-        <f t="shared" si="5"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="J10" s="265"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="399"/>
-      <c r="B11" s="396"/>
-      <c r="C11" s="266" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="267" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="268">
-        <v>0.76736111111111116</v>
-      </c>
-      <c r="F11" s="268">
-        <v>0.8125</v>
-      </c>
-      <c r="G11" s="268"/>
-      <c r="H11" s="269">
-        <f t="shared" si="4"/>
-        <v>4.513888888888884E-2</v>
-      </c>
-      <c r="I11" s="270">
-        <f t="shared" si="5"/>
-        <v>4.513888888888884E-2</v>
-      </c>
-      <c r="J11" s="271"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="399"/>
-      <c r="B12" s="396"/>
-      <c r="C12" s="260" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="261" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="262">
-        <v>0.75</v>
-      </c>
-      <c r="F12" s="262">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="G12" s="263"/>
-      <c r="H12" s="264">
-        <f t="shared" si="4"/>
-        <v>1.388888888888884E-2</v>
-      </c>
-      <c r="I12" s="262">
-        <f t="shared" si="5"/>
-        <v>1.388888888888884E-2</v>
-      </c>
-      <c r="J12" s="265"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="399"/>
-      <c r="B13" s="396"/>
-      <c r="C13" s="266" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="267" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="268">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="F13" s="268">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="G13" s="268"/>
-      <c r="H13" s="269">
-        <f t="shared" si="4"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="I13" s="270">
-        <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="J13" s="271"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="399"/>
-      <c r="B14" s="396"/>
-      <c r="C14" s="260" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="261" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="262">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="F14" s="262">
-        <v>0.6875</v>
-      </c>
-      <c r="G14" s="263"/>
-      <c r="H14" s="264">
-        <f t="shared" si="4"/>
-        <v>5.902777777777779E-2</v>
-      </c>
-      <c r="I14" s="262">
-        <f t="shared" si="5"/>
-        <v>5.902777777777779E-2</v>
-      </c>
-      <c r="J14" s="265"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="399"/>
-      <c r="B15" s="397"/>
-      <c r="C15" s="266" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="267" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="268">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F15" s="268">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="G15" s="268"/>
-      <c r="H15" s="269">
-        <f t="shared" si="4"/>
-        <v>0.11111111111111116</v>
-      </c>
-      <c r="I15" s="270">
-        <f t="shared" si="5"/>
-        <v>0.11111111111111116</v>
-      </c>
-      <c r="J15" s="271"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="399"/>
-      <c r="B16" s="401" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="273" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="274" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="275">
-        <v>0.72569444444444453</v>
-      </c>
-      <c r="F16" s="275">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="G16" s="276"/>
-      <c r="H16" s="277">
-        <f t="shared" si="4"/>
-        <v>0.17013888888888884</v>
-      </c>
-      <c r="I16" s="275">
-        <f t="shared" si="5"/>
-        <v>0.17013888888888884</v>
-      </c>
-      <c r="J16" s="278"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="399"/>
-      <c r="B17" s="402"/>
-      <c r="C17" s="266" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="267" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="268">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="F17" s="268">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="G17" s="268"/>
-      <c r="H17" s="269">
-        <f t="shared" si="4"/>
-        <v>7.9861111111111049E-2</v>
-      </c>
-      <c r="I17" s="270">
-        <f t="shared" si="5"/>
-        <v>7.9861111111111049E-2</v>
-      </c>
-      <c r="J17" s="271"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="399"/>
-      <c r="B18" s="402"/>
-      <c r="C18" s="260" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="261" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="262">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F18" s="262">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="G18" s="263"/>
-      <c r="H18" s="264">
-        <f t="shared" si="4"/>
-        <v>9.027777777777779E-2</v>
-      </c>
-      <c r="I18" s="262">
-        <f t="shared" si="5"/>
-        <v>9.027777777777779E-2</v>
-      </c>
-      <c r="J18" s="265"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="399"/>
-      <c r="B19" s="402"/>
-      <c r="C19" s="266" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="267" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="268">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="F19" s="268">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="G19" s="268"/>
-      <c r="H19" s="269">
-        <f t="shared" si="4"/>
-        <v>4.5138888888888951E-2</v>
-      </c>
-      <c r="I19" s="270">
-        <f t="shared" si="5"/>
-        <v>4.5138888888888951E-2</v>
-      </c>
-      <c r="J19" s="271"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="399"/>
-      <c r="B20" s="402"/>
-      <c r="C20" s="260" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="261" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="262">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="F20" s="262">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="G20" s="263"/>
-      <c r="H20" s="264">
-        <f t="shared" si="4"/>
-        <v>7.986111111111116E-2</v>
-      </c>
-      <c r="I20" s="262">
-        <f t="shared" si="5"/>
-        <v>7.986111111111116E-2</v>
-      </c>
-      <c r="J20" s="265"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="399"/>
-      <c r="B21" s="402"/>
-      <c r="C21" s="266" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="267" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="268">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F21" s="268">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="G21" s="268"/>
-      <c r="H21" s="269">
-        <f t="shared" si="4"/>
-        <v>0.11111111111111116</v>
-      </c>
-      <c r="I21" s="270">
-        <f t="shared" si="5"/>
-        <v>0.11111111111111116</v>
-      </c>
-      <c r="J21" s="271"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="399"/>
-      <c r="B22" s="402"/>
-      <c r="C22" s="260" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="261" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="262">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="F22" s="262">
-        <v>0.75</v>
-      </c>
-      <c r="G22" s="263"/>
-      <c r="H22" s="264">
-        <f t="shared" si="4"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="I22" s="262">
-        <f t="shared" si="5"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="J22" s="265"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="399"/>
-      <c r="B23" s="402"/>
-      <c r="C23" s="266" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="267" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="268">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="F23" s="268">
-        <v>0.81597222222222221</v>
-      </c>
-      <c r="G23" s="268"/>
-      <c r="H23" s="269">
-        <f t="shared" si="4"/>
-        <v>4.513888888888884E-2</v>
-      </c>
-      <c r="I23" s="270">
-        <f t="shared" si="5"/>
-        <v>4.513888888888884E-2</v>
-      </c>
-      <c r="J23" s="271"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="399"/>
-      <c r="B24" s="402"/>
-      <c r="C24" s="260" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="261" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="262">
-        <v>0.83680555555555547</v>
-      </c>
-      <c r="F24" s="262">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="G24" s="263"/>
-      <c r="H24" s="264">
-        <f t="shared" si="4"/>
-        <v>5.9027777777777901E-2</v>
-      </c>
-      <c r="I24" s="262">
-        <f t="shared" si="5"/>
-        <v>5.9027777777777901E-2</v>
-      </c>
-      <c r="J24" s="265"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="399"/>
-      <c r="B25" s="402"/>
-      <c r="C25" s="266" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="267" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="268">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F25" s="268">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="G25" s="268"/>
-      <c r="H25" s="269">
-        <f t="shared" si="4"/>
-        <v>1.388888888888884E-2</v>
-      </c>
-      <c r="I25" s="270">
-        <f t="shared" si="5"/>
-        <v>1.388888888888884E-2</v>
-      </c>
-      <c r="J25" s="271"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="399"/>
-      <c r="B26" s="402"/>
-      <c r="C26" s="260" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="261" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="262">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="F26" s="262">
-        <v>0.64236111111111105</v>
-      </c>
-      <c r="G26" s="263"/>
-      <c r="H26" s="264">
-        <f t="shared" si="4"/>
-        <v>2.4305555555555469E-2</v>
-      </c>
-      <c r="I26" s="262">
-        <f t="shared" si="5"/>
-        <v>2.4305555555555469E-2</v>
-      </c>
-      <c r="J26" s="265"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="399"/>
-      <c r="B27" s="402"/>
-      <c r="C27" s="266"/>
-      <c r="D27" s="267"/>
-      <c r="E27" s="268"/>
-      <c r="F27" s="268"/>
-      <c r="G27" s="268"/>
-      <c r="H27" s="269">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="270">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="271"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="399"/>
-      <c r="B28" s="402"/>
-      <c r="C28" s="260"/>
-      <c r="D28" s="261"/>
-      <c r="E28" s="262"/>
-      <c r="F28" s="262"/>
-      <c r="G28" s="263"/>
-      <c r="H28" s="264">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="262">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="265"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="399"/>
-      <c r="B29" s="402"/>
-      <c r="C29" s="266"/>
-      <c r="D29" s="267"/>
-      <c r="E29" s="268"/>
-      <c r="F29" s="268"/>
-      <c r="G29" s="268"/>
-      <c r="H29" s="269">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="270">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="271"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="400"/>
-      <c r="B30" s="403"/>
-      <c r="C30" s="260"/>
-      <c r="D30" s="261"/>
-      <c r="E30" s="262"/>
-      <c r="F30" s="262"/>
-      <c r="G30" s="263"/>
-      <c r="H30" s="264">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="262">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="265"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="373" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="394"/>
-      <c r="C31" s="370"/>
-      <c r="D31" s="372"/>
-      <c r="E31" s="372"/>
-      <c r="F31" s="371"/>
-      <c r="G31" s="7">
-        <f>SUM(G2:G6)</f>
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="H31" s="6">
-        <f>SUM(H2:H30)</f>
-        <v>1.489583333333333</v>
-      </c>
-      <c r="I31" s="6">
-        <f>ABS(G31-H31)</f>
-        <v>1.364583333333333</v>
-      </c>
-      <c r="J31" s="239"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J32" s="240"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="241" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="392" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="392" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="206" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="18">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F34" s="18">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="G34" s="209">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H34" s="210">
-        <f t="shared" ref="H34:H44" si="6">$F34-$E34</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="I34" s="18">
-        <f t="shared" ref="I34:I44" si="7">IF($H34&lt;=$G34,$G34-$H34,$H34-G34)</f>
-        <v>2.0833333333333336E-2</v>
-      </c>
-      <c r="J34" s="236">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="379"/>
-      <c r="B35" s="379"/>
-      <c r="C35" s="216" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="207" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="21">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="F35" s="21">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="G35" s="208">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H35" s="150">
-        <f t="shared" si="6"/>
-        <v>6.9444444444445308E-3</v>
-      </c>
-      <c r="I35" s="21">
-        <f t="shared" si="7"/>
-        <v>3.4722222222222134E-2</v>
-      </c>
-      <c r="J35" s="242">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="379"/>
-      <c r="B36" s="393"/>
-      <c r="C36" s="177" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="24">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="F36" s="24">
-        <v>0.71875</v>
-      </c>
-      <c r="G36" s="24">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H36" s="217">
-        <f t="shared" si="6"/>
-        <v>2.777777777777779E-2</v>
-      </c>
-      <c r="I36" s="24">
-        <f t="shared" si="7"/>
-        <v>1.3888888888888874E-2</v>
-      </c>
-      <c r="J36" s="243">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="379"/>
-      <c r="B37" s="205" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="212" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="213" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="214">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="F37" s="214">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G37" s="214">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H37" s="215">
-        <f t="shared" si="6"/>
-        <v>1.736111111111116E-2</v>
-      </c>
-      <c r="I37" s="214">
-        <f t="shared" si="7"/>
-        <v>2.4305555555555504E-2</v>
-      </c>
-      <c r="J37" s="244">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="379"/>
-      <c r="B38" s="392" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="206" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="F38" s="18">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G38" s="209">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H38" s="210">
-        <f t="shared" si="6"/>
-        <v>5.5555555555555469E-2</v>
-      </c>
-      <c r="I38" s="18">
-        <f t="shared" si="7"/>
-        <v>1.3888888888888805E-2</v>
-      </c>
-      <c r="J38" s="236">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="379"/>
-      <c r="B39" s="379"/>
-      <c r="C39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="16">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="F39" s="16">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="G39" s="16">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="H39" s="150">
-        <f t="shared" si="6"/>
-        <v>2.4305555555555525E-2</v>
-      </c>
-      <c r="I39" s="21">
-        <f t="shared" si="7"/>
-        <v>1.0416666666666637E-2</v>
-      </c>
-      <c r="J39" s="237">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="379"/>
-      <c r="B40" s="379"/>
-      <c r="C40" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F40" s="13">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G40" s="32">
-        <v>3.125E-2</v>
-      </c>
-      <c r="H40" s="33">
-        <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="I40" s="13">
-        <f t="shared" si="7"/>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="J40" s="238">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="379"/>
-      <c r="B41" s="379"/>
-      <c r="C41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="16">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F41" s="16">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="G41" s="16">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="H41" s="150">
-        <f t="shared" si="6"/>
-        <v>1.7361111111111049E-2</v>
-      </c>
-      <c r="I41" s="21">
-        <f t="shared" si="7"/>
-        <v>1.0416666666666605E-2</v>
-      </c>
-      <c r="J41" s="237">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="379"/>
-      <c r="B42" s="379"/>
-      <c r="C42" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="13">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="F42" s="13">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="G42" s="32">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H42" s="33">
-        <f t="shared" si="6"/>
-        <v>4.861111111111116E-2</v>
-      </c>
-      <c r="I42" s="13">
-        <f t="shared" si="7"/>
-        <v>6.9444444444444961E-3</v>
-      </c>
-      <c r="J42" s="238">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="379"/>
-      <c r="B43" s="393"/>
-      <c r="C43" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="15">
-        <v>0.81597222222222221</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="G43" s="15">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="H43" s="211">
-        <f t="shared" si="6"/>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="I43" s="22">
-        <f t="shared" si="7"/>
-        <v>3.4722222222221856E-3</v>
-      </c>
-      <c r="J43" s="245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="162" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="218" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="206" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="18">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F44" s="18">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="G44" s="18">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H44" s="204">
-        <f t="shared" si="6"/>
-        <v>7.638888888888884E-2</v>
-      </c>
-      <c r="I44" s="18">
-        <f t="shared" si="7"/>
-        <v>6.9444444444444892E-3</v>
-      </c>
-      <c r="J44" s="236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="373" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="371"/>
-      <c r="C45" s="370"/>
-      <c r="D45" s="372"/>
-      <c r="E45" s="372"/>
-      <c r="F45" s="371"/>
-      <c r="G45" s="219">
-        <f>SUM(G34:G44)</f>
-        <v>0.39236111111111105</v>
-      </c>
-      <c r="H45" s="8">
-        <f>SUM(H34:H44)</f>
-        <v>0.38888888888888878</v>
-      </c>
-      <c r="I45" s="8">
-        <f>ABS(G45-H45)</f>
-        <v>3.4722222222222654E-3</v>
-      </c>
-      <c r="J45" s="26"/>
-    </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="223" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="100" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="285">
-        <f>G31+G45</f>
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="B49" s="285">
-        <f>H31+H45</f>
-        <v>1.8784722222222219</v>
-      </c>
-      <c r="C49" s="285">
-        <f>I31+I45</f>
-        <v>1.3680555555555554</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="A2:A30"/>
-    <mergeCell ref="B16:B30"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="A34:A43"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100258808CF52984040B987816AAA774D13" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="dad82a5d1e09829d39ae01e89a9f4de9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="96baf148-0394-4110-8b73-6de8c89f3de6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="130664f8bac5d18401831ccb17eb2518" ns3:_="">
     <xsd:import namespace="96baf148-0394-4110-8b73-6de8c89f3de6"/>
@@ -16194,31 +14898,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5B086BB-76D5-4CFC-91A8-EACCB9CE6895}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{921B4399-A4C8-41C7-81BF-DE7CD4C15AC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="96baf148-0394-4110-8b73-6de8c89f3de6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C15294-F8ED-4D21-906D-28A980F72784}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16234,4 +14929,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{921B4399-A4C8-41C7-81BF-DE7CD4C15AC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="96baf148-0394-4110-8b73-6de8c89f3de6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5B086BB-76D5-4CFC-91A8-EACCB9CE6895}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>